--- a/REB Engine Profile.xlsx
+++ b/REB Engine Profile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgkid\Documents\GitHub\REBalanced\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85035BEF-13C6-4687-98DB-C7C40BC4F5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AD53EF-BB89-4032-A0FE-B8CBF2C8E128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48F6B32E-432E-46EB-935F-18F86645025F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{48F6B32E-432E-46EB-935F-18F86645025F}"/>
   </bookViews>
   <sheets>
     <sheet name="Thrust" sheetId="1" r:id="rId1"/>
@@ -6395,7 +6395,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{56A8DD58-7ECC-479E-88D8-A0EAF35ACF06}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6961,7 +6961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9BA4F5-4601-45D4-A8D5-481C1BEBEC64}">
   <dimension ref="A1:S117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>

--- a/REB Engine Profile.xlsx
+++ b/REB Engine Profile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgkid\Documents\GitHub\REBalanced\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33920049-3E1F-4CAA-9F0B-01A57CEA14D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426D5D2A-F684-4B0F-8CFC-EFB97BF2BE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{48F6B32E-432E-46EB-935F-18F86645025F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48F6B32E-432E-46EB-935F-18F86645025F}"/>
   </bookViews>
   <sheets>
     <sheet name="IRL" sheetId="4" r:id="rId1"/>
@@ -460,9 +460,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -489,6 +486,9 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6966,8 +6966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFD454E-F3C6-4FAB-86B6-C320D531FCD7}">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6975,62 +6975,62 @@
     <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="3"/>
-    <col min="7" max="7" width="13.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="16.75" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="4" customWidth="1"/>
-    <col min="12" max="12" width="16.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.75" style="5" customWidth="1"/>
-    <col min="15" max="15" width="16.75" style="6" customWidth="1"/>
-    <col min="16" max="16" width="11.25" style="6" customWidth="1"/>
-    <col min="17" max="17" width="11.25" style="3" customWidth="1"/>
-    <col min="18" max="18" width="9.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="6" bestFit="1"/>
-    <col min="20" max="20" width="8.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="2"/>
+    <col min="7" max="7" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.75" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.75" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16.75" style="5" customWidth="1"/>
+    <col min="16" max="16" width="11.25" style="5" customWidth="1"/>
+    <col min="17" max="17" width="11.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="5" bestFit="1"/>
+    <col min="20" max="20" width="8.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -7122,87 +7122,87 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>10660</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>4930</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>16769</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>10600</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>16000</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>0.85299999999999998</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>1.85</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>142</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <f t="shared" ref="L3:M5" si="0">G3/224.809</f>
         <v>47.151137187568111</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <f t="shared" si="0"/>
         <v>71.171527830291495</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <f t="shared" ref="N3:O5" si="1">I3*28.325</f>
         <v>24.161224999999998</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="4">
         <f t="shared" si="1"/>
         <v>52.401250000000005</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="5">
         <f t="shared" ref="P3:Q5" si="2">L3*N3/1000</f>
         <v>1.1392292345947004</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="5">
         <f t="shared" si="2"/>
         <v>3.7294770227170626</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="5">
         <f>K3/2.205</f>
         <v>64.399092970521536</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="5">
         <f>(C3*L3*1000/9.81)/D3</f>
         <v>0.90177035700003838</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="5">
         <f>(C3*L3*1000/9.81)/F3</f>
         <v>0.57325254968217598</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="5">
         <f>(C3*M3*1000/9.81)/D3</f>
         <v>1.361162803018926</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="5">
         <f>(C3*M3*1000/9.81)/F3</f>
         <v>0.86528686744479399</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="5">
         <f>E3/(P3*C3)</f>
         <v>2163.743630470442</v>
       </c>
-      <c r="X3" s="6">
+      <c r="X3" s="5">
         <f>E3/(Q3*C3)</f>
         <v>660.95057966174465</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Y3" s="5">
         <f>W3*0.33</f>
         <v>714.03539805524588</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="Z3" s="5">
         <f>Q3/P3</f>
         <v>3.2736844433630479</v>
       </c>
@@ -7217,87 +7217,87 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>10433</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>4930</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>16769</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>11950</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>17700</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>0.85299999999999998</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>1.74</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>146</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <f t="shared" si="0"/>
         <v>53.156234848248957</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <f t="shared" si="0"/>
         <v>78.733502662259966</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <f t="shared" si="1"/>
         <v>24.161224999999998</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <f t="shared" si="1"/>
         <v>49.285499999999999</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <f t="shared" si="2"/>
         <v>1.2843197503213837</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="5">
         <f t="shared" si="2"/>
         <v>3.8804200454608133</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="5">
         <f>K4/2.205</f>
         <v>66.213151927437636</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="5">
         <f>(C4*L4*1000/9.81)/D4</f>
         <v>1.038737934847191</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="5">
         <f>(C4*L4*1000/9.81)/F4</f>
         <v>0.64626112912283051</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="5">
         <f>(C4*M4*1000/9.81)/D4</f>
         <v>1.5385490750456305</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="5">
         <f>(C4*M4*1000/9.81)/F4</f>
         <v>0.9572235971108034</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="5">
         <f>E4/(P4*C4)</f>
         <v>1919.3039734716897</v>
       </c>
-      <c r="X4" s="6">
+      <c r="X4" s="5">
         <f>E4/(Q4*C4)</f>
         <v>635.24050775984301</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Y4" s="5">
         <f t="shared" ref="Y4:Y5" si="3">W4*0.33</f>
         <v>633.3703112456576</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="Z4" s="5">
         <f>Q4/P4</f>
         <v>3.0213815870150644</v>
       </c>
@@ -7312,98 +7312,98 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>14552</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>6667</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>23000</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>12500</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>22000</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>0.72399999999999998</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>1.8</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>169</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <f t="shared" si="0"/>
         <v>55.602756117415225</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f t="shared" si="0"/>
         <v>97.860850766650799</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <f t="shared" si="1"/>
         <v>20.507299999999997</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <f t="shared" si="1"/>
         <v>50.984999999999999</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="5">
         <f t="shared" si="2"/>
         <v>1.1402624005266691</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <f t="shared" si="2"/>
         <v>4.9894354763376905</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="5">
         <f>K5/2.205</f>
         <v>76.643990929705211</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="5">
         <f>(C5*L5*1000/9.81)/D5</f>
         <v>0.77899491265063181</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="5">
         <f>(C5*L5*1000/9.81)/F5</f>
         <v>0.49286669429965191</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="5">
         <f>(C5*M5*1000/9.81)/D5</f>
         <v>1.3710310462651119</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5" s="5">
         <f>(C5*M5*1000/9.81)/F5</f>
         <v>0.86744538196738719</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="5">
         <f>E5/(P5*C5)</f>
         <v>2923.4498993041507</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="5">
         <f>E5/(Q5*C5)</f>
         <v>668.1116562803677</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Y5" s="5">
         <f t="shared" si="3"/>
         <v>964.73846677036977</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="Z5" s="5">
         <f>Q5/P5</f>
         <v>4.375690607734807</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="Q6" s="6"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -7415,87 +7415,87 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>7390</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>3200</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>12020</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>14670</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>23830</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>0.73499999999999999</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>2.1</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>228</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <f t="shared" ref="L7:M11" si="4">G7/224.809</f>
         <v>65.255394579398512</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <f t="shared" si="4"/>
         <v>106.00109426224039</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4">
         <f t="shared" ref="N7:O11" si="5">I7*28.325</f>
         <v>20.818874999999998</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="4">
         <f t="shared" si="5"/>
         <v>59.482500000000002</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="5">
         <f t="shared" ref="P7:Q11" si="6">L7*N7/1000</f>
         <v>1.358543902824175</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="5">
         <f t="shared" si="6"/>
         <v>6.3052100894537144</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="5">
         <f>K7/2.205</f>
         <v>103.40136054421768</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="5">
         <f>(C7*L7*1000/9.81)/D7</f>
         <v>0.90012531163001641</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="5">
         <f>(C7*L7*1000/9.81)/F7</f>
         <v>0.55340482969599181</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="5">
         <f>(C7*M7*1000/9.81)/D7</f>
         <v>1.4621667468400332</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="5">
         <f>(C7*M7*1000/9.81)/F7</f>
         <v>0.89895276698401383</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="5">
         <f>E7/(P7*C7)</f>
         <v>2355.4630758327057</v>
       </c>
-      <c r="X7" s="6">
+      <c r="X7" s="5">
         <f>E7/(Q7*C7)</f>
         <v>507.51679239878416</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Y7" s="5">
         <f t="shared" ref="Y7:Y8" si="7">W7*0.33</f>
         <v>777.30281502479295</v>
       </c>
-      <c r="Z7" s="6">
+      <c r="Z7" s="5">
         <f>Q7/P7</f>
         <v>4.641152984711268</v>
       </c>
@@ -7510,87 +7510,87 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>8573</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>3200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>12020</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>16600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>28000</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>0.745</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>1.9710000000000001</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>264</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <f t="shared" si="4"/>
         <v>73.840460123927429</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <f t="shared" si="4"/>
         <v>124.55017370301012</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="4">
         <f t="shared" si="5"/>
         <v>21.102125000000001</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="4">
         <f t="shared" si="5"/>
         <v>55.828575000000001</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="5">
         <f t="shared" si="6"/>
         <v>1.5581906195926323</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <f t="shared" si="6"/>
         <v>6.9534587138415285</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="5">
         <f>K8/2.205</f>
         <v>119.72789115646258</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="5">
         <f>(C8*L8*1000/9.81)/D8</f>
         <v>0.87799605218060006</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="5">
         <f>(C8*L8*1000/9.81)/F8</f>
         <v>0.62621132739969088</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="5">
         <f>(C8*M8*1000/9.81)/D8</f>
         <v>1.4809571964492048</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="5">
         <f>(C8*M8*1000/9.81)/F8</f>
         <v>1.0562600703127314</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="5">
         <f>E8/(P8*C8)</f>
         <v>2053.6640124534933</v>
       </c>
-      <c r="X8" s="6">
+      <c r="X8" s="5">
         <f>E8/(Q8*C8)</f>
         <v>460.20263176799943</v>
       </c>
-      <c r="Y8" s="6">
+      <c r="Y8" s="5">
         <f t="shared" si="7"/>
         <v>677.70912410965286</v>
       </c>
-      <c r="Z8" s="6">
+      <c r="Z8" s="5">
         <f>Q8/P8</f>
         <v>4.462521225842969</v>
       </c>
@@ -7605,87 +7605,87 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>8573</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>3200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>12020</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>17000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>29000</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>0.745</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>1.9</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>270</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <f t="shared" si="4"/>
         <v>75.619748319684717</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <f t="shared" si="4"/>
         <v>128.99839419240334</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <f t="shared" si="5"/>
         <v>21.102125000000001</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="4">
         <f t="shared" si="5"/>
         <v>53.817499999999995</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <f t="shared" si="6"/>
         <v>1.5957373815105271</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="5">
         <f t="shared" si="6"/>
         <v>6.942371079449666</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="5">
         <f>K9/2.205</f>
         <v>122.44897959183673</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="5">
         <f>(C9*L9*1000/9.81)/D9</f>
         <v>0.89915258355844574</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="5">
         <f>(C9*L9*1000/9.81)/F9</f>
         <v>0.64130075697558697</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="5">
         <f>(C9*M9*1000/9.81)/D9</f>
         <v>1.5338485248938192</v>
       </c>
-      <c r="V9" s="6">
+      <c r="V9" s="5">
         <f>(C9*M9*1000/9.81)/F9</f>
         <v>1.093983644252472</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="5">
         <f>E9/(P9*C9)</f>
         <v>2005.3425062781168</v>
       </c>
-      <c r="X9" s="6">
+      <c r="X9" s="5">
         <f>E9/(Q9*C9)</f>
         <v>460.93761963724785</v>
       </c>
-      <c r="Y9" s="6">
+      <c r="Y9" s="5">
         <f>W9*0.33</f>
         <v>661.76302707177854</v>
       </c>
-      <c r="Z9" s="6">
+      <c r="Z9" s="5">
         <f>Q9/P9</f>
         <v>4.3505724437425961</v>
       </c>
@@ -7700,87 +7700,87 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>8573</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>3200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>12020</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>14670</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>23830</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>0.73499999999999999</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>2.1</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>228</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <f t="shared" si="4"/>
         <v>65.255394579398512</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <f t="shared" si="4"/>
         <v>106.00109426224039</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="4">
         <f t="shared" si="5"/>
         <v>20.818874999999998</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="4">
         <f t="shared" si="5"/>
         <v>59.482500000000002</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="5">
         <f t="shared" si="6"/>
         <v>1.358543902824175</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <f t="shared" si="6"/>
         <v>6.3052100894537144</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="5">
         <f>K10/2.205</f>
         <v>103.40136054421768</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="5">
         <f>(C10*L10*1000/9.81)/D10</f>
         <v>0.77591578828249408</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="5">
         <f>(C10*L10*1000/9.81)/F10</f>
         <v>0.55340482969599181</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="5">
         <f>(C10*M10*1000/9.81)/D10</f>
         <v>1.2604003568351623</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="5">
         <f>(C10*M10*1000/9.81)/F10</f>
         <v>0.89895276698401383</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="5">
         <f>E10/(P10*C10)</f>
         <v>2355.4630758327057</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="5">
         <f>E10/(Q10*C10)</f>
         <v>507.51679239878416</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Y10" s="5">
         <f>W10*0.33</f>
         <v>777.30281502479295</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="Z10" s="5">
         <f>Q10/P10</f>
         <v>4.641152984711268</v>
       </c>
@@ -7795,98 +7795,98 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>8573</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>3200</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>12020</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>17800</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>29100</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>0.72599999999999998</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>2.06</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>254</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <f t="shared" si="4"/>
         <v>79.178324711199281</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <f t="shared" si="4"/>
         <v>129.44321624134264</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <f t="shared" si="5"/>
         <v>20.563949999999998</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="4">
         <f t="shared" si="5"/>
         <v>58.349499999999999</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="5">
         <f t="shared" si="6"/>
         <v>1.6282191104448664</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="5">
         <f t="shared" si="6"/>
         <v>7.552946946074222</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="5">
         <f>K11/2.205</f>
         <v>115.19274376417233</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="5">
         <f>(C11*L11*1000/9.81)/D11</f>
         <v>0.94146564631413721</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="5">
         <f>(C11*L11*1000/9.81)/F11</f>
         <v>0.67147961612737928</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="5">
         <f>(C11*M11*1000/9.81)/D11</f>
         <v>1.5391376577382805</v>
       </c>
-      <c r="V11" s="6">
+      <c r="V11" s="5">
         <f>(C11*M11*1000/9.81)/F11</f>
         <v>1.0977560016464458</v>
       </c>
-      <c r="W11" s="6">
+      <c r="W11" s="5">
         <f>E11/(P11*C11)</f>
         <v>1965.3374533392421</v>
       </c>
-      <c r="X11" s="6">
+      <c r="X11" s="5">
         <f>E11/(Q11*C11)</f>
         <v>423.6756888201441</v>
       </c>
-      <c r="Y11" s="6">
+      <c r="Y11" s="5">
         <f>W11*0.33</f>
         <v>648.5613596019499</v>
       </c>
-      <c r="Z11" s="6">
+      <c r="Z11" s="5">
         <f>Q11/P11</f>
         <v>4.638777973813724</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="Q12" s="6"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -7898,87 +7898,87 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>12701</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>6103</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>20185</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>14670</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>23830</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>0.73499999999999999</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>2.1</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>228</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <f t="shared" ref="L13:M16" si="8">G13/224.809</f>
         <v>65.255394579398512</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <f t="shared" si="8"/>
         <v>106.00109426224039</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="4">
         <f t="shared" ref="N13:O16" si="9">I13*28.325</f>
         <v>20.818874999999998</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="4">
         <f t="shared" si="9"/>
         <v>59.482500000000002</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="5">
         <f t="shared" ref="P13:Q16" si="10">L13*N13/1000</f>
         <v>1.358543902824175</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="5">
         <f t="shared" si="10"/>
         <v>6.3052100894537144</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="5">
         <f>K13/2.205</f>
         <v>103.40136054421768</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="5">
         <f>(C13*L13*1000/9.81)/D13</f>
         <v>1.0474649323589988</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="5">
         <f>(C13*L13*1000/9.81)/F13</f>
         <v>0.65909596759433453</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="5">
         <f>(C13*M13*1000/9.81)/D13</f>
         <v>1.701505749019423</v>
       </c>
-      <c r="V13" s="6">
+      <c r="V13" s="5">
         <f>(C13*M13*1000/9.81)/F13</f>
         <v>1.0706378260240621</v>
       </c>
-      <c r="W13" s="6">
+      <c r="W13" s="5">
         <f>E13/(P13*C13)</f>
         <v>2246.1548674698442</v>
       </c>
-      <c r="X13" s="6">
+      <c r="X13" s="5">
         <f>E13/(Q13*C13)</f>
         <v>483.96484125152807</v>
       </c>
-      <c r="Y13" s="6">
+      <c r="Y13" s="5">
         <f>W13*0.33</f>
         <v>741.23110626504865</v>
       </c>
-      <c r="Z13" s="6">
+      <c r="Z13" s="5">
         <f>Q13/P13</f>
         <v>4.641152984711268</v>
       </c>
@@ -7993,87 +7993,87 @@
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>14379</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>10591</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>23000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>14670</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>23830</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>0.73499999999999999</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>2.1</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>228</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <f t="shared" si="8"/>
         <v>65.255394579398512</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <f t="shared" si="8"/>
         <v>106.00109426224039</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="4">
         <f t="shared" si="9"/>
         <v>20.818874999999998</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="4">
         <f t="shared" si="9"/>
         <v>59.482500000000002</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="5">
         <f t="shared" si="10"/>
         <v>1.358543902824175</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="5">
         <f t="shared" si="10"/>
         <v>6.3052100894537144</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="5">
         <f>K14/2.205</f>
         <v>103.40136054421768</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="5">
         <f>(C14*L14*1000/9.81)/D14</f>
         <v>0.92522790916556386</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="5">
         <f>(C14*L14*1000/9.81)/F14</f>
         <v>0.5784283524300714</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="5">
         <f>(C14*M14*1000/9.81)/D14</f>
         <v>1.5029434952566725</v>
       </c>
-      <c r="V14" s="6">
+      <c r="V14" s="5">
         <f>(C14*M14*1000/9.81)/F14</f>
         <v>0.9396010660128562</v>
       </c>
-      <c r="W14" s="6">
+      <c r="W14" s="5">
         <f>E14/(P14*C14)</f>
         <v>3897.9233493975294</v>
       </c>
-      <c r="X14" s="6">
+      <c r="X14" s="5">
         <f>E14/(Q14*C14)</f>
         <v>839.86099192117547</v>
       </c>
-      <c r="Y14" s="6">
+      <c r="Y14" s="5">
         <f>W14*0.33</f>
         <v>1286.3147053011849</v>
       </c>
-      <c r="Z14" s="6">
+      <c r="Z14" s="5">
         <f>Q14/P14</f>
         <v>4.641152984711268</v>
       </c>
@@ -8088,87 +8088,87 @@
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>14379</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>10591</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>23000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>17000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>28000</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>0.745</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>1.9</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>270</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <f t="shared" si="8"/>
         <v>75.619748319684717</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="4">
         <f t="shared" si="8"/>
         <v>124.55017370301012</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="4">
         <f t="shared" si="9"/>
         <v>21.102125000000001</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="4">
         <f t="shared" si="9"/>
         <v>53.817499999999995</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="5">
         <f t="shared" si="10"/>
         <v>1.5957373815105271</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="5">
         <f t="shared" si="10"/>
         <v>6.7029789732617466</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="5">
         <f>K15/2.205</f>
         <v>122.44897959183673</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="5">
         <f>(C15*L15*1000/9.81)/D15</f>
         <v>1.0721795811734551</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="5">
         <f>(C15*L15*1000/9.81)/F15</f>
         <v>0.67029870424752658</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="5">
         <f>(C15*M15*1000/9.81)/D15</f>
         <v>1.7659428395798085</v>
       </c>
-      <c r="V15" s="6">
+      <c r="V15" s="5">
         <f>(C15*M15*1000/9.81)/F15</f>
         <v>1.1040213952312201</v>
       </c>
-      <c r="W15" s="6">
+      <c r="W15" s="5">
         <f>E15/(P15*C15)</f>
         <v>3318.5285131236774</v>
       </c>
-      <c r="X15" s="6">
+      <c r="X15" s="5">
         <f>E15/(Q15*C15)</f>
         <v>790.02187253216891</v>
       </c>
-      <c r="Y15" s="6">
+      <c r="Y15" s="5">
         <f>W15*0.33</f>
         <v>1095.1144093308135</v>
       </c>
-      <c r="Z15" s="6">
+      <c r="Z15" s="5">
         <f>Q15/P15</f>
         <v>4.2005527043031963</v>
       </c>
@@ -8183,98 +8183,98 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>14379</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>10591</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>23000</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>17800</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>29100</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>0.72599999999999998</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>2.06</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>254</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <f t="shared" si="8"/>
         <v>79.178324711199281</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="4">
         <f t="shared" si="8"/>
         <v>129.44321624134264</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="4">
         <f t="shared" si="9"/>
         <v>20.563949999999998</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="4">
         <f t="shared" si="9"/>
         <v>58.349499999999999</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="5">
         <f t="shared" si="10"/>
         <v>1.6282191104448664</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="5">
         <f t="shared" si="10"/>
         <v>7.552946946074222</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="5">
         <f>K16/2.205</f>
         <v>115.19274376417233</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="5">
         <f>(C16*L16*1000/9.81)/D16</f>
         <v>1.1226350908757352</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="5">
         <f>(C16*L16*1000/9.81)/F16</f>
         <v>0.70184217268270421</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="5">
         <f>(C16*M16*1000/9.81)/D16</f>
         <v>1.8353191654204435</v>
       </c>
-      <c r="V16" s="6">
+      <c r="V16" s="5">
         <f>(C16*M16*1000/9.81)/F16</f>
         <v>1.1473936643295894</v>
       </c>
-      <c r="W16" s="6">
+      <c r="W16" s="5">
         <f>E16/(P16*C16)</f>
         <v>3252.3264012993614</v>
       </c>
-      <c r="X16" s="6">
+      <c r="X16" s="5">
         <f>E16/(Q16*C16)</f>
         <v>701.11706567096041</v>
       </c>
-      <c r="Y16" s="6">
+      <c r="Y16" s="5">
         <f>W16*0.33</f>
         <v>1073.2677124287893</v>
       </c>
-      <c r="Z16" s="6">
+      <c r="Z16" s="5">
         <f>Q16/P16</f>
         <v>4.638777973813724</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="Q17" s="6"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -8286,87 +8286,87 @@
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>19838</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>7350</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>27669</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>12350</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>20900</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>0.66700000000000004</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>2.5</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="7">
         <v>260</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <f>G18/224.809</f>
         <v>54.935523044006246</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="4">
         <f>H18/224.809</f>
         <v>92.967808228318262</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="4">
         <f>I18*28.325</f>
         <v>18.892775</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="4">
         <f>J18*28.325</f>
         <v>70.8125</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="5">
         <f>L18*N18/1000</f>
         <v>1.0378844763777251</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18" s="5">
         <f>M18*O18/1000</f>
         <v>6.5832829201677869</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="5">
         <f>K18/2.205</f>
         <v>117.91383219954648</v>
       </c>
-      <c r="S18" s="6">
+      <c r="S18" s="5">
         <f>(C18*L18*1000/9.81)/D18</f>
         <v>0.56456813999724209</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="5">
         <f>(C18*L18*1000/9.81)/F18</f>
         <v>0.40478162424609809</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="5">
         <f>(C18*M18*1000/9.81)/D18</f>
         <v>0.95542300614917886</v>
       </c>
-      <c r="V18" s="6">
+      <c r="V18" s="5">
         <f>(C18*M18*1000/9.81)/F18</f>
         <v>0.68501505641647376</v>
       </c>
-      <c r="W18" s="6">
+      <c r="W18" s="5">
         <f>E18/(P18*C18)</f>
         <v>3540.8565053655643</v>
       </c>
-      <c r="X18" s="6">
+      <c r="X18" s="5">
         <f>E18/(Q18*C18)</f>
         <v>558.23212287317824</v>
       </c>
-      <c r="Y18" s="6">
+      <c r="Y18" s="5">
         <f t="shared" ref="Y18:Y19" si="11">W18*0.33</f>
         <v>1168.4826467706364</v>
       </c>
-      <c r="Z18" s="6">
+      <c r="Z18" s="5">
         <f>Q18/P18</f>
         <v>6.3429823549763578</v>
       </c>
@@ -8381,98 +8381,98 @@
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>19838</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>7350</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>27669</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>16800</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>26080</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>0.745</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>2</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <v>250</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <f>G19/224.809</f>
         <v>74.730104221806073</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="4">
         <f>H19/224.809</f>
         <v>116.00959036337514</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="4">
         <f>I19*28.325</f>
         <v>21.102125000000001</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="4">
         <f>J19*28.325</f>
         <v>56.65</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="5">
         <f>L19*N19/1000</f>
         <v>1.5769640005515797</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="5">
         <f>M19*O19/1000</f>
         <v>6.5719432940852007</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="5">
         <f>K19/2.205</f>
         <v>113.37868480725623</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S19" s="5">
         <f>(C19*L19*1000/9.81)/D19</f>
         <v>0.76799552647398128</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="5">
         <f>(C19*L19*1000/9.81)/F19</f>
         <v>0.55063411233477322</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="5">
         <f>(C19*M19*1000/9.81)/D19</f>
         <v>1.1922216268119898</v>
       </c>
-      <c r="V19" s="6">
+      <c r="V19" s="5">
         <f>(C19*M19*1000/9.81)/F19</f>
         <v>0.85479390771969554</v>
       </c>
-      <c r="W19" s="6">
+      <c r="W19" s="5">
         <f>E19/(P19*C19)</f>
         <v>2330.4273266317959</v>
       </c>
-      <c r="X19" s="6">
+      <c r="X19" s="5">
         <f>E19/(Q19*C19)</f>
         <v>559.19533014040587</v>
       </c>
-      <c r="Y19" s="6">
+      <c r="Y19" s="5">
         <f t="shared" si="11"/>
         <v>769.0410177884927</v>
       </c>
-      <c r="Z19" s="6">
+      <c r="Z19" s="5">
         <f>Q19/P19</f>
         <v>4.1674656439757101</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="Q20" s="6"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -8484,67 +8484,67 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>11321</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>4990</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>13782</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>9065</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>0.37</v>
       </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="3">
+      <c r="J21" s="3"/>
+      <c r="K21" s="2">
         <v>333</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="4">
         <f>G21/224.809</f>
         <v>40.323118736349521</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="4">
         <f>I21*28.325</f>
         <v>10.48025</v>
       </c>
-      <c r="O21" s="5"/>
-      <c r="P21" s="6">
+      <c r="O21" s="4"/>
+      <c r="P21" s="5">
         <f>L21*N21/1000</f>
         <v>0.42259636513662707</v>
       </c>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6">
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5">
         <f>K21/2.205</f>
         <v>151.0204081632653</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21" s="5">
         <f>(C21*L21*1000/9.81)/D21</f>
         <v>0.7261566393640555</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21" s="5">
         <f>(C21*L21*1000/9.81)/F21</f>
         <v>0.59648957438981809</v>
       </c>
-      <c r="W21" s="6">
+      <c r="W21" s="5">
         <f>E21/(P21*C21)</f>
         <v>5903.9788456139622</v>
       </c>
-      <c r="Y21" s="6">
+      <c r="Y21" s="5">
         <f t="shared" ref="Y21" si="12">W21*0.33</f>
         <v>1948.3130190526076</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="Q22" s="6"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -8556,56 +8556,56 @@
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>6340</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>3400</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>10410</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>21450</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>0.74</v>
       </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="8">
+      <c r="J23" s="3"/>
+      <c r="K23" s="7">
         <v>459</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="4">
         <f>G23/224.809</f>
         <v>95.41432949748453</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="4">
         <f>I23*28.325</f>
         <v>20.9605</v>
       </c>
-      <c r="O23" s="5"/>
-      <c r="P23" s="6">
+      <c r="O23" s="4"/>
+      <c r="P23" s="5">
         <f>L23*N23/1000</f>
         <v>1.9999320534320246</v>
       </c>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6">
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5">
         <f>K23/2.205</f>
         <v>208.16326530612244</v>
       </c>
-      <c r="S23" s="6">
+      <c r="S23" s="5">
         <f>(C23*L23*1000/9.81)/D23</f>
         <v>1.5341058904273392</v>
       </c>
-      <c r="T23" s="6">
+      <c r="T23" s="5">
         <f>(C23*L23*1000/9.81)/F23</f>
         <v>0.93431617149945534</v>
       </c>
-      <c r="W23" s="6">
+      <c r="W23" s="5">
         <f>E23/(P23*C23)</f>
         <v>1700.0577565449585</v>
       </c>
-      <c r="Y23" s="6">
+      <c r="Y23" s="5">
         <f t="shared" ref="Y23:Y25" si="13">W23*0.33</f>
         <v>561.01905965983633</v>
       </c>
@@ -8620,56 +8620,56 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>6340</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>3400</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>10410</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <v>23800</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>0.76</v>
       </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="3">
+      <c r="J24" s="3"/>
+      <c r="K24" s="2">
         <v>459</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="4">
         <f>G24/224.809</f>
         <v>105.8676476475586</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="4">
         <f>I24*28.325</f>
         <v>21.527000000000001</v>
       </c>
-      <c r="O24" s="5"/>
-      <c r="P24" s="6">
+      <c r="O24" s="4"/>
+      <c r="P24" s="5">
         <f>L24*N24/1000</f>
         <v>2.2790128509089942</v>
       </c>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6">
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5">
         <f>K24/2.205</f>
         <v>208.16326530612244</v>
       </c>
-      <c r="S24" s="6">
+      <c r="S24" s="5">
         <f>(C24*L24*1000/9.81)/D24</f>
         <v>1.7021780975370941</v>
       </c>
-      <c r="T24" s="6">
+      <c r="T24" s="5">
         <f>(C24*L24*1000/9.81)/F24</f>
         <v>1.0366771506614003</v>
       </c>
-      <c r="W24" s="6">
+      <c r="W24" s="5">
         <f>E24/(P24*C24)</f>
         <v>1491.873992129485</v>
       </c>
-      <c r="Y24" s="6">
+      <c r="Y24" s="5">
         <f t="shared" si="13"/>
         <v>492.31841740273006</v>
       </c>
@@ -8684,56 +8684,56 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>6340</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>3400</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>10410</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="2">
         <v>23800</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <v>0.6</v>
       </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="8">
+      <c r="J25" s="3"/>
+      <c r="K25" s="7">
         <v>450</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="4">
         <f>G25/224.809</f>
         <v>105.8676476475586</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="4">
         <f>I25*28.325</f>
         <v>16.994999999999997</v>
       </c>
-      <c r="O25" s="5"/>
-      <c r="P25" s="6">
+      <c r="O25" s="4"/>
+      <c r="P25" s="5">
         <f>L25*N25/1000</f>
         <v>1.7992206717702581</v>
       </c>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6">
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5">
         <f>K25/2.205</f>
         <v>204.08163265306121</v>
       </c>
-      <c r="S25" s="6">
+      <c r="S25" s="5">
         <f>(C25*L25*1000/9.81)/D25</f>
         <v>1.7021780975370941</v>
       </c>
-      <c r="T25" s="6">
+      <c r="T25" s="5">
         <f>(C25*L25*1000/9.81)/F25</f>
         <v>1.0366771506614003</v>
       </c>
-      <c r="W25" s="6">
+      <c r="W25" s="5">
         <f>E25/(P25*C25)</f>
         <v>1889.7070566973482</v>
       </c>
-      <c r="Y25" s="6">
+      <c r="Y25" s="5">
         <f t="shared" si="13"/>
         <v>623.60332871012497</v>
       </c>
@@ -8747,7 +8747,7 @@
       <c r="A31" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="10" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8774,7 +8774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9BA4F5-4601-45D4-A8D5-481C1BEBEC64}">
   <dimension ref="A1:S117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9081,11 +9081,11 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <f>I7/SQRT(G$2)/0.152</f>
+        <f t="shared" ref="G7:G27" si="1">I7/SQRT(G$2)/0.152</f>
         <v>1.9068620925592812</v>
       </c>
       <c r="H7">
-        <f>(1+(F7/1225)^2)*MAX(1-F7/I$4, 0)</f>
+        <f t="shared" ref="H7:H27" si="2">(1+(F7/1225)^2)*MAX(1-F7/I$4, 0)</f>
         <v>1</v>
       </c>
       <c r="I7">
@@ -9096,11 +9096,11 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <f>N7/SQRT(L$2)/0.152</f>
+        <f t="shared" ref="L7:L27" si="3">N7/SQRT(L$2)/0.152</f>
         <v>2.1157723917440974</v>
       </c>
       <c r="M7">
-        <f>(1+(K7/1225)^2)*MAX(1-K7/N$4, 0)</f>
+        <f t="shared" ref="M7:M27" si="4">(1+(K7/1225)^2)*MAX(1-K7/N$4, 0)</f>
         <v>1</v>
       </c>
       <c r="N7">
@@ -9111,11 +9111,11 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <f>S7/SQRT(Q$2)/0.152</f>
+        <f t="shared" ref="Q7:Q27" si="5">S7/SQRT(Q$2)/0.152</f>
         <v>2.1157723917440974</v>
       </c>
       <c r="R7">
-        <f>(1+(P7/1225)^2)*MAX(1-P7/S$4, 0)</f>
+        <f t="shared" ref="R7:R27" si="6">(1+(P7/1225)^2)*MAX(1-P7/S$4, 0)</f>
         <v>1</v>
       </c>
       <c r="S7">
@@ -9125,11 +9125,11 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f t="shared" ref="A8:A27" si="1">A7+C$2</f>
+        <f t="shared" ref="A8:A27" si="7">A7+C$2</f>
         <v>75</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B27" si="2">D8/SQRT(B$2)/0.152</f>
+        <f t="shared" ref="B8:B27" si="8">D8/SQRT(B$2)/0.152</f>
         <v>1.1303030306012005</v>
       </c>
       <c r="C8">
@@ -9137,65 +9137,65 @@
         <v>0.92846730528946264</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D27" si="3">D$7*C8</f>
+        <f t="shared" ref="D8:D27" si="9">D$7*C8</f>
         <v>5.432984674794004</v>
       </c>
       <c r="F8">
-        <f>F7+H$2</f>
+        <f t="shared" ref="F8:F27" si="10">F7+H$2</f>
         <v>75</v>
       </c>
       <c r="G8">
-        <f>I8/SQRT(G$2)/0.152</f>
+        <f t="shared" si="1"/>
         <v>1.8183093548165234</v>
       </c>
       <c r="H8">
-        <f>(1+(F8/1225)^2)*MAX(1-F8/I$4, 0)</f>
+        <f t="shared" si="2"/>
         <v>0.95356101624323186</v>
       </c>
       <c r="I8">
-        <f>I$7*H8</f>
+        <f t="shared" ref="I8:I27" si="11">I$7*H8</f>
         <v>8.7399985590574367</v>
       </c>
       <c r="K8">
-        <f>K7+M$2</f>
+        <f t="shared" ref="K8:K27" si="12">K7+M$2</f>
         <v>75</v>
       </c>
       <c r="L8">
-        <f>N8/SQRT(L$2)/0.152</f>
+        <f t="shared" si="3"/>
         <v>2.017518072010875</v>
       </c>
       <c r="M8">
-        <f>(1+(K8/1225)^2)*MAX(1-K8/N$4, 0)</f>
+        <f t="shared" si="4"/>
         <v>0.95356101624323186</v>
       </c>
       <c r="N8">
-        <f>N$7*M8</f>
+        <f t="shared" ref="N8:N27" si="13">N$7*M8</f>
         <v>9.697527538721074</v>
       </c>
       <c r="P8">
-        <f>P7+R$2</f>
+        <f t="shared" ref="P8:P27" si="14">P7+R$2</f>
         <v>75</v>
       </c>
       <c r="Q8">
-        <f>S8/SQRT(Q$2)/0.152</f>
+        <f t="shared" si="5"/>
         <v>2.017518072010875</v>
       </c>
       <c r="R8">
-        <f>(1+(P8/1225)^2)*MAX(1-P8/S$4, 0)</f>
+        <f t="shared" si="6"/>
         <v>0.95356101624323186</v>
       </c>
       <c r="S8">
-        <f>S$7*R8</f>
+        <f t="shared" ref="S8:S27" si="15">S$7*R8</f>
         <v>9.697527538721074</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="B9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1.05029324335039</v>
       </c>
       <c r="C9">
@@ -9203,65 +9203,65 @@
         <v>0.86274468971261975</v>
       </c>
       <c r="D9">
+        <f t="shared" si="9"/>
+        <v>5.0484046673105487</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1.7419077999209798</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.91349437734277394</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="11"/>
+        <v>8.3727621050800103</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="12"/>
+        <v>150</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="3"/>
-        <v>5.0484046673105487</v>
-      </c>
-      <c r="F9">
-        <f>F8+H$2</f>
+        <v>1.9327461835953059</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>0.91349437734277394</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="13"/>
+        <v>9.2900577203218759</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="14"/>
         <v>150</v>
       </c>
-      <c r="G9">
-        <f>I9/SQRT(G$2)/0.152</f>
-        <v>1.7419077999209798</v>
-      </c>
-      <c r="H9">
-        <f>(1+(F9/1225)^2)*MAX(1-F9/I$4, 0)</f>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>1.9327461835953059</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="6"/>
         <v>0.91349437734277394</v>
       </c>
-      <c r="I9">
-        <f>I$7*H9</f>
-        <v>8.3727621050800103</v>
-      </c>
-      <c r="K9">
-        <f>K8+M$2</f>
-        <v>150</v>
-      </c>
-      <c r="L9">
-        <f>N9/SQRT(L$2)/0.152</f>
-        <v>1.9327461835953059</v>
-      </c>
-      <c r="M9">
-        <f>(1+(K9/1225)^2)*MAX(1-K9/N$4, 0)</f>
-        <v>0.91349437734277394</v>
-      </c>
-      <c r="N9">
-        <f>N$7*M9</f>
-        <v>9.2900577203218759</v>
-      </c>
-      <c r="P9">
-        <f>P8+R$2</f>
-        <v>150</v>
-      </c>
-      <c r="Q9">
-        <f>S9/SQRT(Q$2)/0.152</f>
-        <v>1.9327461835953059</v>
-      </c>
-      <c r="R9">
-        <f>(1+(P9/1225)^2)*MAX(1-P9/S$4, 0)</f>
-        <v>0.91349437734277394</v>
-      </c>
       <c r="S9">
-        <f>S$7*R9</f>
+        <f t="shared" si="15"/>
         <v>9.2900577203218759</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>225</v>
       </c>
       <c r="B10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.97530308153546696</v>
       </c>
       <c r="C10">
@@ -9269,65 +9269,65 @@
         <v>0.80114535610162441</v>
       </c>
       <c r="D10">
+        <f t="shared" si="9"/>
+        <v>4.687952302882139</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="10"/>
+        <v>225</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1.6755131014878446</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.87867555185339441</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="11"/>
+        <v>8.0536252282347576</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="12"/>
+        <v>225</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="3"/>
-        <v>4.687952302882139</v>
-      </c>
-      <c r="F10">
-        <f>F9+H$2</f>
+        <v>1.8590774739119209</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>0.87867555185339441</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="13"/>
+        <v>8.9359571296963747</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="14"/>
         <v>225</v>
       </c>
-      <c r="G10">
-        <f>I10/SQRT(G$2)/0.152</f>
-        <v>1.6755131014878446</v>
-      </c>
-      <c r="H10">
-        <f>(1+(F10/1225)^2)*MAX(1-F10/I$4, 0)</f>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>1.8590774739119209</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="6"/>
         <v>0.87867555185339441</v>
       </c>
-      <c r="I10">
-        <f>I$7*H10</f>
-        <v>8.0536252282347576</v>
-      </c>
-      <c r="K10">
-        <f>K9+M$2</f>
-        <v>225</v>
-      </c>
-      <c r="L10">
-        <f>N10/SQRT(L$2)/0.152</f>
-        <v>1.8590774739119209</v>
-      </c>
-      <c r="M10">
-        <f>(1+(K10/1225)^2)*MAX(1-K10/N$4, 0)</f>
-        <v>0.87867555185339441</v>
-      </c>
-      <c r="N10">
-        <f>N$7*M10</f>
-        <v>8.9359571296963747</v>
-      </c>
-      <c r="P10">
-        <f>P9+R$2</f>
-        <v>225</v>
-      </c>
-      <c r="Q10">
-        <f>S10/SQRT(Q$2)/0.152</f>
-        <v>1.8590774739119209</v>
-      </c>
-      <c r="R10">
-        <f>(1+(P10/1225)^2)*MAX(1-P10/S$4, 0)</f>
-        <v>0.87867555185339441</v>
-      </c>
       <c r="S10">
-        <f>S$7*R10</f>
+        <f t="shared" si="15"/>
         <v>8.9359571296963747</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="B11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.90327906202356789</v>
       </c>
       <c r="C11">
@@ -9335,65 +9335,65 @@
         <v>0.74198250728862969</v>
       </c>
       <c r="D11">
+        <f t="shared" si="9"/>
+        <v>4.3417571820771643</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1.6169809331323184</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0.84798000832986264</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="11"/>
+        <v>7.7722808762790772</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="3"/>
-        <v>4.3417571820771643</v>
-      </c>
-      <c r="F11">
-        <f>F10+H$2</f>
+        <v>1.7941326903752532</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>0.84798000832986264</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="13"/>
+        <v>8.6237895037502117</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="14"/>
         <v>300</v>
       </c>
-      <c r="G11">
-        <f>I11/SQRT(G$2)/0.152</f>
-        <v>1.6169809331323184</v>
-      </c>
-      <c r="H11">
-        <f>(1+(F11/1225)^2)*MAX(1-F11/I$4, 0)</f>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>1.7941326903752532</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="6"/>
         <v>0.84798000832986264</v>
       </c>
-      <c r="I11">
-        <f>I$7*H11</f>
-        <v>7.7722808762790772</v>
-      </c>
-      <c r="K11">
-        <f>K10+M$2</f>
-        <v>300</v>
-      </c>
-      <c r="L11">
-        <f>N11/SQRT(L$2)/0.152</f>
-        <v>1.7941326903752532</v>
-      </c>
-      <c r="M11">
-        <f>(1+(K11/1225)^2)*MAX(1-K11/N$4, 0)</f>
-        <v>0.84798000832986264</v>
-      </c>
-      <c r="N11">
-        <f>N$7*M11</f>
-        <v>8.6237895037502117</v>
-      </c>
-      <c r="P11">
-        <f>P10+R$2</f>
-        <v>300</v>
-      </c>
-      <c r="Q11">
-        <f>S11/SQRT(Q$2)/0.152</f>
-        <v>1.7941326903752532</v>
-      </c>
-      <c r="R11">
-        <f>(1+(P11/1225)^2)*MAX(1-P11/S$4, 0)</f>
-        <v>0.84798000832986264</v>
-      </c>
       <c r="S11">
-        <f>S$7*R11</f>
+        <f t="shared" si="15"/>
         <v>8.6237895037502117</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>375</v>
       </c>
       <c r="B12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.83216770168183041</v>
       </c>
       <c r="C12">
@@ -9401,65 +9401,65 @@
         <v>0.68356934610578923</v>
       </c>
       <c r="D12">
+        <f t="shared" si="9"/>
+        <v>3.9999489054640169</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="10"/>
+        <v>375</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1.564166968469598</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.82028321532694715</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="11"/>
+        <v>7.5184219969703543</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="12"/>
+        <v>375</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="3"/>
-        <v>3.9999489054640169</v>
-      </c>
-      <c r="F12">
-        <f>F11+H$2</f>
+        <v>1.7355325803998336</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>0.82028321532694715</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="13"/>
+        <v>8.3421185793890178</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="14"/>
         <v>375</v>
       </c>
-      <c r="G12">
-        <f>I12/SQRT(G$2)/0.152</f>
-        <v>1.564166968469598</v>
-      </c>
-      <c r="H12">
-        <f>(1+(F12/1225)^2)*MAX(1-F12/I$4, 0)</f>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>1.7355325803998336</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="6"/>
         <v>0.82028321532694715</v>
       </c>
-      <c r="I12">
-        <f>I$7*H12</f>
-        <v>7.5184219969703543</v>
-      </c>
-      <c r="K12">
-        <f>K11+M$2</f>
-        <v>375</v>
-      </c>
-      <c r="L12">
-        <f>N12/SQRT(L$2)/0.152</f>
-        <v>1.7355325803998336</v>
-      </c>
-      <c r="M12">
-        <f>(1+(K12/1225)^2)*MAX(1-K12/N$4, 0)</f>
-        <v>0.82028321532694715</v>
-      </c>
-      <c r="N12">
-        <f>N$7*M12</f>
-        <v>8.3421185793890178</v>
-      </c>
-      <c r="P12">
-        <f>P11+R$2</f>
-        <v>375</v>
-      </c>
-      <c r="Q12">
-        <f>S12/SQRT(Q$2)/0.152</f>
-        <v>1.7355325803998336</v>
-      </c>
-      <c r="R12">
-        <f>(1+(P12/1225)^2)*MAX(1-P12/S$4, 0)</f>
-        <v>0.82028321532694715</v>
-      </c>
       <c r="S12">
-        <f>S$7*R12</f>
+        <f t="shared" si="15"/>
         <v>8.3421185793890178</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>450</v>
       </c>
       <c r="B13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.75991551737739138</v>
       </c>
       <c r="C13">
@@ -9467,65 +9467,65 @@
         <v>0.62421907538525623</v>
       </c>
       <c r="D13">
+        <f t="shared" si="9"/>
+        <v>3.652657073611087</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="10"/>
+        <v>450</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1.5149268811148808</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.79446064139941697</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="11"/>
+        <v>7.2817415380659813</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="12"/>
+        <v>450</v>
+      </c>
+      <c r="L13">
         <f t="shared" si="3"/>
-        <v>3.652657073611087</v>
-      </c>
-      <c r="F13">
-        <f>F12+H$2</f>
+        <v>1.6808978914001944</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>0.79446064139941697</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="13"/>
+        <v>8.0795080935184327</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="14"/>
         <v>450</v>
       </c>
-      <c r="G13">
-        <f>I13/SQRT(G$2)/0.152</f>
-        <v>1.5149268811148808</v>
-      </c>
-      <c r="H13">
-        <f>(1+(F13/1225)^2)*MAX(1-F13/I$4, 0)</f>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>1.6808978914001944</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="6"/>
         <v>0.79446064139941697</v>
       </c>
-      <c r="I13">
-        <f>I$7*H13</f>
-        <v>7.2817415380659813</v>
-      </c>
-      <c r="K13">
-        <f>K12+M$2</f>
-        <v>450</v>
-      </c>
-      <c r="L13">
-        <f>N13/SQRT(L$2)/0.152</f>
-        <v>1.6808978914001944</v>
-      </c>
-      <c r="M13">
-        <f>(1+(K13/1225)^2)*MAX(1-K13/N$4, 0)</f>
-        <v>0.79446064139941697</v>
-      </c>
-      <c r="N13">
-        <f>N$7*M13</f>
-        <v>8.0795080935184327</v>
-      </c>
-      <c r="P13">
-        <f>P12+R$2</f>
-        <v>450</v>
-      </c>
-      <c r="Q13">
-        <f>S13/SQRT(Q$2)/0.152</f>
-        <v>1.6808978914001944</v>
-      </c>
-      <c r="R13">
-        <f>(1+(P13/1225)^2)*MAX(1-P13/S$4, 0)</f>
-        <v>0.79446064139941697</v>
-      </c>
       <c r="S13">
-        <f>S$7*R13</f>
+        <f t="shared" si="15"/>
         <v>8.0795080935184327</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>525</v>
       </c>
       <c r="B14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.68446902597738735</v>
       </c>
       <c r="C14">
@@ -9533,65 +9533,65 @@
         <v>0.56224489795918364</v>
       </c>
       <c r="D14">
+        <f t="shared" si="9"/>
+        <v>3.290011287086763</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="10"/>
+        <v>525</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>1.4671163446833653</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0.76938775510204083</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="11"/>
+        <v>7.051932447323348</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="12"/>
+        <v>525</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="3"/>
-        <v>3.290011287086763</v>
-      </c>
-      <c r="F14">
-        <f>F13+H$2</f>
+        <v>1.627849370790867</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>0.76938775510204083</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="13"/>
+        <v>7.824521783044089</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="14"/>
         <v>525</v>
       </c>
-      <c r="G14">
-        <f>I14/SQRT(G$2)/0.152</f>
-        <v>1.4671163446833653</v>
-      </c>
-      <c r="H14">
-        <f>(1+(F14/1225)^2)*MAX(1-F14/I$4, 0)</f>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>1.627849370790867</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="6"/>
         <v>0.76938775510204083</v>
       </c>
-      <c r="I14">
-        <f>I$7*H14</f>
-        <v>7.051932447323348</v>
-      </c>
-      <c r="K14">
-        <f>K13+M$2</f>
-        <v>525</v>
-      </c>
-      <c r="L14">
-        <f>N14/SQRT(L$2)/0.152</f>
-        <v>1.627849370790867</v>
-      </c>
-      <c r="M14">
-        <f>(1+(K14/1225)^2)*MAX(1-K14/N$4, 0)</f>
-        <v>0.76938775510204083</v>
-      </c>
-      <c r="N14">
-        <f>N$7*M14</f>
-        <v>7.824521783044089</v>
-      </c>
-      <c r="P14">
-        <f>P13+R$2</f>
-        <v>525</v>
-      </c>
-      <c r="Q14">
-        <f>S14/SQRT(Q$2)/0.152</f>
-        <v>1.627849370790867</v>
-      </c>
-      <c r="R14">
-        <f>(1+(P14/1225)^2)*MAX(1-P14/S$4, 0)</f>
-        <v>0.76938775510204083</v>
-      </c>
       <c r="S14">
-        <f>S$7*R14</f>
+        <f t="shared" si="15"/>
         <v>7.824521783044089</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>600</v>
       </c>
       <c r="B15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.60377474434895584</v>
       </c>
       <c r="C15">
@@ -9599,65 +9599,65 @@
         <v>0.49596001665972517</v>
       </c>
       <c r="D15">
+        <f t="shared" si="9"/>
+        <v>2.9021411464594378</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="10"/>
+        <v>600</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>1.4185910327902491</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0.74394002498958767</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="11"/>
+        <v>6.8186876724998458</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="12"/>
+        <v>600</v>
+      </c>
+      <c r="L15">
         <f t="shared" si="3"/>
-        <v>2.9021411464594378</v>
-      </c>
-      <c r="F15">
-        <f>F14+H$2</f>
+        <v>1.5740077659863836</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>0.74394002498958767</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="13"/>
+        <v>7.5657233848716237</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="14"/>
         <v>600</v>
       </c>
-      <c r="G15">
-        <f>I15/SQRT(G$2)/0.152</f>
-        <v>1.4185910327902491</v>
-      </c>
-      <c r="H15">
-        <f>(1+(F15/1225)^2)*MAX(1-F15/I$4, 0)</f>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>1.5740077659863836</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="6"/>
         <v>0.74394002498958767</v>
       </c>
-      <c r="I15">
-        <f>I$7*H15</f>
-        <v>6.8186876724998458</v>
-      </c>
-      <c r="K15">
-        <f>K14+M$2</f>
-        <v>600</v>
-      </c>
-      <c r="L15">
-        <f>N15/SQRT(L$2)/0.152</f>
-        <v>1.5740077659863836</v>
-      </c>
-      <c r="M15">
-        <f>(1+(K15/1225)^2)*MAX(1-K15/N$4, 0)</f>
-        <v>0.74394002498958767</v>
-      </c>
-      <c r="N15">
-        <f>N$7*M15</f>
-        <v>7.5657233848716237</v>
-      </c>
-      <c r="P15">
-        <f>P14+R$2</f>
-        <v>600</v>
-      </c>
-      <c r="Q15">
-        <f>S15/SQRT(Q$2)/0.152</f>
-        <v>1.5740077659863836</v>
-      </c>
-      <c r="R15">
-        <f>(1+(P15/1225)^2)*MAX(1-P15/S$4, 0)</f>
-        <v>0.74394002498958767</v>
-      </c>
       <c r="S15">
-        <f>S$7*R15</f>
+        <f t="shared" si="15"/>
         <v>7.5657233848716237</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>675</v>
       </c>
       <c r="B16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.5157791893592335</v>
       </c>
       <c r="C16">
@@ -9665,65 +9665,65 @@
         <v>0.42367763431903371</v>
       </c>
       <c r="D16">
+        <f t="shared" si="9"/>
+        <v>2.4791762522974996</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="10"/>
+        <v>675</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1.3672066190507302</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0.71699291961682643</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="11"/>
+        <v>6.5717001613528643</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="12"/>
+        <v>675</v>
+      </c>
+      <c r="L16">
         <f t="shared" si="3"/>
-        <v>2.4791762522974996</v>
-      </c>
-      <c r="F16">
-        <f>F15+H$2</f>
+        <v>1.5169938244012764</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>0.71699291961682643</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="13"/>
+        <v>7.2916766359066747</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="14"/>
         <v>675</v>
       </c>
-      <c r="G16">
-        <f>I16/SQRT(G$2)/0.152</f>
-        <v>1.3672066190507302</v>
-      </c>
-      <c r="H16">
-        <f>(1+(F16/1225)^2)*MAX(1-F16/I$4, 0)</f>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>1.5169938244012764</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="6"/>
         <v>0.71699291961682643</v>
       </c>
-      <c r="I16">
-        <f>I$7*H16</f>
-        <v>6.5717001613528643</v>
-      </c>
-      <c r="K16">
-        <f>K15+M$2</f>
-        <v>675</v>
-      </c>
-      <c r="L16">
-        <f>N16/SQRT(L$2)/0.152</f>
-        <v>1.5169938244012764</v>
-      </c>
-      <c r="M16">
-        <f>(1+(K16/1225)^2)*MAX(1-K16/N$4, 0)</f>
-        <v>0.71699291961682643</v>
-      </c>
-      <c r="N16">
-        <f>N$7*M16</f>
-        <v>7.2916766359066747</v>
-      </c>
-      <c r="P16">
-        <f>P15+R$2</f>
-        <v>675</v>
-      </c>
-      <c r="Q16">
-        <f>S16/SQRT(Q$2)/0.152</f>
-        <v>1.5169938244012764</v>
-      </c>
-      <c r="R16">
-        <f>(1+(P16/1225)^2)*MAX(1-P16/S$4, 0)</f>
-        <v>0.71699291961682643</v>
-      </c>
       <c r="S16">
-        <f>S$7*R16</f>
+        <f t="shared" si="15"/>
         <v>7.2916766359066747</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>750</v>
       </c>
       <c r="B17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.41842887787535749</v>
       </c>
       <c r="C17">
@@ -9731,65 +9731,65 @@
         <v>0.34371095376926281</v>
       </c>
       <c r="D17">
+        <f t="shared" si="9"/>
+        <v>2.0112462051693405</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="10"/>
+        <v>750</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>1.3108187770800055</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0.68742190753852561</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="11"/>
+        <v>6.3006628616397915</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="12"/>
+        <v>750</v>
+      </c>
+      <c r="L17">
         <f t="shared" si="3"/>
-        <v>2.0112462051693405</v>
-      </c>
-      <c r="F17">
-        <f>F16+H$2</f>
+        <v>1.4544282934500763</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>0.68742190753852561</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="13"/>
+        <v>6.9909452730548738</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="14"/>
         <v>750</v>
       </c>
-      <c r="G17">
-        <f>I17/SQRT(G$2)/0.152</f>
-        <v>1.3108187770800055</v>
-      </c>
-      <c r="H17">
-        <f>(1+(F17/1225)^2)*MAX(1-F17/I$4, 0)</f>
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>1.4544282934500763</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="6"/>
         <v>0.68742190753852561</v>
       </c>
-      <c r="I17">
-        <f>I$7*H17</f>
-        <v>6.3006628616397915</v>
-      </c>
-      <c r="K17">
-        <f>K16+M$2</f>
-        <v>750</v>
-      </c>
-      <c r="L17">
-        <f>N17/SQRT(L$2)/0.152</f>
-        <v>1.4544282934500763</v>
-      </c>
-      <c r="M17">
-        <f>(1+(K17/1225)^2)*MAX(1-K17/N$4, 0)</f>
-        <v>0.68742190753852561</v>
-      </c>
-      <c r="N17">
-        <f>N$7*M17</f>
-        <v>6.9909452730548738</v>
-      </c>
-      <c r="P17">
-        <f>P16+R$2</f>
-        <v>750</v>
-      </c>
-      <c r="Q17">
-        <f>S17/SQRT(Q$2)/0.152</f>
-        <v>1.4544282934500763</v>
-      </c>
-      <c r="R17">
-        <f>(1+(P17/1225)^2)*MAX(1-P17/S$4, 0)</f>
-        <v>0.68742190753852561</v>
-      </c>
       <c r="S17">
-        <f>S$7*R17</f>
+        <f t="shared" si="15"/>
         <v>6.9909452730548738</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>825</v>
       </c>
       <c r="B18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.30967032676446493</v>
       </c>
       <c r="C18">
@@ -9797,65 +9797,65 @@
         <v>0.25437317784256563</v>
       </c>
       <c r="D18">
+        <f t="shared" si="9"/>
+        <v>1.4884806056433504</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="10"/>
+        <v>825</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>1.247283180493274</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0.65410245730945438</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="11"/>
+        <v>5.9952687211180198</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="12"/>
+        <v>825</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="3"/>
-        <v>1.4884806056433504</v>
-      </c>
-      <c r="F18">
-        <f>F17+H$2</f>
+        <v>1.3839319205473157</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>0.65410245730945438</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="13"/>
+        <v>6.6520930332218597</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="14"/>
         <v>825</v>
       </c>
-      <c r="G18">
-        <f>I18/SQRT(G$2)/0.152</f>
-        <v>1.247283180493274</v>
-      </c>
-      <c r="H18">
-        <f>(1+(F18/1225)^2)*MAX(1-F18/I$4, 0)</f>
+      <c r="Q18">
+        <f t="shared" si="5"/>
+        <v>1.3839319205473157</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="6"/>
         <v>0.65410245730945438</v>
       </c>
-      <c r="I18">
-        <f>I$7*H18</f>
-        <v>5.9952687211180198</v>
-      </c>
-      <c r="K18">
-        <f>K17+M$2</f>
-        <v>825</v>
-      </c>
-      <c r="L18">
-        <f>N18/SQRT(L$2)/0.152</f>
-        <v>1.3839319205473157</v>
-      </c>
-      <c r="M18">
-        <f>(1+(K18/1225)^2)*MAX(1-K18/N$4, 0)</f>
-        <v>0.65410245730945438</v>
-      </c>
-      <c r="N18">
-        <f>N$7*M18</f>
-        <v>6.6520930332218597</v>
-      </c>
-      <c r="P18">
-        <f>P17+R$2</f>
-        <v>825</v>
-      </c>
-      <c r="Q18">
-        <f>S18/SQRT(Q$2)/0.152</f>
-        <v>1.3839319205473157</v>
-      </c>
-      <c r="R18">
-        <f>(1+(P18/1225)^2)*MAX(1-P18/S$4, 0)</f>
-        <v>0.65410245730945438</v>
-      </c>
       <c r="S18">
-        <f>S$7*R18</f>
+        <f t="shared" si="15"/>
         <v>6.6520930332218597</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>900</v>
       </c>
       <c r="B19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0.18745005289369238</v>
       </c>
       <c r="C19">
@@ -9863,65 +9863,65 @@
         <v>0.15397750937109533</v>
       </c>
       <c r="D19">
+        <f t="shared" si="9"/>
+        <v>0.90100905428791878</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="10"/>
+        <v>900</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>1.1744555029057331</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0.61591003748438156</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="11"/>
+        <v>5.6452106875449406</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="12"/>
+        <v>900</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="3"/>
-        <v>0.90100905428791878</v>
-      </c>
-      <c r="F19">
-        <f>F18+H$2</f>
+        <v>1.3031254531075269</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>0.61591003748438156</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="13"/>
+        <v>6.2636836533132678</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="14"/>
         <v>900</v>
       </c>
-      <c r="G19">
-        <f>I19/SQRT(G$2)/0.152</f>
-        <v>1.1744555029057331</v>
-      </c>
-      <c r="H19">
-        <f>(1+(F19/1225)^2)*MAX(1-F19/I$4, 0)</f>
+      <c r="Q19">
+        <f t="shared" si="5"/>
+        <v>1.3031254531075269</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="6"/>
         <v>0.61591003748438156</v>
       </c>
-      <c r="I19">
-        <f>I$7*H19</f>
-        <v>5.6452106875449406</v>
-      </c>
-      <c r="K19">
-        <f>K18+M$2</f>
-        <v>900</v>
-      </c>
-      <c r="L19">
-        <f>N19/SQRT(L$2)/0.152</f>
-        <v>1.3031254531075269</v>
-      </c>
-      <c r="M19">
-        <f>(1+(K19/1225)^2)*MAX(1-K19/N$4, 0)</f>
-        <v>0.61591003748438156</v>
-      </c>
-      <c r="N19">
-        <f>N$7*M19</f>
-        <v>6.2636836533132678</v>
-      </c>
-      <c r="P19">
-        <f>P18+R$2</f>
-        <v>900</v>
-      </c>
-      <c r="Q19">
-        <f>S19/SQRT(Q$2)/0.152</f>
-        <v>1.3031254531075269</v>
-      </c>
-      <c r="R19">
-        <f>(1+(P19/1225)^2)*MAX(1-P19/S$4, 0)</f>
-        <v>0.61591003748438156</v>
-      </c>
       <c r="S19">
-        <f>S$7*R19</f>
+        <f t="shared" si="15"/>
         <v>6.2636836533132678</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>975</v>
       </c>
       <c r="B20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>4.9714573130177332E-2</v>
       </c>
       <c r="C20">
@@ -9929,65 +9929,65 @@
         <v>4.0837151187005455E-2</v>
       </c>
       <c r="D20">
+        <f t="shared" si="9"/>
+        <v>0.23896115167143778</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="10"/>
+        <v>975</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>1.09019141793258</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0.57172011661807576</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="11"/>
+        <v>5.2401817086779401</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="12"/>
+        <v>975</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="3"/>
-        <v>0.23896115167143778</v>
-      </c>
-      <c r="F20">
-        <f>F19+H$2</f>
+        <v>1.2096296385452405</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>0.57172011661807576</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="13"/>
+        <v>5.8142808702347315</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="14"/>
         <v>975</v>
       </c>
-      <c r="G20">
-        <f>I20/SQRT(G$2)/0.152</f>
-        <v>1.09019141793258</v>
-      </c>
-      <c r="H20">
-        <f>(1+(F20/1225)^2)*MAX(1-F20/I$4, 0)</f>
+      <c r="Q20">
+        <f t="shared" si="5"/>
+        <v>1.2096296385452405</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="6"/>
         <v>0.57172011661807576</v>
       </c>
-      <c r="I20">
-        <f>I$7*H20</f>
-        <v>5.2401817086779401</v>
-      </c>
-      <c r="K20">
-        <f>K19+M$2</f>
-        <v>975</v>
-      </c>
-      <c r="L20">
-        <f>N20/SQRT(L$2)/0.152</f>
-        <v>1.2096296385452405</v>
-      </c>
-      <c r="M20">
-        <f>(1+(K20/1225)^2)*MAX(1-K20/N$4, 0)</f>
-        <v>0.57172011661807576</v>
-      </c>
-      <c r="N20">
-        <f>N$7*M20</f>
-        <v>5.8142808702347315</v>
-      </c>
-      <c r="P20">
-        <f>P19+R$2</f>
-        <v>975</v>
-      </c>
-      <c r="Q20">
-        <f>S20/SQRT(Q$2)/0.152</f>
-        <v>1.2096296385452405</v>
-      </c>
-      <c r="R20">
-        <f>(1+(P20/1225)^2)*MAX(1-P20/S$4, 0)</f>
-        <v>0.57172011661807576</v>
-      </c>
       <c r="S20">
-        <f>S$7*R20</f>
+        <f t="shared" si="15"/>
         <v>5.8142808702347315</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1050</v>
       </c>
       <c r="B21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C21">
@@ -9995,65 +9995,65 @@
         <v>0</v>
       </c>
       <c r="D21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="10"/>
+        <v>1050</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.99234659918901358</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0.52040816326530615</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="11"/>
+        <v>4.7698747322744133</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="12"/>
+        <v>1050</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <f>F20+H$2</f>
+        <v>1.1010652242749897</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>0.52040816326530615</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="13"/>
+        <v>5.2924484208918905</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="14"/>
         <v>1050</v>
       </c>
-      <c r="G21">
-        <f>I21/SQRT(G$2)/0.152</f>
-        <v>0.99234659918901358</v>
-      </c>
-      <c r="H21">
-        <f>(1+(F21/1225)^2)*MAX(1-F21/I$4, 0)</f>
+      <c r="Q21">
+        <f t="shared" si="5"/>
+        <v>1.1010652242749897</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="6"/>
         <v>0.52040816326530615</v>
       </c>
-      <c r="I21">
-        <f>I$7*H21</f>
-        <v>4.7698747322744133</v>
-      </c>
-      <c r="K21">
-        <f>K20+M$2</f>
-        <v>1050</v>
-      </c>
-      <c r="L21">
-        <f>N21/SQRT(L$2)/0.152</f>
-        <v>1.1010652242749897</v>
-      </c>
-      <c r="M21">
-        <f>(1+(K21/1225)^2)*MAX(1-K21/N$4, 0)</f>
-        <v>0.52040816326530615</v>
-      </c>
-      <c r="N21">
-        <f>N$7*M21</f>
-        <v>5.2924484208918905</v>
-      </c>
-      <c r="P21">
-        <f>P20+R$2</f>
-        <v>1050</v>
-      </c>
-      <c r="Q21">
-        <f>S21/SQRT(Q$2)/0.152</f>
-        <v>1.1010652242749897</v>
-      </c>
-      <c r="R21">
-        <f>(1+(P21/1225)^2)*MAX(1-P21/S$4, 0)</f>
-        <v>0.52040816326530615</v>
-      </c>
       <c r="S21">
-        <f>S$7*R21</f>
+        <f t="shared" si="15"/>
         <v>5.2924484208918905</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1125</v>
       </c>
       <c r="B22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C22">
@@ -10061,65 +10061,65 @@
         <v>0</v>
       </c>
       <c r="D22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="10"/>
+        <v>1125</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0.87877672029023102</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0.46084964598084133</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="11"/>
+        <v>4.2239827060917472</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="12"/>
+        <v>1125</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <f>F21+H$2</f>
+        <v>0.97505295771130518</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>0.46084964598084133</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="13"/>
+        <v>4.6867500421903774</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="14"/>
         <v>1125</v>
       </c>
-      <c r="G22">
-        <f>I22/SQRT(G$2)/0.152</f>
-        <v>0.87877672029023102</v>
-      </c>
-      <c r="H22">
-        <f>(1+(F22/1225)^2)*MAX(1-F22/I$4, 0)</f>
+      <c r="Q22">
+        <f t="shared" si="5"/>
+        <v>0.97505295771130518</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="6"/>
         <v>0.46084964598084133</v>
       </c>
-      <c r="I22">
-        <f>I$7*H22</f>
-        <v>4.2239827060917472</v>
-      </c>
-      <c r="K22">
-        <f>K21+M$2</f>
-        <v>1125</v>
-      </c>
-      <c r="L22">
-        <f>N22/SQRT(L$2)/0.152</f>
-        <v>0.97505295771130518</v>
-      </c>
-      <c r="M22">
-        <f>(1+(K22/1225)^2)*MAX(1-K22/N$4, 0)</f>
-        <v>0.46084964598084133</v>
-      </c>
-      <c r="N22">
-        <f>N$7*M22</f>
-        <v>4.6867500421903774</v>
-      </c>
-      <c r="P22">
-        <f>P21+R$2</f>
-        <v>1125</v>
-      </c>
-      <c r="Q22">
-        <f>S22/SQRT(Q$2)/0.152</f>
-        <v>0.97505295771130518</v>
-      </c>
-      <c r="R22">
-        <f>(1+(P22/1225)^2)*MAX(1-P22/S$4, 0)</f>
-        <v>0.46084964598084133</v>
-      </c>
       <c r="S22">
-        <f>S$7*R22</f>
+        <f t="shared" si="15"/>
         <v>4.6867500421903774</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1200</v>
       </c>
       <c r="B23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C23">
@@ -10127,65 +10127,65 @@
         <v>0</v>
       </c>
       <c r="D23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="10"/>
+        <v>1200</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0.74733745485142988</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>0.39192003331945013</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="11"/>
+        <v>3.5921985778873324</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="12"/>
+        <v>1200</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <f>F22+H$2</f>
+        <v>0.82921358626871955</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>0.39192003331945013</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="13"/>
+        <v>3.9857494710358283</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="14"/>
         <v>1200</v>
       </c>
-      <c r="G23">
-        <f>I23/SQRT(G$2)/0.152</f>
-        <v>0.74733745485142988</v>
-      </c>
-      <c r="H23">
-        <f>(1+(F23/1225)^2)*MAX(1-F23/I$4, 0)</f>
+      <c r="Q23">
+        <f t="shared" si="5"/>
+        <v>0.82921358626871955</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="6"/>
         <v>0.39192003331945013</v>
       </c>
-      <c r="I23">
-        <f>I$7*H23</f>
-        <v>3.5921985778873324</v>
-      </c>
-      <c r="K23">
-        <f>K22+M$2</f>
-        <v>1200</v>
-      </c>
-      <c r="L23">
-        <f>N23/SQRT(L$2)/0.152</f>
-        <v>0.82921358626871955</v>
-      </c>
-      <c r="M23">
-        <f>(1+(K23/1225)^2)*MAX(1-K23/N$4, 0)</f>
-        <v>0.39192003331945013</v>
-      </c>
-      <c r="N23">
-        <f>N$7*M23</f>
-        <v>3.9857494710358283</v>
-      </c>
-      <c r="P23">
-        <f>P22+R$2</f>
-        <v>1200</v>
-      </c>
-      <c r="Q23">
-        <f>S23/SQRT(Q$2)/0.152</f>
-        <v>0.82921358626871955</v>
-      </c>
-      <c r="R23">
-        <f>(1+(P23/1225)^2)*MAX(1-P23/S$4, 0)</f>
-        <v>0.39192003331945013</v>
-      </c>
       <c r="S23">
-        <f>S$7*R23</f>
+        <f t="shared" si="15"/>
         <v>3.9857494710358283</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1275</v>
       </c>
       <c r="B24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C24">
@@ -10193,65 +10193,65 @@
         <v>0</v>
       </c>
       <c r="D24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="10"/>
+        <v>1275</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0.59588447648780873</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>0.31249479383590179</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="11"/>
+        <v>2.8642152954185618</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="12"/>
+        <v>1275</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <f>F23+H$2</f>
+        <v>0.66116785736176464</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="4"/>
+        <v>0.31249479383590179</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="13"/>
+        <v>3.1780104443338826</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="14"/>
         <v>1275</v>
       </c>
-      <c r="G24">
-        <f>I24/SQRT(G$2)/0.152</f>
-        <v>0.59588447648780873</v>
-      </c>
-      <c r="H24">
-        <f>(1+(F24/1225)^2)*MAX(1-F24/I$4, 0)</f>
+      <c r="Q24">
+        <f t="shared" si="5"/>
+        <v>0.66116785736176464</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="6"/>
         <v>0.31249479383590179</v>
       </c>
-      <c r="I24">
-        <f>I$7*H24</f>
-        <v>2.8642152954185618</v>
-      </c>
-      <c r="K24">
-        <f>K23+M$2</f>
-        <v>1275</v>
-      </c>
-      <c r="L24">
-        <f>N24/SQRT(L$2)/0.152</f>
-        <v>0.66116785736176464</v>
-      </c>
-      <c r="M24">
-        <f>(1+(K24/1225)^2)*MAX(1-K24/N$4, 0)</f>
-        <v>0.31249479383590179</v>
-      </c>
-      <c r="N24">
-        <f>N$7*M24</f>
-        <v>3.1780104443338826</v>
-      </c>
-      <c r="P24">
-        <f>P23+R$2</f>
-        <v>1275</v>
-      </c>
-      <c r="Q24">
-        <f>S24/SQRT(Q$2)/0.152</f>
-        <v>0.66116785736176464</v>
-      </c>
-      <c r="R24">
-        <f>(1+(P24/1225)^2)*MAX(1-P24/S$4, 0)</f>
-        <v>0.31249479383590179</v>
-      </c>
       <c r="S24">
-        <f>S$7*R24</f>
+        <f t="shared" si="15"/>
         <v>3.1780104443338826</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1350</v>
       </c>
       <c r="B25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C25">
@@ -10259,65 +10259,65 @@
         <v>0</v>
       </c>
       <c r="D25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="10"/>
+        <v>1350</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0.42227345881456452</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>0.22144939608496453</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="11"/>
+        <v>2.029725806442821</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="12"/>
+        <v>1350</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <f>F24+H$2</f>
+        <v>0.4685365184049714</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>0.22144939608496453</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="13"/>
+        <v>2.2520966989901696</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="14"/>
         <v>1350</v>
       </c>
-      <c r="G25">
-        <f>I25/SQRT(G$2)/0.152</f>
-        <v>0.42227345881456452</v>
-      </c>
-      <c r="H25">
-        <f>(1+(F25/1225)^2)*MAX(1-F25/I$4, 0)</f>
+      <c r="Q25">
+        <f t="shared" si="5"/>
+        <v>0.4685365184049714</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="6"/>
         <v>0.22144939608496453</v>
       </c>
-      <c r="I25">
-        <f>I$7*H25</f>
-        <v>2.029725806442821</v>
-      </c>
-      <c r="K25">
-        <f>K24+M$2</f>
-        <v>1350</v>
-      </c>
-      <c r="L25">
-        <f>N25/SQRT(L$2)/0.152</f>
-        <v>0.4685365184049714</v>
-      </c>
-      <c r="M25">
-        <f>(1+(K25/1225)^2)*MAX(1-K25/N$4, 0)</f>
-        <v>0.22144939608496453</v>
-      </c>
-      <c r="N25">
-        <f>N$7*M25</f>
-        <v>2.2520966989901696</v>
-      </c>
-      <c r="P25">
-        <f>P24+R$2</f>
-        <v>1350</v>
-      </c>
-      <c r="Q25">
-        <f>S25/SQRT(Q$2)/0.152</f>
-        <v>0.4685365184049714</v>
-      </c>
-      <c r="R25">
-        <f>(1+(P25/1225)^2)*MAX(1-P25/S$4, 0)</f>
-        <v>0.22144939608496453</v>
-      </c>
       <c r="S25">
-        <f>S$7*R25</f>
+        <f t="shared" si="15"/>
         <v>2.2520966989901696</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1425</v>
       </c>
       <c r="B26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C26">
@@ -10325,65 +10325,65 @@
         <v>0</v>
       </c>
       <c r="D26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="10"/>
+        <v>1425</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0.22436007544689601</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>0.11765930862140785</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="11"/>
+        <v>1.0784230587175052</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="12"/>
+        <v>1425</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <f>F25+H$2</f>
+        <v>0.24894031681287299</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="4"/>
+        <v>0.11765930862140785</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="13"/>
+        <v>1.1965719719103323</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="14"/>
         <v>1425</v>
       </c>
-      <c r="G26">
-        <f>I26/SQRT(G$2)/0.152</f>
-        <v>0.22436007544689601</v>
-      </c>
-      <c r="H26">
-        <f>(1+(F26/1225)^2)*MAX(1-F26/I$4, 0)</f>
+      <c r="Q26">
+        <f t="shared" si="5"/>
+        <v>0.24894031681287299</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="6"/>
         <v>0.11765930862140785</v>
       </c>
-      <c r="I26">
-        <f>I$7*H26</f>
-        <v>1.0784230587175052</v>
-      </c>
-      <c r="K26">
-        <f>K25+M$2</f>
-        <v>1425</v>
-      </c>
-      <c r="L26">
-        <f>N26/SQRT(L$2)/0.152</f>
-        <v>0.24894031681287299</v>
-      </c>
-      <c r="M26">
-        <f>(1+(K26/1225)^2)*MAX(1-K26/N$4, 0)</f>
-        <v>0.11765930862140785</v>
-      </c>
-      <c r="N26">
-        <f>N$7*M26</f>
-        <v>1.1965719719103323</v>
-      </c>
-      <c r="P26">
-        <f>P25+R$2</f>
-        <v>1425</v>
-      </c>
-      <c r="Q26">
-        <f>S26/SQRT(Q$2)/0.152</f>
-        <v>0.24894031681287299</v>
-      </c>
-      <c r="R26">
-        <f>(1+(P26/1225)^2)*MAX(1-P26/S$4, 0)</f>
-        <v>0.11765930862140785</v>
-      </c>
       <c r="S26">
-        <f>S$7*R26</f>
+        <f t="shared" si="15"/>
         <v>1.1965719719103323</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1500</v>
       </c>
       <c r="B27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C27">
@@ -10391,55 +10391,55 @@
         <v>0</v>
       </c>
       <c r="D27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="12"/>
+        <v>1500</v>
+      </c>
+      <c r="L27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F27">
-        <f>F26+H$2</f>
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="14"/>
         <v>1500</v>
       </c>
-      <c r="G27">
-        <f>I27/SQRT(G$2)/0.152</f>
+      <c r="Q27">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H27">
-        <f>(1+(F27/1225)^2)*MAX(1-F27/I$4, 0)</f>
+      <c r="R27">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I27">
-        <f>I$7*H27</f>
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <f>K26+M$2</f>
-        <v>1500</v>
-      </c>
-      <c r="L27">
-        <f>N27/SQRT(L$2)/0.152</f>
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <f>(1+(K27/1225)^2)*MAX(1-K27/N$4, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <f>N$7*M27</f>
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <f>P26+R$2</f>
-        <v>1500</v>
-      </c>
-      <c r="Q27">
-        <f>S27/SQRT(Q$2)/0.152</f>
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <f>(1+(P27/1225)^2)*MAX(1-P27/S$4, 0)</f>
-        <v>0</v>
-      </c>
       <c r="S27">
-        <f>S$7*R27</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -10718,11 +10718,11 @@
         <v>0</v>
       </c>
       <c r="B37">
-        <f t="shared" ref="B37:B57" si="4">D37/SQRT(B$32)/0.152</f>
+        <f t="shared" ref="B37:B57" si="16">D37/SQRT(B$32)/0.152</f>
         <v>1.5450872355692242</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:C57" si="5">(1+(A37/1225)^2)*MAX(1-A37/D$34, 0)</f>
+        <f t="shared" ref="C37:C57" si="17">(1+(A37/1225)^2)*MAX(1-A37/D$34, 0)</f>
         <v>1</v>
       </c>
       <c r="D37">
@@ -10733,11 +10733,11 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:G57" si="6">I37/SQRT(G$32)/0.152</f>
+        <f t="shared" ref="G37:G57" si="18">I37/SQRT(G$32)/0.152</f>
         <v>1.3559819934767299</v>
       </c>
       <c r="H37">
-        <f t="shared" ref="H37:H57" si="7">(1+(F37/1225)^2)*MAX(1-F37/I$34, 0)</f>
+        <f t="shared" ref="H37:H57" si="19">(1+(F37/1225)^2)*MAX(1-F37/I$34, 0)</f>
         <v>1</v>
       </c>
       <c r="I37">
@@ -10748,11 +10748,11 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <f t="shared" ref="L37:L57" si="8">N37/SQRT(L$32)/0.152</f>
+        <f t="shared" ref="L37:L57" si="20">N37/SQRT(L$32)/0.152</f>
         <v>1.5932646167582225</v>
       </c>
       <c r="M37">
-        <f t="shared" ref="M37:M57" si="9">(1+(K37/1225)^2)*MAX(1-K37/N$34, 0)</f>
+        <f t="shared" ref="M37:M57" si="21">(1+(K37/1225)^2)*MAX(1-K37/N$34, 0)</f>
         <v>1</v>
       </c>
       <c r="N37">
@@ -10763,11 +10763,11 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <f t="shared" ref="Q37:Q57" si="10">S37/SQRT(Q$32)/0.152</f>
+        <f t="shared" ref="Q37:Q57" si="22">S37/SQRT(Q$32)/0.152</f>
         <v>1.655857155273724</v>
       </c>
       <c r="R37">
-        <f t="shared" ref="R37:R57" si="11">(1+(P37/1225)^2)*MAX(1-P37/S$34, 0)</f>
+        <f t="shared" ref="R37:R57" si="23">(1+(P37/1225)^2)*MAX(1-P37/S$34, 0)</f>
         <v>1</v>
       </c>
       <c r="S37">
@@ -10777,1321 +10777,1321 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38">
-        <f t="shared" ref="A38:A57" si="12">A37+C$32</f>
+        <f t="shared" ref="A38:A57" si="24">A37+C$32</f>
         <v>150</v>
       </c>
       <c r="B38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>1.4898411967630529</v>
       </c>
       <c r="C38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.96424406497292792</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38:D57" si="13">D$37*C38</f>
+        <f t="shared" ref="D38:D57" si="25">D$37*C38</f>
         <v>10.12741402259115</v>
       </c>
       <c r="F38">
-        <f t="shared" ref="F38:F57" si="14">F37+H$32</f>
+        <f t="shared" ref="F38:F57" si="26">F37+H$32</f>
         <v>150</v>
       </c>
       <c r="G38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.3074975894200962</v>
       </c>
       <c r="H38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.96424406497292792</v>
       </c>
       <c r="I38">
-        <f t="shared" ref="I38:I57" si="15">I$37*H38</f>
+        <f t="shared" ref="I38:I57" si="27">I$37*H38</f>
         <v>8.8879066106957527</v>
       </c>
       <c r="K38">
-        <f t="shared" ref="K38:K57" si="16">K37+M$32</f>
+        <f t="shared" ref="K38:K57" si="28">K37+M$32</f>
         <v>150</v>
       </c>
       <c r="L38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.5362959506404827</v>
       </c>
       <c r="M38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.96424406497292792</v>
       </c>
       <c r="N38">
-        <f t="shared" ref="N38:N57" si="17">N$37*M38</f>
+        <f t="shared" ref="N38:N57" si="29">N$37*M38</f>
         <v>10.443197024736934</v>
       </c>
       <c r="P38">
-        <f t="shared" ref="P38:P57" si="18">P37+R$32</f>
+        <f t="shared" ref="P38:P57" si="30">P37+R$32</f>
         <v>150</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.5966504344156442</v>
       </c>
       <c r="R38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0.96424406497292792</v>
       </c>
       <c r="S38">
-        <f t="shared" ref="S38:S57" si="19">S$37*R38</f>
+        <f t="shared" ref="S38:S57" si="31">S$37*R38</f>
         <v>10.853465479280169</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>300</v>
       </c>
       <c r="B39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>1.4739784727493996</v>
       </c>
       <c r="C39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.95397750937109538</v>
       </c>
       <c r="D39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>10.019584829814496</v>
       </c>
       <c r="F39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>300</v>
       </c>
       <c r="G39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.2935763248889838</v>
       </c>
       <c r="H39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.95397750937109538</v>
       </c>
       <c r="I39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>8.7932747734698076</v>
       </c>
       <c r="K39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>300</v>
       </c>
       <c r="L39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.5199386108641018</v>
       </c>
       <c r="M39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.95397750937109538</v>
       </c>
       <c r="N39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>10.332005608776946</v>
       </c>
       <c r="P39">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>300</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.5796504848623345</v>
       </c>
       <c r="R39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0.95397750937109538</v>
       </c>
       <c r="S39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>10.737905829121754</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>450</v>
       </c>
       <c r="B40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>1.4905490668001731</v>
       </c>
       <c r="C40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.96470220741357771</v>
       </c>
       <c r="D40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>10.132225872978749</v>
       </c>
       <c r="F40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>450</v>
       </c>
       <c r="G40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.3081188223200648</v>
       </c>
       <c r="H40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.96470220741357771</v>
       </c>
       <c r="I40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>8.8921295324380889</v>
       </c>
       <c r="K40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>450</v>
       </c>
       <c r="L40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.5370258927806051</v>
       </c>
       <c r="M40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.96470220741357771</v>
       </c>
       <c r="N40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>10.448158913481599</v>
       </c>
       <c r="P40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>450</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.5974090528541285</v>
       </c>
       <c r="R40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0.96470220741357771</v>
       </c>
       <c r="S40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>10.858622299368374</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>600</v>
       </c>
       <c r="B41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>1.5326029821872824</v>
       </c>
       <c r="C41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.99192003331945033</v>
       </c>
       <c r="D41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>10.418093530096575</v>
       </c>
       <c r="F41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>600</v>
       </c>
       <c r="G41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.3450257041500124</v>
       </c>
       <c r="H41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.99192003331945033</v>
       </c>
       <c r="I41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>9.1430094741304053</v>
       </c>
       <c r="K41">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>600</v>
       </c>
       <c r="L41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.5803910917415174</v>
       </c>
       <c r="M41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.99192003331945033</v>
       </c>
       <c r="N41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>10.742940212994183</v>
       </c>
       <c r="P41">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>600</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.6424778846313626</v>
       </c>
       <c r="R41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0.99192003331945033</v>
       </c>
       <c r="S41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>11.164984292790383</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>750</v>
       </c>
       <c r="B42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>1.5931902221826351</v>
       </c>
       <c r="C42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.0311328613077884</v>
       </c>
       <c r="D42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>10.829944179180631</v>
       </c>
       <c r="F42">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>750</v>
       </c>
       <c r="G42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.3981975928154993</v>
       </c>
       <c r="H42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.0311328613077884</v>
       </c>
       <c r="I42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>9.5044531850765654</v>
       </c>
       <c r="K42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>750</v>
       </c>
       <c r="L42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.6428675030983628</v>
       </c>
       <c r="M42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>1.0311328613077884</v>
       </c>
       <c r="N42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>11.167632781457989</v>
       </c>
       <c r="P42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>750</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.7074087264343698</v>
       </c>
       <c r="R42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.0311328613077884</v>
       </c>
       <c r="S42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>11.606361212158122</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>900</v>
       </c>
       <c r="B43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>1.6653607900581406</v>
       </c>
       <c r="C43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.0778425655976676</v>
       </c>
       <c r="D43">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>11.320534198243585</v>
       </c>
       <c r="F43">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>900</v>
       </c>
       <c r="G43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.4615351107531984</v>
       </c>
       <c r="H43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.0778425655976676</v>
       </c>
       <c r="I43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>9.9349992518063797</v>
       </c>
       <c r="K43">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>900</v>
       </c>
       <c r="L43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.7172884222026672</v>
       </c>
       <c r="M43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>1.0778425655976676</v>
       </c>
       <c r="N43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>11.67351989301631</v>
       </c>
       <c r="P43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>900</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.7847533245034859</v>
       </c>
       <c r="R43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.0778425655976676</v>
       </c>
       <c r="S43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>12.132122460241948</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1050</v>
       </c>
       <c r="B44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>1.742164689085707</v>
       </c>
       <c r="C44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.1275510204081634</v>
       </c>
       <c r="D44">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>11.842619965298098</v>
       </c>
       <c r="F44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1050</v>
       </c>
       <c r="G44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.5289388803997823</v>
       </c>
       <c r="H44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.1275510204081634</v>
       </c>
       <c r="I44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>10.393186260849657</v>
       </c>
       <c r="K44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1050</v>
       </c>
       <c r="L44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.7964871444059551</v>
       </c>
       <c r="M44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>1.1275510204081634</v>
       </c>
       <c r="N44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>12.211884821812438</v>
       </c>
       <c r="P44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1050</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.8670634250790461</v>
       </c>
       <c r="R44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.1275510204081634</v>
       </c>
       <c r="S44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>12.691637439812212</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1200</v>
       </c>
       <c r="B45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>1.8166519225372428</v>
       </c>
       <c r="C45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.1757600999583506</v>
       </c>
       <c r="D45">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>12.34895785835683</v>
       </c>
       <c r="F45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1200</v>
       </c>
       <c r="G45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.5943095241919236</v>
       </c>
       <c r="H45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.1757600999583506</v>
       </c>
       <c r="I45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>10.837552798736199</v>
       </c>
       <c r="K45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1200</v>
       </c>
       <c r="L45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.8732969650597509</v>
       </c>
       <c r="M45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>1.1757600999583506</v>
       </c>
       <c r="N45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>12.73401084198966</v>
       </c>
       <c r="P45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1200</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.9468907744013835</v>
       </c>
       <c r="R45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.1757600999583506</v>
       </c>
       <c r="S45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>13.234275553639252</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1350</v>
       </c>
       <c r="B46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>1.8818724936846565</v>
       </c>
       <c r="C46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.2179716784673051</v>
       </c>
       <c r="D46">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>12.792304255432445</v>
       </c>
       <c r="F46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1350</v>
       </c>
       <c r="G46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.6515476645662952</v>
       </c>
       <c r="H46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.2179716784673051</v>
       </c>
       <c r="I46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>11.226637451995821</v>
       </c>
       <c r="K46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1350</v>
       </c>
       <c r="L46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.9405511795155799</v>
       </c>
       <c r="M46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>1.2179716784673051</v>
       </c>
       <c r="N46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>13.191181227691272</v>
       </c>
       <c r="P46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1350</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>2.0167871187108344</v>
       </c>
       <c r="R46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.2179716784673051</v>
       </c>
       <c r="S46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>13.709406204493428</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1500</v>
       </c>
       <c r="B47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>1.9308764057998575</v>
       </c>
       <c r="C47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.2496876301541024</v>
       </c>
       <c r="D47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>13.125415534537609</v>
       </c>
       <c r="F47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1500</v>
       </c>
       <c r="G47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.6945539239595699</v>
       </c>
       <c r="H47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.2496876301541024</v>
       </c>
       <c r="I47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>11.51897880715833</v>
       </c>
       <c r="K47">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1500</v>
       </c>
       <c r="L47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.9910830831249673</v>
       </c>
       <c r="M47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>1.2496876301541024</v>
       </c>
       <c r="N47">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>13.534679253060567</v>
       </c>
       <c r="P47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1500</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>2.0693042042477336</v>
       </c>
       <c r="R47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.2496876301541024</v>
       </c>
       <c r="S47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>14.066398795145087</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1650</v>
       </c>
       <c r="B48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>1.9567136621547527</v>
       </c>
       <c r="C48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.2664098292378174</v>
       </c>
       <c r="D48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>13.301048073684978</v>
       </c>
       <c r="F48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1650</v>
       </c>
       <c r="G48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.7172289248084207</v>
       </c>
       <c r="H48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.2664098292378174</v>
       </c>
       <c r="I48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>11.673115450753532</v>
       </c>
       <c r="K48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1650</v>
       </c>
       <c r="L48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>2.0177259712394373</v>
       </c>
       <c r="M48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>1.2664098292378174</v>
       </c>
       <c r="N48">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>13.715788192240829</v>
       </c>
       <c r="P48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1650</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>2.0969937772524148</v>
       </c>
       <c r="R48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.2664098292378174</v>
       </c>
       <c r="S48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>14.254622728364573</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1800</v>
       </c>
       <c r="B49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>1.9524342660212521</v>
       </c>
       <c r="C49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.263640149937526</v>
       </c>
       <c r="D49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>13.271958250887222</v>
       </c>
       <c r="F49">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1800</v>
       </c>
       <c r="G49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.7134732895495204</v>
       </c>
       <c r="H49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.263640149937526</v>
       </c>
       <c r="I49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>11.64758596931124</v>
       </c>
       <c r="K49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1800</v>
       </c>
       <c r="L49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>2.0133131392105152</v>
       </c>
       <c r="M49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>1.263640149937526</v>
       </c>
       <c r="N49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>13.685791319375356</v>
       </c>
       <c r="P49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1800</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>2.0924075839652136</v>
       </c>
       <c r="R49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.263640149937526</v>
       </c>
       <c r="S49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>14.223447406922244</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>1950</v>
       </c>
       <c r="B50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>1.9110882206712632</v>
       </c>
       <c r="C50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.236880466472303</v>
       </c>
       <c r="D50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>12.990902444156992</v>
       </c>
       <c r="F50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1950</v>
       </c>
       <c r="G50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.677187640619541</v>
       </c>
       <c r="H50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.236880466472303</v>
       </c>
       <c r="I50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>11.400928949361255</v>
       </c>
       <c r="K50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1950</v>
       </c>
       <c r="L50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.9706778823897253</v>
       </c>
       <c r="M50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>1.236880466472303</v>
       </c>
       <c r="N50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>13.395971908607436</v>
       </c>
       <c r="P50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1950</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>2.0480973706264645</v>
       </c>
       <c r="R50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.236880466472303</v>
       </c>
       <c r="S50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>13.92224223358844</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2100</v>
       </c>
       <c r="B51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>1.8257255293766959</v>
       </c>
       <c r="C51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.1816326530612247</v>
       </c>
       <c r="D51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>12.410637031506967</v>
       </c>
       <c r="F51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>2100</v>
       </c>
       <c r="G51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.6022726004551566</v>
       </c>
       <c r="H51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.1816326530612247</v>
       </c>
       <c r="I51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>10.891682977433396</v>
       </c>
       <c r="K51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2100</v>
       </c>
       <c r="L51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.8826534961285939</v>
       </c>
       <c r="M51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>1.1816326530612247</v>
       </c>
       <c r="N51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>12.797613234080366</v>
       </c>
       <c r="P51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>2100</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.9566148834765027</v>
       </c>
       <c r="R51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.1816326530612247</v>
       </c>
       <c r="S51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>13.300376611133522</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2250</v>
       </c>
       <c r="B52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>1.6893961954094572</v>
       </c>
       <c r="C52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.0933985839233653</v>
       </c>
       <c r="D52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>11.483918390949794</v>
       </c>
       <c r="F52">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>2250</v>
       </c>
       <c r="G52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.4826287914930385</v>
       </c>
       <c r="H52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.0933985839233653</v>
       </c>
       <c r="I52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>10.07838664005746</v>
       </c>
       <c r="K52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2250</v>
       </c>
       <c r="L52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.7420732757786439</v>
       </c>
       <c r="M52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>1.0933985839233653</v>
       </c>
       <c r="N52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>11.841998569937427</v>
       </c>
       <c r="P52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>2250</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.8105118687556618</v>
       </c>
       <c r="R52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>1.0933985839233653</v>
       </c>
       <c r="S52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>12.307219942327826</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2400</v>
       </c>
       <c r="B53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>1.4951502220414554</v>
       </c>
       <c r="C53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.96768013327780067</v>
       </c>
       <c r="D53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>10.163502900498141</v>
       </c>
       <c r="F53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>2400</v>
       </c>
       <c r="G53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.3121568361698599</v>
       </c>
       <c r="H53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.96768013327780067</v>
       </c>
       <c r="I53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>8.9195785237632581</v>
       </c>
       <c r="K53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2400</v>
       </c>
       <c r="L53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.5417705166914006</v>
       </c>
       <c r="M53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.96768013327780067</v>
       </c>
       <c r="N53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>10.480411190321917</v>
       </c>
       <c r="P53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>2400</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.6023400727042769</v>
       </c>
       <c r="R53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0.96768013327780067</v>
       </c>
       <c r="S53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>10.892141629941705</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2550</v>
       </c>
       <c r="B54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>1.2360376125446015</v>
       </c>
       <c r="C54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.79997917534360707</v>
       </c>
       <c r="D54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>8.4021469381646785</v>
       </c>
       <c r="F54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>2550</v>
       </c>
       <c r="G54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.0847573569222948</v>
       </c>
       <c r="H54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.79997917534360707</v>
       </c>
       <c r="I54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>7.3737972150806099</v>
       </c>
       <c r="K54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2550</v>
       </c>
       <c r="L54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1.274578514218391</v>
       </c>
       <c r="M54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.79997917534360707</v>
       </c>
       <c r="N54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>8.664134369377134</v>
       </c>
       <c r="P54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>2550</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>1.324651241562685</v>
       </c>
       <c r="R54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0.79997917534360707</v>
       </c>
       <c r="S54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>9.004511076745521</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2700</v>
       </c>
       <c r="B55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0.90510837019080093</v>
       </c>
       <c r="C55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.58579758433985818</v>
       </c>
       <c r="D55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>6.1526068819620532</v>
       </c>
       <c r="F55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>2700</v>
       </c>
       <c r="G55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.79433097618701365</v>
       </c>
       <c r="H55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.58579758433985818</v>
       </c>
       <c r="I55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>5.399581300539305</v>
       </c>
       <c r="K55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2700</v>
       </c>
       <c r="L55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.93333056371113654</v>
       </c>
       <c r="M55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.58579758433985818</v>
       </c>
       <c r="N55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>6.3444513812463521</v>
       </c>
       <c r="P55">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>2700</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.96999712157121698</v>
       </c>
       <c r="R55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0.58579758433985818</v>
       </c>
       <c r="S55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>6.5936976855096008</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>2850</v>
       </c>
       <c r="B56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0.49541249825196509</v>
       </c>
       <c r="C56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.32063723448563125</v>
       </c>
       <c r="D56">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>3.367639109902945</v>
       </c>
       <c r="F56">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>2850</v>
       </c>
       <c r="G56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>0.43477831640069192</v>
       </c>
       <c r="H56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.32063723448563125</v>
       </c>
       <c r="I56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2.9554693666691709</v>
       </c>
       <c r="K56">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2850</v>
       </c>
       <c r="L56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>0.51085996052116567</v>
       </c>
       <c r="M56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>0.32063723448563125</v>
       </c>
       <c r="N56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>3.4726455000728831</v>
       </c>
       <c r="P56">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>2850</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0.53092945897021138</v>
       </c>
       <c r="R56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0.32063723448563125</v>
       </c>
       <c r="S56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>3.6090708590043175</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="24"/>
         <v>3000</v>
       </c>
       <c r="B57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="C57">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="14"/>
-        <v>3000</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="16"/>
-        <v>3000</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N57">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
+      <c r="D57">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="26"/>
+        <v>3000</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="28"/>
+        <v>3000</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
       <c r="P57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>3000</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="S57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -12370,11 +12370,11 @@
         <v>0</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B87" si="20">D67/SQRT(B$62)/0.152</f>
+        <f t="shared" ref="B67:B87" si="32">D67/SQRT(B$62)/0.152</f>
         <v>1.5243380276804959</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C87" si="21">(1+(A67/1225)^2)*MAX(1-A67/D$64, 0)</f>
+        <f t="shared" ref="C67:C87" si="33">(1+(A67/1225)^2)*MAX(1-A67/D$64, 0)</f>
         <v>1</v>
       </c>
       <c r="D67">
@@ -12385,11 +12385,11 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G87" si="22">I67/SQRT(G$62)/0.152</f>
+        <f t="shared" ref="G67:G87" si="34">I67/SQRT(G$62)/0.152</f>
         <v>1.5787786715262282</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H87" si="23">(1+(F67/1225)^2)*MAX(1-F67/I$64, 0)</f>
+        <f t="shared" ref="H67:H87" si="35">(1+(F67/1225)^2)*MAX(1-F67/I$64, 0)</f>
         <v>1</v>
       </c>
       <c r="I67">
@@ -12400,11 +12400,11 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L87" si="24">N67/SQRT(L$62)/0.152</f>
+        <f t="shared" ref="L67:L87" si="36">N67/SQRT(L$62)/0.152</f>
         <v>1.2973205428437933</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M87" si="25">(1+(K67/1225)^2)*MAX(1-K67/N$64, 0)</f>
+        <f t="shared" ref="M67:M87" si="37">(1+(K67/1225)^2)*MAX(1-K67/N$64, 0)</f>
         <v>1</v>
       </c>
       <c r="N67">
@@ -12415,11 +12415,11 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q87" si="26">S67/SQRT(Q$62)/0.152</f>
+        <f t="shared" ref="Q67:Q87" si="38">S67/SQRT(Q$62)/0.152</f>
         <v>1.584222735910801</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R87" si="27">(1+(P67/1225)^2)*MAX(1-P67/S$64, 0)</f>
+        <f t="shared" ref="R67:R87" si="39">(1+(P67/1225)^2)*MAX(1-P67/S$64, 0)</f>
         <v>1</v>
       </c>
       <c r="S67">
@@ -12429,1321 +12429,1321 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68">
-        <f t="shared" ref="A68:A87" si="28">A67+C$62</f>
+        <f t="shared" ref="A68:A87" si="40">A67+C$62</f>
         <v>150</v>
       </c>
       <c r="B68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.4698338962034565</v>
       </c>
       <c r="C68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.96424406497292792</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:D87" si="29">D$67*C68</f>
+        <f t="shared" ref="D68:D87" si="41">D$67*C68</f>
         <v>9.9914114629346695</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68:F87" si="30">F67+H$62</f>
+        <f t="shared" ref="F68:F87" si="42">F67+H$62</f>
         <v>150</v>
       </c>
       <c r="G68">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>1.5223279639250089</v>
       </c>
       <c r="H68">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>0.96424406497292792</v>
       </c>
       <c r="I68">
-        <f t="shared" ref="I68:I87" si="31">I$67*H68</f>
+        <f t="shared" ref="I68:I87" si="43">I$67*H68</f>
         <v>10.34824758661091</v>
       </c>
       <c r="K68">
-        <f t="shared" ref="K68:K87" si="32">K67+M$62</f>
+        <f t="shared" ref="K68:K87" si="44">K67+M$62</f>
         <v>150</v>
       </c>
       <c r="L68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>1.2509336338045847</v>
       </c>
       <c r="M68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>0.96424406497292792</v>
       </c>
       <c r="N68">
-        <f t="shared" ref="N68:N87" si="33">N$67*M68</f>
+        <f t="shared" ref="N68:N87" si="45">N$67*M68</f>
         <v>8.503404827204756</v>
       </c>
       <c r="P68">
-        <f t="shared" ref="P68:P87" si="34">P67+R$62</f>
+        <f t="shared" ref="P68:P87" si="46">P67+R$62</f>
         <v>150</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>1.527577370697164</v>
       </c>
       <c r="R68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>0.96424406497292792</v>
       </c>
       <c r="S68">
-        <f t="shared" ref="S68:S87" si="35">S$67*R68</f>
+        <f t="shared" ref="S68:S87" si="47">S$67*R68</f>
         <v>10.383931198978532</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>300</v>
       </c>
       <c r="B69">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.4541841950862873</v>
       </c>
       <c r="C69">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.95397750937109538</v>
       </c>
       <c r="D69">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>9.8850303245370128</v>
       </c>
       <c r="F69">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>300</v>
       </c>
       <c r="G69">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>1.5061193449107977</v>
       </c>
       <c r="H69">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>0.95397750937109538</v>
       </c>
       <c r="I69">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>10.238067121841906</v>
       </c>
       <c r="K69">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>300</v>
       </c>
       <c r="L69">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>1.2376146203180793</v>
       </c>
       <c r="M69">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>0.95397750937109538</v>
       </c>
       <c r="N69">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>8.4128668797756063</v>
       </c>
       <c r="P69">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>300</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>1.5113128598932484</v>
       </c>
       <c r="R69">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>0.95397750937109538</v>
       </c>
       <c r="S69">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>10.273370801572394</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>450</v>
       </c>
       <c r="B70">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.4705322601478334</v>
       </c>
       <c r="C70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.96470220741357771</v>
       </c>
       <c r="D70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>9.9961586942627605</v>
       </c>
       <c r="F70">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>450</v>
       </c>
       <c r="G70">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>1.5230512694388278</v>
       </c>
       <c r="H70">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>0.96470220741357771</v>
       </c>
       <c r="I70">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>10.353164361915004</v>
       </c>
       <c r="K70">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>450</v>
       </c>
       <c r="L70">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>1.2515279914043884</v>
       </c>
       <c r="M70">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>0.96470220741357771</v>
       </c>
       <c r="N70">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>8.5074450601529144</v>
       </c>
       <c r="P70">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>450</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>1.5283031703679268</v>
       </c>
       <c r="R70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>0.96470220741357771</v>
       </c>
       <c r="S70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>10.388864928680226</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>600</v>
       </c>
       <c r="B71">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.5120214272069425</v>
       </c>
       <c r="C71">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.99192003331945033</v>
       </c>
       <c r="D71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>10.27818739179976</v>
       </c>
       <c r="F71">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>600</v>
       </c>
       <c r="G71">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>1.5660221924643336</v>
       </c>
       <c r="H71">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>0.99192003331945033</v>
       </c>
       <c r="I71">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>10.645265512935467</v>
       </c>
       <c r="K71">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>600</v>
       </c>
       <c r="L71">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>1.2868382360836228</v>
       </c>
       <c r="M71">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>0.99192003331945033</v>
       </c>
       <c r="N71">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>8.7474716266638666</v>
       </c>
       <c r="P71">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>600</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>1.5714222689900723</v>
       </c>
       <c r="R71">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>0.99192003331945033</v>
       </c>
       <c r="S71">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>10.681973325049036</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>750</v>
       </c>
       <c r="B72">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.5717950320824603</v>
       </c>
       <c r="C72">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.0311328613077884</v>
       </c>
       <c r="D72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>10.684507236835847</v>
       </c>
       <c r="F72">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>750</v>
       </c>
       <c r="G72">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>1.6279305689425485</v>
       </c>
       <c r="H72">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>1.0311328613077884</v>
       </c>
       <c r="I72">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>11.066096781008557</v>
       </c>
       <c r="K72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>750</v>
       </c>
       <c r="L72">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>1.3377098433758938</v>
       </c>
       <c r="M72">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>1.0311328613077884</v>
       </c>
       <c r="N72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>9.0932788376356495</v>
       </c>
       <c r="P72">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>750</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>1.633544122628557</v>
       </c>
       <c r="R72">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>1.0311328613077884</v>
       </c>
       <c r="S72">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>11.104255735425825</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>900</v>
       </c>
       <c r="B73">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.642996410593234</v>
       </c>
       <c r="C73">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.0778425655976676</v>
       </c>
       <c r="D73">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>11.168509049058866</v>
       </c>
       <c r="F73">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>900</v>
       </c>
       <c r="G73">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>1.7016748538287068</v>
       </c>
       <c r="H73">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>1.0778425655976676</v>
       </c>
       <c r="I73">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>11.567384372239541</v>
       </c>
       <c r="K73">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>900</v>
       </c>
       <c r="L73">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>1.3983073023013131</v>
       </c>
       <c r="M73">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>1.0778425655976676</v>
       </c>
       <c r="N73">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>9.5051989513954549</v>
       </c>
       <c r="P73">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>900</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>1.7075426981522539</v>
       </c>
       <c r="R73">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>1.0778425655976676</v>
       </c>
       <c r="S73">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>11.607271904557606</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>1050</v>
       </c>
       <c r="B74">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.7187688985581102</v>
       </c>
       <c r="C74">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.1275510204081634</v>
       </c>
       <c r="D74">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>11.68358364815666</v>
       </c>
       <c r="F74">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>1050</v>
       </c>
       <c r="G74">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>1.7801535020780428</v>
       </c>
       <c r="H74">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>1.1275510204081634</v>
       </c>
       <c r="I74">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>12.100854492733685</v>
       </c>
       <c r="K74">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>1050</v>
       </c>
       <c r="L74">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>1.4627951018799916</v>
       </c>
       <c r="M74">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>1.1275510204081634</v>
       </c>
       <c r="N74">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>9.9435642262704711</v>
       </c>
       <c r="P74">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>1050</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>1.7862919624300357</v>
       </c>
       <c r="R74">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>1.1275510204081634</v>
       </c>
       <c r="S74">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>12.142581577191384</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>1200</v>
       </c>
       <c r="B75">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.7922558317959347</v>
       </c>
       <c r="C75">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.1757600999583506</v>
       </c>
       <c r="D75">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>12.183121853817063</v>
       </c>
       <c r="F75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>1200</v>
       </c>
       <c r="G75">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>1.8562649686457902</v>
       </c>
       <c r="H75">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>1.1757600999583506</v>
       </c>
       <c r="I75">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>12.618233348596247</v>
       </c>
       <c r="K75">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>1200</v>
       </c>
       <c r="L75">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>1.5253377311320402</v>
       </c>
       <c r="M75">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>1.1757600999583506</v>
       </c>
       <c r="N75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>10.368706920587879</v>
       </c>
       <c r="P75">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>1200</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>1.8626658823307751</v>
       </c>
       <c r="R75">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>1.1757600999583506</v>
       </c>
       <c r="S75">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>12.661744498074162</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>1350</v>
       </c>
       <c r="B76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.8566005461255548</v>
       </c>
       <c r="C76">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.2179716784673051</v>
       </c>
       <c r="D76">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>12.620514485727924</v>
       </c>
       <c r="F76">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>1350</v>
       </c>
       <c r="G76">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>1.9229077084871824</v>
       </c>
       <c r="H76">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>1.2179716784673051</v>
       </c>
       <c r="I76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>13.071247145932494</v>
       </c>
       <c r="K76">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>1350</v>
       </c>
       <c r="L76">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>1.5800996790775703</v>
       </c>
       <c r="M76">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>1.2179716784673051</v>
       </c>
       <c r="N76">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>10.740959292674871</v>
       </c>
       <c r="P76">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>1350</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>1.9295384247233447</v>
       </c>
       <c r="R76">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>1.2179716784673051</v>
       </c>
       <c r="S76">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>13.116320411952948</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>1500</v>
       </c>
       <c r="B77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.9049463773658175</v>
       </c>
       <c r="C77">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.2496876301541024</v>
       </c>
       <c r="D77">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>12.949152363577081</v>
       </c>
       <c r="F77">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>1500</v>
       </c>
       <c r="G77">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>1.9729801765574539</v>
       </c>
       <c r="H77">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>1.2496876301541024</v>
       </c>
       <c r="I77">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>13.411622090847693</v>
       </c>
       <c r="K77">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>1500</v>
       </c>
       <c r="L77">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>1.6212454347366938</v>
       </c>
       <c r="M77">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>1.2496876301541024</v>
       </c>
       <c r="N77">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>11.020653600858637</v>
       </c>
       <c r="P77">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>1500</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>1.9797835564766173</v>
       </c>
       <c r="R77">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>1.2496876301541024</v>
       </c>
       <c r="S77">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>13.457869063574751</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>1650</v>
       </c>
       <c r="B78">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.9304366613355681</v>
       </c>
       <c r="C78">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.2664098292378174</v>
       </c>
       <c r="D78">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>13.122426307052374</v>
       </c>
       <c r="F78">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>1650</v>
       </c>
       <c r="G78">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>1.9993808278118386</v>
       </c>
       <c r="H78">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>1.2664098292378174</v>
       </c>
       <c r="I78">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>13.591084389447104</v>
       </c>
       <c r="K78">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>1650</v>
       </c>
       <c r="L78">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>1.6429394871295211</v>
       </c>
       <c r="M78">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>1.2664098292378174</v>
       </c>
       <c r="N78">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>11.168122103466359</v>
       </c>
       <c r="P78">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>1650</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>2.0062752444594651</v>
       </c>
       <c r="R78">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>1.2664098292378174</v>
       </c>
       <c r="S78">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>13.637950197686573</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>1800</v>
       </c>
       <c r="B79">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.9262147338536544</v>
       </c>
       <c r="C79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.263640149937526</v>
       </c>
       <c r="D79">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>13.093727135841648</v>
       </c>
       <c r="F79">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>1800</v>
       </c>
       <c r="G79">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>1.9950081172055709</v>
       </c>
       <c r="H79">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>1.263640149937526</v>
       </c>
       <c r="I79">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>13.561360247835994</v>
       </c>
       <c r="K79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>1800</v>
       </c>
       <c r="L79">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>1.6393463252761638</v>
       </c>
       <c r="M79">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>1.263640149937526</v>
       </c>
       <c r="N79">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>11.14369705882523</v>
       </c>
       <c r="P79">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>1800</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>2.0018874555407624</v>
       </c>
       <c r="R79">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>1.263640149937526</v>
       </c>
       <c r="S79">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>13.608123559035427</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>1950</v>
       </c>
       <c r="B80">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.8854239307389222</v>
       </c>
       <c r="C80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.236880466472303</v>
       </c>
       <c r="D80">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>12.816445669632738</v>
       </c>
       <c r="F80">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>1950</v>
       </c>
       <c r="G80">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>1.9527604996938839</v>
       </c>
       <c r="H80">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>1.236880466472303</v>
       </c>
       <c r="I80">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>13.274175872119624</v>
       </c>
       <c r="K80">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>1950</v>
       </c>
       <c r="L80">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>1.6046304381967325</v>
       </c>
       <c r="M80">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>1.236880466472303</v>
       </c>
       <c r="N80">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>10.907710725262433</v>
       </c>
       <c r="P80">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>1950</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>1.9594941565893795</v>
       </c>
       <c r="R80">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>1.236880466472303</v>
       </c>
       <c r="S80">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>13.319948892368309</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2100</v>
       </c>
       <c r="B81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.8012075878102189</v>
       </c>
       <c r="C81">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.1816326530612247</v>
       </c>
       <c r="D81">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>12.243972728113496</v>
       </c>
       <c r="F81">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>2100</v>
       </c>
       <c r="G81">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>1.8655364302320125</v>
       </c>
       <c r="H81">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>1.1816326530612247</v>
       </c>
       <c r="I81">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>12.681257468403265</v>
       </c>
       <c r="K81">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2100</v>
       </c>
       <c r="L81">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>1.5329563149113397</v>
       </c>
       <c r="M81">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>1.1816326530612247</v>
       </c>
       <c r="N81">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>10.420495361105164</v>
       </c>
       <c r="P81">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>2100</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>1.8719693144741916</v>
       </c>
       <c r="R81">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>1.1816326530612247</v>
       </c>
       <c r="S81">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>12.724985942432239</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2250</v>
       </c>
       <c r="B82">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.6667090408863894</v>
       </c>
       <c r="C82">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>1.0933985839233653</v>
       </c>
       <c r="D82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>11.329699130971749</v>
       </c>
       <c r="F82">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>2250</v>
       </c>
       <c r="G82">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>1.7262343637751896</v>
       </c>
       <c r="H82">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>1.0933985839233653</v>
       </c>
       <c r="I82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>11.734331242792171</v>
       </c>
       <c r="K82">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2250</v>
       </c>
       <c r="L82">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>1.4184884444400951</v>
       </c>
       <c r="M82">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>1.0933985839233653</v>
       </c>
       <c r="N82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>9.6423832246805983</v>
       </c>
       <c r="P82">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>2250</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>1.7321868960640694</v>
       </c>
       <c r="R82">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>1.0933985839233653</v>
       </c>
       <c r="S82">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>11.774794453974211</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2400</v>
       </c>
       <c r="B83">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.4750716257862821</v>
       </c>
       <c r="C83">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.96768013327780067</v>
       </c>
       <c r="D83">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>10.027015697895346</v>
       </c>
       <c r="F83">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>2400</v>
       </c>
       <c r="G83">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>1.5277527552786496</v>
       </c>
       <c r="H83">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>0.96768013327780067</v>
       </c>
       <c r="I83">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>10.38512340139161</v>
       </c>
       <c r="K83">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2400</v>
       </c>
       <c r="L83">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>1.2553913158031105</v>
       </c>
       <c r="M83">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>0.96768013327780067</v>
       </c>
       <c r="N83">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>8.5337065743159304</v>
       </c>
       <c r="P83">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>2400</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>1.5330208682278859</v>
       </c>
       <c r="R83">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>0.96768013327780067</v>
       </c>
       <c r="S83">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>10.420934171741234</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2550</v>
       </c>
       <c r="B84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.2194386783287434</v>
       </c>
       <c r="C84">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.79997917534360707</v>
       </c>
       <c r="D84">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>8.2893132485721335</v>
       </c>
       <c r="F84">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>2550</v>
       </c>
       <c r="G84">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>1.2629900596976276</v>
       </c>
       <c r="H84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>0.79997917534360707</v>
       </c>
       <c r="I84">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>8.5853601503068546</v>
       </c>
       <c r="K84">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2550</v>
       </c>
       <c r="L84">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>1.0378294180204986</v>
       </c>
       <c r="M84">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>0.79997917534360707</v>
       </c>
       <c r="N84">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>7.0547976683383551</v>
       </c>
       <c r="P84">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>2550</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>1.2673451978345156</v>
       </c>
       <c r="R84">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>0.79997917534360707</v>
       </c>
       <c r="S84">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>8.6149648404803241</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2700</v>
       </c>
       <c r="B85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>0.89295353433261826</v>
       </c>
       <c r="C85">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.58579758433985818</v>
       </c>
       <c r="D85">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>6.0699826026899375</v>
       </c>
       <c r="F85">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>2700</v>
       </c>
       <c r="G85">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>0.92484473198735484</v>
       </c>
       <c r="H85">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>0.58579758433985818</v>
       </c>
       <c r="I85">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>6.2867676956431504</v>
       </c>
       <c r="K85">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2700</v>
       </c>
       <c r="L85">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0.7599672401123676</v>
       </c>
       <c r="M85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>0.58579758433985818</v>
       </c>
       <c r="N85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>5.1659887650750429</v>
       </c>
       <c r="P85">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>2700</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>0.92803385175282826</v>
       </c>
       <c r="R85">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>0.58579758433985818</v>
       </c>
       <c r="S85">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>6.3084462049384706</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>2850</v>
       </c>
       <c r="B86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>0.48875952961675578</v>
       </c>
       <c r="C86">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>0.32063723448563125</v>
       </c>
       <c r="D86">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>3.3224145799366185</v>
       </c>
       <c r="F86">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>2850</v>
       </c>
       <c r="G86">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>0.50621522710306854</v>
       </c>
       <c r="H86">
-        <f t="shared" si="23"/>
+        <f t="shared" si="35"/>
         <v>0.32063723448563125</v>
       </c>
       <c r="I86">
-        <f t="shared" si="31"/>
+        <f t="shared" si="43"/>
         <v>3.4410722435057841</v>
       </c>
       <c r="K86">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>2850</v>
       </c>
       <c r="L86">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>0.41596927109883175</v>
       </c>
       <c r="M86">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>0.32063723448563125</v>
       </c>
       <c r="N86">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>2.8276121228532007</v>
       </c>
       <c r="P86">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>2850</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>0.50796079685169981</v>
       </c>
       <c r="R86">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>0.32063723448563125</v>
       </c>
       <c r="S86">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>3.4529380098627001</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>3000</v>
       </c>
       <c r="B87">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="C87">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="30"/>
-        <v>3000</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I87">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="K87">
-        <f t="shared" si="32"/>
-        <v>3000</v>
-      </c>
-      <c r="L87">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="M87">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="N87">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
+      <c r="D87">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="42"/>
+        <v>3000</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="44"/>
+        <v>3000</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
       <c r="P87">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>3000</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R87">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="S87">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
@@ -13957,11 +13957,11 @@
         <v>0</v>
       </c>
       <c r="B97">
-        <f>D97/SQRT(B$92)/0.152</f>
+        <f t="shared" ref="B97:B117" si="48">D97/SQRT(B$92)/0.152</f>
         <v>0.98857708378597708</v>
       </c>
       <c r="C97">
-        <f>(1+(A97/1225)^2)*MAX(1-A97/D$94, 0)</f>
+        <f t="shared" ref="C97:C117" si="49">(1+(A97/1225)^2)*MAX(1-A97/D$94, 0)</f>
         <v>1</v>
       </c>
       <c r="D97">
@@ -13972,11 +13972,11 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <f>I97/SQRT(G$92)/0.152</f>
+        <f t="shared" ref="G97:G117" si="50">I97/SQRT(G$92)/0.152</f>
         <v>1.2335928394803006</v>
       </c>
       <c r="H97">
-        <f>(1+(F97/1225)^2)*MAX(1-F97/I$94, 0)</f>
+        <f t="shared" ref="H97:H117" si="51">(1+(F97/1225)^2)*MAX(1-F97/I$94, 0)</f>
         <v>1</v>
       </c>
       <c r="I97">
@@ -13987,11 +13987,11 @@
         <v>0</v>
       </c>
       <c r="L97">
-        <f>N97/SQRT(L$92)/0.152</f>
+        <f t="shared" ref="L97:L117" si="52">N97/SQRT(L$92)/0.152</f>
         <v>1.3814138876205933</v>
       </c>
       <c r="M97">
-        <f>(1+(K97/1225)^2)*MAX(1-K97/N$94, 0)</f>
+        <f t="shared" ref="M97:M117" si="53">(1+(K97/1225)^2)*MAX(1-K97/N$94, 0)</f>
         <v>1</v>
       </c>
       <c r="N97">
@@ -14001,1001 +14001,1001 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
-        <f>A97+C$92</f>
+        <f t="shared" ref="A98:A117" si="54">A97+C$92</f>
         <v>150</v>
       </c>
       <c r="B98">
-        <f>D98/SQRT(B$92)/0.152</f>
+        <f t="shared" si="48"/>
         <v>0.9532295858088734</v>
       </c>
       <c r="C98">
-        <f>(1+(A98/1225)^2)*MAX(1-A98/D$94, 0)</f>
+        <f t="shared" si="49"/>
         <v>0.96424406497292792</v>
       </c>
       <c r="D98">
-        <f>D$97*C98</f>
+        <f t="shared" ref="D98:D117" si="55">D$97*C98</f>
         <v>6.4797179021791331</v>
       </c>
       <c r="F98">
-        <f>F97+H$92</f>
+        <f t="shared" ref="F98:F117" si="56">F97+H$92</f>
         <v>150</v>
       </c>
       <c r="G98">
-        <f>I98/SQRT(G$92)/0.152</f>
+        <f t="shared" si="50"/>
         <v>1.1894845740619817</v>
       </c>
       <c r="H98">
-        <f>(1+(F98/1225)^2)*MAX(1-F98/I$94, 0)</f>
+        <f t="shared" si="51"/>
         <v>0.96424406497292792</v>
       </c>
       <c r="I98">
-        <f>I$97*H98</f>
+        <f t="shared" ref="I98:I117" si="57">I$97*H98</f>
         <v>8.0856958320015213</v>
       </c>
       <c r="K98">
-        <f>K97+M$92</f>
+        <f t="shared" ref="K98:K117" si="58">K97+M$92</f>
         <v>150</v>
       </c>
       <c r="L98">
-        <f>N98/SQRT(L$92)/0.152</f>
+        <f t="shared" si="52"/>
         <v>1.3320201424093363</v>
       </c>
       <c r="M98">
-        <f>(1+(K98/1225)^2)*MAX(1-K98/N$94, 0)</f>
+        <f t="shared" si="53"/>
         <v>0.96424406497292792</v>
       </c>
       <c r="N98">
-        <f>N$97*M98</f>
+        <f t="shared" ref="N98:N117" si="59">N$97*M98</f>
         <v>9.0546022609117287</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
-        <f>A98+C$92</f>
+        <f t="shared" si="54"/>
         <v>300</v>
       </c>
       <c r="B99">
-        <f>D99/SQRT(B$92)/0.152</f>
+        <f t="shared" si="48"/>
         <v>0.94308030421148703</v>
       </c>
       <c r="C99">
-        <f>(1+(A99/1225)^2)*MAX(1-A99/D$94, 0)</f>
+        <f t="shared" si="49"/>
         <v>0.95397750937109538</v>
       </c>
       <c r="D99">
-        <f>D$97*C99</f>
+        <f t="shared" si="55"/>
         <v>6.4107266721125216</v>
       </c>
       <c r="F99">
-        <f>F98+H$92</f>
+        <f t="shared" si="56"/>
         <v>300</v>
       </c>
       <c r="G99">
-        <f>I99/SQRT(G$92)/0.152</f>
+        <f t="shared" si="50"/>
         <v>1.1768198245854347</v>
       </c>
       <c r="H99">
-        <f>(1+(F99/1225)^2)*MAX(1-F99/I$94, 0)</f>
+        <f t="shared" si="51"/>
         <v>0.95397750937109538</v>
       </c>
       <c r="I99">
-        <f>I$97*H99</f>
+        <f t="shared" si="57"/>
         <v>7.9996053401289267</v>
       </c>
       <c r="K99">
-        <f>K98+M$92</f>
+        <f t="shared" si="58"/>
         <v>300</v>
       </c>
       <c r="L99">
-        <f>N99/SQRT(L$92)/0.152</f>
+        <f t="shared" si="52"/>
         <v>1.3178377799229359</v>
       </c>
       <c r="M99">
-        <f>(1+(K99/1225)^2)*MAX(1-K99/N$94, 0)</f>
+        <f t="shared" si="53"/>
         <v>0.95397750937109538</v>
       </c>
       <c r="N99">
-        <f>N$97*M99</f>
+        <f t="shared" si="59"/>
         <v>8.9581955720442803</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
-        <f>A99+C$92</f>
+        <f t="shared" si="54"/>
         <v>450</v>
       </c>
       <c r="B100">
-        <f>D100/SQRT(B$92)/0.152</f>
+        <f t="shared" si="48"/>
         <v>0.95368249492680945</v>
       </c>
       <c r="C100">
-        <f>(1+(A100/1225)^2)*MAX(1-A100/D$94, 0)</f>
+        <f t="shared" si="49"/>
         <v>0.96470220741357771</v>
       </c>
       <c r="D100">
-        <f>D$97*C100</f>
+        <f t="shared" si="55"/>
         <v>6.4827966183281509</v>
       </c>
       <c r="F100">
-        <f>F99+H$92</f>
+        <f t="shared" si="56"/>
         <v>450</v>
       </c>
       <c r="G100">
-        <f>I100/SQRT(G$92)/0.152</f>
+        <f t="shared" si="50"/>
         <v>1.1900497352962291</v>
       </c>
       <c r="H100">
-        <f>(1+(F100/1225)^2)*MAX(1-F100/I$94, 0)</f>
+        <f t="shared" si="51"/>
         <v>0.96470220741357771</v>
       </c>
       <c r="I100">
-        <f>I$97*H100</f>
+        <f t="shared" si="57"/>
         <v>8.0895375983731181</v>
       </c>
       <c r="K100">
-        <f>K99+M$92</f>
+        <f t="shared" si="58"/>
         <v>450</v>
       </c>
       <c r="L100">
-        <f>N100/SQRT(L$92)/0.152</f>
+        <f t="shared" si="52"/>
         <v>1.3326530267393581</v>
       </c>
       <c r="M100">
-        <f>(1+(K100/1225)^2)*MAX(1-K100/N$94, 0)</f>
+        <f t="shared" si="53"/>
         <v>0.96470220741357771</v>
       </c>
       <c r="N100">
-        <f>N$97*M100</f>
+        <f t="shared" si="59"/>
         <v>9.0589043849585522</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
-        <f>A100+C$92</f>
+        <f t="shared" si="54"/>
         <v>600</v>
       </c>
       <c r="B101">
-        <f>D101/SQRT(B$92)/0.152</f>
+        <f t="shared" si="48"/>
         <v>0.9805894138878315</v>
       </c>
       <c r="C101">
-        <f>(1+(A101/1225)^2)*MAX(1-A101/D$94, 0)</f>
+        <f t="shared" si="49"/>
         <v>0.99192003331945033</v>
       </c>
       <c r="D101">
-        <f>D$97*C101</f>
+        <f t="shared" si="55"/>
         <v>6.6657003459083972</v>
       </c>
       <c r="F101">
-        <f>F100+H$92</f>
+        <f t="shared" si="56"/>
         <v>600</v>
       </c>
       <c r="G101">
-        <f>I101/SQRT(G$92)/0.152</f>
+        <f t="shared" si="50"/>
         <v>1.2236254504399351</v>
       </c>
       <c r="H101">
-        <f>(1+(F101/1225)^2)*MAX(1-F101/I$94, 0)</f>
+        <f t="shared" si="51"/>
         <v>0.99192003331945033</v>
       </c>
       <c r="I101">
-        <f>I$97*H101</f>
+        <f t="shared" si="57"/>
         <v>8.317773445994785</v>
       </c>
       <c r="K101">
-        <f>K100+M$92</f>
+        <f t="shared" si="58"/>
         <v>600</v>
       </c>
       <c r="L101">
-        <f>N101/SQRT(L$92)/0.152</f>
+        <f t="shared" si="52"/>
         <v>1.3702521094365703</v>
       </c>
       <c r="M101">
-        <f>(1+(K101/1225)^2)*MAX(1-K101/N$94, 0)</f>
+        <f t="shared" si="53"/>
         <v>0.99192003331945033</v>
       </c>
       <c r="N101">
-        <f>N$97*M101</f>
+        <f t="shared" si="59"/>
         <v>9.3144896635584633</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102">
-        <f>A101+C$92</f>
+        <f t="shared" si="54"/>
         <v>750</v>
       </c>
       <c r="B102">
-        <f>D102/SQRT(B$92)/0.152</f>
+        <f t="shared" si="48"/>
         <v>1.0193543170275439</v>
       </c>
       <c r="C102">
-        <f>(1+(A102/1225)^2)*MAX(1-A102/D$94, 0)</f>
+        <f t="shared" si="49"/>
         <v>1.0311328613077884</v>
       </c>
       <c r="D102">
-        <f>D$97*C102</f>
+        <f t="shared" si="55"/>
         <v>6.9292104599356366</v>
       </c>
       <c r="F102">
-        <f>F101+H$92</f>
+        <f t="shared" si="56"/>
         <v>750</v>
       </c>
       <c r="G102">
-        <f>I102/SQRT(G$92)/0.152</f>
+        <f t="shared" si="50"/>
         <v>1.2719981142621217</v>
       </c>
       <c r="H102">
-        <f>(1+(F102/1225)^2)*MAX(1-F102/I$94, 0)</f>
+        <f t="shared" si="51"/>
         <v>1.0311328613077884</v>
       </c>
       <c r="I102">
-        <f>I$97*H102</f>
+        <f t="shared" si="57"/>
         <v>8.6465937222546128</v>
       </c>
       <c r="K102">
-        <f>K101+M$92</f>
+        <f t="shared" si="58"/>
         <v>750</v>
       </c>
       <c r="L102">
-        <f>N102/SQRT(L$92)/0.152</f>
+        <f t="shared" si="52"/>
         <v>1.4244212545925381</v>
       </c>
       <c r="M102">
-        <f>(1+(K102/1225)^2)*MAX(1-K102/N$94, 0)</f>
+        <f t="shared" si="53"/>
         <v>1.0311328613077884</v>
       </c>
       <c r="N102">
-        <f>N$97*M102</f>
+        <f t="shared" si="59"/>
         <v>9.6827123717479271</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103">
-        <f>A102+C$92</f>
+        <f t="shared" si="54"/>
         <v>900</v>
       </c>
       <c r="B103">
-        <f>D103/SQRT(B$92)/0.152</f>
+        <f t="shared" si="48"/>
         <v>1.0655304602789377</v>
       </c>
       <c r="C103">
-        <f>(1+(A103/1225)^2)*MAX(1-A103/D$94, 0)</f>
+        <f t="shared" si="49"/>
         <v>1.0778425655976676</v>
       </c>
       <c r="D103">
-        <f>D$97*C103</f>
+        <f t="shared" si="55"/>
         <v>7.2430995654922476</v>
       </c>
       <c r="F103">
-        <f>F102+H$92</f>
+        <f t="shared" si="56"/>
         <v>900</v>
       </c>
       <c r="G103">
-        <f>I103/SQRT(G$92)/0.152</f>
+        <f t="shared" si="50"/>
         <v>1.3296188710083587</v>
       </c>
       <c r="H103">
-        <f>(1+(F103/1225)^2)*MAX(1-F103/I$94, 0)</f>
+        <f t="shared" si="51"/>
         <v>1.0778425655976676</v>
       </c>
       <c r="I103">
-        <f>I$97*H103</f>
+        <f t="shared" si="57"/>
         <v>9.0382792664132925</v>
       </c>
       <c r="K103">
-        <f>K102+M$92</f>
+        <f t="shared" si="58"/>
         <v>900</v>
       </c>
       <c r="L103">
-        <f>N103/SQRT(L$92)/0.152</f>
+        <f t="shared" si="52"/>
         <v>1.4889466887852283</v>
       </c>
       <c r="M103">
-        <f>(1+(K103/1225)^2)*MAX(1-K103/N$94, 0)</f>
+        <f t="shared" si="53"/>
         <v>1.0778425655976676</v>
       </c>
       <c r="N103">
-        <f>N$97*M103</f>
+        <f t="shared" si="59"/>
         <v>10.121333473430862</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104">
-        <f>A103+C$92</f>
+        <f t="shared" si="54"/>
         <v>1050</v>
       </c>
       <c r="B104">
-        <f>D104/SQRT(B$92)/0.152</f>
+        <f t="shared" si="48"/>
         <v>1.1146710995750049</v>
       </c>
       <c r="C104">
-        <f>(1+(A104/1225)^2)*MAX(1-A104/D$94, 0)</f>
+        <f t="shared" si="49"/>
         <v>1.1275510204081634</v>
       </c>
       <c r="D104">
-        <f>D$97*C104</f>
+        <f t="shared" si="55"/>
         <v>7.5771402676606092</v>
       </c>
       <c r="F104">
-        <f>F103+H$92</f>
+        <f t="shared" si="56"/>
         <v>1050</v>
       </c>
       <c r="G104">
-        <f>I104/SQRT(G$92)/0.152</f>
+        <f t="shared" si="50"/>
         <v>1.3909388649242167</v>
       </c>
       <c r="H104">
-        <f>(1+(F104/1225)^2)*MAX(1-F104/I$94, 0)</f>
+        <f t="shared" si="51"/>
         <v>1.1275510204081634</v>
       </c>
       <c r="I104">
-        <f>I$97*H104</f>
+        <f t="shared" si="57"/>
         <v>9.4551109177315169</v>
       </c>
       <c r="K104">
-        <f>K103+M$92</f>
+        <f t="shared" si="58"/>
         <v>1050</v>
       </c>
       <c r="L104">
-        <f>N104/SQRT(L$92)/0.152</f>
+        <f t="shared" si="52"/>
         <v>1.557614638592608</v>
       </c>
       <c r="M104">
-        <f>(1+(K104/1225)^2)*MAX(1-K104/N$94, 0)</f>
+        <f t="shared" si="53"/>
         <v>1.1275510204081634</v>
       </c>
       <c r="N104">
-        <f>N$97*M104</f>
+        <f t="shared" si="59"/>
         <v>10.58811393251119</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105">
-        <f>A104+C$92</f>
+        <f t="shared" si="54"/>
         <v>1200</v>
       </c>
       <c r="B105">
-        <f>D105/SQRT(B$92)/0.152</f>
+        <f t="shared" si="48"/>
         <v>1.1623294908487352</v>
       </c>
       <c r="C105">
-        <f>(1+(A105/1225)^2)*MAX(1-A105/D$94, 0)</f>
+        <f t="shared" si="49"/>
         <v>1.1757600999583506</v>
       </c>
       <c r="D105">
-        <f>D$97*C105</f>
+        <f t="shared" si="55"/>
         <v>7.9011051715230947</v>
       </c>
       <c r="F105">
-        <f>F104+H$92</f>
+        <f t="shared" si="56"/>
         <v>1200</v>
       </c>
       <c r="G105">
-        <f>I105/SQRT(G$92)/0.152</f>
+        <f t="shared" si="50"/>
         <v>1.4504092402552637</v>
       </c>
       <c r="H105">
-        <f>(1+(F105/1225)^2)*MAX(1-F105/I$94, 0)</f>
+        <f t="shared" si="51"/>
         <v>1.1757600999583506</v>
       </c>
       <c r="I105">
-        <f>I$97*H105</f>
+        <f t="shared" si="57"/>
         <v>9.8593695154699663</v>
       </c>
       <c r="K105">
-        <f>K104+M$92</f>
+        <f t="shared" si="58"/>
         <v>1200</v>
       </c>
       <c r="L105">
-        <f>N105/SQRT(L$92)/0.152</f>
+        <f t="shared" si="52"/>
         <v>1.6242113305926424</v>
       </c>
       <c r="M105">
-        <f>(1+(K105/1225)^2)*MAX(1-K105/N$94, 0)</f>
+        <f t="shared" si="53"/>
         <v>1.1757600999583506</v>
       </c>
       <c r="N105">
-        <f>N$97*M105</f>
+        <f t="shared" si="59"/>
         <v>11.04081471289282</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106">
-        <f>A105+C$92</f>
+        <f t="shared" si="54"/>
         <v>1350</v>
       </c>
       <c r="B106">
-        <f>D106/SQRT(B$92)/0.152</f>
+        <f t="shared" si="48"/>
         <v>1.2040588900331204</v>
       </c>
       <c r="C106">
-        <f>(1+(A106/1225)^2)*MAX(1-A106/D$94, 0)</f>
+        <f t="shared" si="49"/>
         <v>1.2179716784673051</v>
       </c>
       <c r="D106">
-        <f>D$97*C106</f>
+        <f t="shared" si="55"/>
         <v>8.1847668821620836</v>
       </c>
       <c r="F106">
-        <f>F105+H$92</f>
+        <f t="shared" si="56"/>
         <v>1350</v>
       </c>
       <c r="G106">
-        <f>I106/SQRT(G$92)/0.152</f>
+        <f t="shared" si="50"/>
         <v>1.5024811412470704</v>
       </c>
       <c r="H106">
-        <f>(1+(F106/1225)^2)*MAX(1-F106/I$94, 0)</f>
+        <f t="shared" si="51"/>
         <v>1.2179716784673051</v>
       </c>
       <c r="I106">
-        <f>I$97*H106</f>
+        <f t="shared" si="57"/>
         <v>10.213335898889335</v>
       </c>
       <c r="K106">
-        <f>K105+M$92</f>
+        <f t="shared" si="58"/>
         <v>1350</v>
       </c>
       <c r="L106">
-        <f>N106/SQRT(L$92)/0.152</f>
+        <f t="shared" si="52"/>
         <v>1.6825229913632995</v>
       </c>
       <c r="M106">
-        <f>(1+(K106/1225)^2)*MAX(1-K106/N$94, 0)</f>
+        <f t="shared" si="53"/>
         <v>1.2179716784673051</v>
       </c>
       <c r="N106">
-        <f>N$97*M106</f>
+        <f t="shared" si="59"/>
         <v>11.437196778479672</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107">
-        <f>A106+C$92</f>
+        <f t="shared" si="54"/>
         <v>1500</v>
       </c>
       <c r="B107">
-        <f>D107/SQRT(B$92)/0.152</f>
+        <f t="shared" si="48"/>
         <v>1.2354125530611513</v>
       </c>
       <c r="C107">
-        <f>(1+(A107/1225)^2)*MAX(1-A107/D$94, 0)</f>
+        <f t="shared" si="49"/>
         <v>1.2496876301541024</v>
       </c>
       <c r="D107">
-        <f>D$97*C107</f>
+        <f t="shared" si="55"/>
         <v>8.3978980046599521</v>
       </c>
       <c r="F107">
-        <f>F106+H$92</f>
+        <f t="shared" si="56"/>
         <v>1500</v>
       </c>
       <c r="G107">
-        <f>I107/SQRT(G$92)/0.152</f>
+        <f t="shared" si="50"/>
         <v>1.5416057121452071</v>
       </c>
       <c r="H107">
-        <f>(1+(F107/1225)^2)*MAX(1-F107/I$94, 0)</f>
+        <f t="shared" si="51"/>
         <v>1.2496876301541024</v>
       </c>
       <c r="I107">
-        <f>I$97*H107</f>
+        <f t="shared" si="57"/>
         <v>10.479290907250315</v>
       </c>
       <c r="K107">
-        <f>K106+M$92</f>
+        <f t="shared" si="58"/>
         <v>1500</v>
       </c>
       <c r="L107">
-        <f>N107/SQRT(L$92)/0.152</f>
+        <f t="shared" si="52"/>
         <v>1.726335847482545</v>
       </c>
       <c r="M107">
-        <f>(1+(K107/1225)^2)*MAX(1-K107/N$94, 0)</f>
+        <f t="shared" si="53"/>
         <v>1.2496876301541024</v>
       </c>
       <c r="N107">
-        <f>N$97*M107</f>
+        <f t="shared" si="59"/>
         <v>11.735021093175666</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108">
-        <f>A107+C$92</f>
+        <f t="shared" si="54"/>
         <v>1650</v>
       </c>
       <c r="B108">
-        <f>D108/SQRT(B$92)/0.152</f>
+        <f t="shared" si="48"/>
         <v>1.2519437358658188</v>
       </c>
       <c r="C108">
-        <f>(1+(A108/1225)^2)*MAX(1-A108/D$94, 0)</f>
+        <f t="shared" si="49"/>
         <v>1.2664098292378174</v>
       </c>
       <c r="D108">
-        <f>D$97*C108</f>
+        <f t="shared" si="55"/>
         <v>8.510271144099077</v>
       </c>
       <c r="F108">
-        <f>F107+H$92</f>
+        <f t="shared" si="56"/>
         <v>1650</v>
       </c>
       <c r="G108">
-        <f>I108/SQRT(G$92)/0.152</f>
+        <f t="shared" si="50"/>
         <v>1.5622340971952418</v>
       </c>
       <c r="H108">
-        <f>(1+(F108/1225)^2)*MAX(1-F108/I$94, 0)</f>
+        <f t="shared" si="51"/>
         <v>1.2664098292378174</v>
       </c>
       <c r="I108">
-        <f>I$97*H108</f>
+        <f t="shared" si="57"/>
         <v>10.619515379813585</v>
       </c>
       <c r="K108">
-        <f>K107+M$92</f>
+        <f t="shared" si="58"/>
         <v>1650</v>
       </c>
       <c r="L108">
-        <f>N108/SQRT(L$92)/0.152</f>
+        <f t="shared" si="52"/>
         <v>1.749436125528345</v>
       </c>
       <c r="M108">
-        <f>(1+(K108/1225)^2)*MAX(1-K108/N$94, 0)</f>
+        <f t="shared" si="53"/>
         <v>1.2664098292378174</v>
       </c>
       <c r="N108">
-        <f>N$97*M108</f>
+        <f t="shared" si="59"/>
         <v>11.892048620884715</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109">
-        <f>A108+C$92</f>
+        <f t="shared" si="54"/>
         <v>1800</v>
       </c>
       <c r="B109">
-        <f>D109/SQRT(B$92)/0.152</f>
+        <f t="shared" si="48"/>
         <v>1.2492056943801142</v>
       </c>
       <c r="C109">
-        <f>(1+(A109/1225)^2)*MAX(1-A109/D$94, 0)</f>
+        <f t="shared" si="49"/>
         <v>1.263640149937526</v>
       </c>
       <c r="D109">
-        <f>D$97*C109</f>
+        <f t="shared" si="55"/>
         <v>8.4916589055618381</v>
       </c>
       <c r="F109">
-        <f>F108+H$92</f>
+        <f t="shared" si="56"/>
         <v>1800</v>
       </c>
       <c r="G109">
-        <f>I109/SQRT(G$92)/0.152</f>
+        <f t="shared" si="50"/>
         <v>1.5588174406427455</v>
       </c>
       <c r="H109">
-        <f>(1+(F109/1225)^2)*MAX(1-F109/I$94, 0)</f>
+        <f t="shared" si="51"/>
         <v>1.263640149937526</v>
       </c>
       <c r="I109">
-        <f>I$97*H109</f>
+        <f t="shared" si="57"/>
         <v>10.596290155839844</v>
       </c>
       <c r="K109">
-        <f>K108+M$92</f>
+        <f t="shared" si="58"/>
         <v>1800</v>
       </c>
       <c r="L109">
-        <f>N109/SQRT(L$92)/0.152</f>
+        <f t="shared" si="52"/>
         <v>1.7456100520786673</v>
       </c>
       <c r="M109">
-        <f>(1+(K109/1225)^2)*MAX(1-K109/N$94, 0)</f>
+        <f t="shared" si="53"/>
         <v>1.263640149937526</v>
       </c>
       <c r="N109">
-        <f>N$97*M109</f>
+        <f t="shared" si="59"/>
         <v>11.866040325510738</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110">
-        <f>A109+C$92</f>
+        <f t="shared" si="54"/>
         <v>1950</v>
       </c>
       <c r="B110">
-        <f>D110/SQRT(B$92)/0.152</f>
+        <f t="shared" si="48"/>
         <v>1.2227516845370281</v>
       </c>
       <c r="C110">
-        <f>(1+(A110/1225)^2)*MAX(1-A110/D$94, 0)</f>
+        <f t="shared" si="49"/>
         <v>1.236880466472303</v>
       </c>
       <c r="D110">
-        <f>D$97*C110</f>
+        <f t="shared" si="55"/>
         <v>8.3118338941306078</v>
       </c>
       <c r="F110">
-        <f>F109+H$92</f>
+        <f t="shared" si="56"/>
         <v>1950</v>
       </c>
       <c r="G110">
-        <f>I110/SQRT(G$92)/0.152</f>
+        <f t="shared" si="50"/>
         <v>1.525806886733287</v>
       </c>
       <c r="H110">
-        <f>(1+(F110/1225)^2)*MAX(1-F110/I$94, 0)</f>
+        <f t="shared" si="51"/>
         <v>1.236880466472303</v>
       </c>
       <c r="I110">
-        <f>I$97*H110</f>
+        <f t="shared" si="57"/>
         <v>10.371896074589774</v>
       </c>
       <c r="K110">
-        <f>K109+M$92</f>
+        <f t="shared" si="58"/>
         <v>1950</v>
       </c>
       <c r="L110">
-        <f>N110/SQRT(L$92)/0.152</f>
+        <f t="shared" si="52"/>
         <v>1.7086438537114772</v>
       </c>
       <c r="M110">
-        <f>(1+(K110/1225)^2)*MAX(1-K110/N$94, 0)</f>
+        <f t="shared" si="53"/>
         <v>1.236880466472303</v>
       </c>
       <c r="N110">
-        <f>N$97*M110</f>
+        <f t="shared" si="59"/>
         <v>11.614757170957651</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111">
-        <f>A110+C$92</f>
+        <f t="shared" si="54"/>
         <v>2100</v>
       </c>
       <c r="B111">
-        <f>D111/SQRT(B$92)/0.152</f>
+        <f t="shared" si="48"/>
         <v>1.1681349622695525</v>
       </c>
       <c r="C111">
-        <f>(1+(A111/1225)^2)*MAX(1-A111/D$94, 0)</f>
+        <f t="shared" si="49"/>
         <v>1.1816326530612247</v>
       </c>
       <c r="D111">
-        <f>D$97*C111</f>
+        <f t="shared" si="55"/>
         <v>7.9405687148877702</v>
       </c>
       <c r="F111">
-        <f>F110+H$92</f>
+        <f t="shared" si="56"/>
         <v>2100</v>
       </c>
       <c r="G111">
-        <f>I111/SQRT(G$92)/0.152</f>
+        <f t="shared" si="50"/>
         <v>1.457653579712437</v>
       </c>
       <c r="H111">
-        <f>(1+(F111/1225)^2)*MAX(1-F111/I$94, 0)</f>
+        <f t="shared" si="51"/>
         <v>1.1816326530612247</v>
       </c>
       <c r="I111">
-        <f>I$97*H111</f>
+        <f t="shared" si="57"/>
         <v>9.9086139753240694</v>
       </c>
       <c r="K111">
-        <f>K110+M$92</f>
+        <f t="shared" si="58"/>
         <v>2100</v>
       </c>
       <c r="L111">
-        <f>N111/SQRT(L$92)/0.152</f>
+        <f t="shared" si="52"/>
         <v>1.6323237570047422</v>
       </c>
       <c r="M111">
-        <f>(1+(K111/1225)^2)*MAX(1-K111/N$94, 0)</f>
+        <f t="shared" si="53"/>
         <v>1.1816326530612247</v>
       </c>
       <c r="N111">
-        <f>N$97*M111</f>
+        <f t="shared" si="59"/>
         <v>11.095960121129375</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112">
-        <f>A111+C$92</f>
+        <f t="shared" si="54"/>
         <v>2250</v>
       </c>
       <c r="B112">
-        <f>D112/SQRT(B$92)/0.152</f>
+        <f t="shared" si="48"/>
         <v>1.0809087835106774</v>
       </c>
       <c r="C112">
-        <f>(1+(A112/1225)^2)*MAX(1-A112/D$94, 0)</f>
+        <f t="shared" si="49"/>
         <v>1.0933985839233653</v>
       </c>
       <c r="D112">
-        <f>D$97*C112</f>
+        <f t="shared" si="55"/>
         <v>7.3476359729156941</v>
       </c>
       <c r="F112">
-        <f>F111+H$92</f>
+        <f t="shared" si="56"/>
         <v>2250</v>
       </c>
       <c r="G112">
-        <f>I112/SQRT(G$92)/0.152</f>
+        <f t="shared" si="50"/>
         <v>1.3488086638257639</v>
       </c>
       <c r="H112">
-        <f>(1+(F112/1225)^2)*MAX(1-F112/I$94, 0)</f>
+        <f t="shared" si="51"/>
         <v>1.0933985839233653</v>
       </c>
       <c r="I112">
-        <f>I$97*H112</f>
+        <f t="shared" si="57"/>
         <v>9.1687246973034124</v>
       </c>
       <c r="K112">
-        <f>K111+M$92</f>
+        <f t="shared" si="58"/>
         <v>2250</v>
       </c>
       <c r="L112">
-        <f>N112/SQRT(L$92)/0.152</f>
+        <f t="shared" si="52"/>
         <v>1.5104359885364278</v>
       </c>
       <c r="M112">
-        <f>(1+(K112/1225)^2)*MAX(1-K112/N$94, 0)</f>
+        <f t="shared" si="53"/>
         <v>1.0933985839233653</v>
       </c>
       <c r="N112">
-        <f>N$97*M112</f>
+        <f t="shared" si="59"/>
         <v>10.267410139929819</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113">
-        <f>A112+C$92</f>
+        <f t="shared" si="54"/>
         <v>2400</v>
       </c>
       <c r="B113">
-        <f>D113/SQRT(B$92)/0.152</f>
+        <f t="shared" si="48"/>
         <v>0.95662640419339373</v>
       </c>
       <c r="C113">
-        <f>(1+(A113/1225)^2)*MAX(1-A113/D$94, 0)</f>
+        <f t="shared" si="49"/>
         <v>0.96768013327780067</v>
       </c>
       <c r="D113">
-        <f>D$97*C113</f>
+        <f t="shared" si="55"/>
         <v>6.5028082732967603</v>
       </c>
       <c r="F113">
-        <f>F112+H$92</f>
+        <f t="shared" si="56"/>
         <v>2400</v>
       </c>
       <c r="G113">
-        <f>I113/SQRT(G$92)/0.152</f>
+        <f t="shared" si="50"/>
         <v>1.1937232833188376</v>
       </c>
       <c r="H113">
-        <f>(1+(F113/1225)^2)*MAX(1-F113/I$94, 0)</f>
+        <f t="shared" si="51"/>
         <v>0.96768013327780067</v>
       </c>
       <c r="I113">
-        <f>I$97*H113</f>
+        <f t="shared" si="57"/>
         <v>8.1145090797884922</v>
       </c>
       <c r="K113">
-        <f>K112+M$92</f>
+        <f t="shared" si="58"/>
         <v>2400</v>
       </c>
       <c r="L113">
-        <f>N113/SQRT(L$92)/0.152</f>
+        <f t="shared" si="52"/>
         <v>1.3367667748845005</v>
       </c>
       <c r="M113">
-        <f>(1+(K113/1225)^2)*MAX(1-K113/N$94, 0)</f>
+        <f t="shared" si="53"/>
         <v>0.96768013327780067</v>
       </c>
       <c r="N113">
-        <f>N$97*M113</f>
+        <f t="shared" si="59"/>
         <v>9.0868681912629015</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114">
-        <f>A113+C$92</f>
+        <f t="shared" si="54"/>
         <v>2550</v>
       </c>
       <c r="B114">
-        <f>D114/SQRT(B$92)/0.152</f>
+        <f t="shared" si="48"/>
         <v>0.79084108025069388</v>
       </c>
       <c r="C114">
-        <f>(1+(A114/1225)^2)*MAX(1-A114/D$94, 0)</f>
+        <f t="shared" si="49"/>
         <v>0.79997917534360707</v>
       </c>
       <c r="D114">
-        <f>D$97*C114</f>
+        <f t="shared" si="55"/>
         <v>5.3758582211133508</v>
       </c>
       <c r="F114">
-        <f>F113+H$92</f>
+        <f t="shared" si="56"/>
         <v>2550</v>
       </c>
       <c r="G114">
-        <f>I114/SQRT(G$92)/0.152</f>
+        <f t="shared" si="50"/>
         <v>0.9868485824372295</v>
       </c>
       <c r="H114">
-        <f>(1+(F114/1225)^2)*MAX(1-F114/I$94, 0)</f>
+        <f t="shared" si="51"/>
         <v>0.79997917534360707</v>
       </c>
       <c r="I114">
-        <f>I$97*H114</f>
+        <f t="shared" si="57"/>
         <v>6.7082479620400086</v>
       </c>
       <c r="K114">
-        <f>K113+M$92</f>
+        <f t="shared" si="58"/>
         <v>2550</v>
       </c>
       <c r="L114">
-        <f>N114/SQRT(L$92)/0.152</f>
+        <f t="shared" si="52"/>
         <v>1.1051023426269284</v>
       </c>
       <c r="M114">
-        <f>(1+(K114/1225)^2)*MAX(1-K114/N$94, 0)</f>
+        <f t="shared" si="53"/>
         <v>0.79997917534360707</v>
       </c>
       <c r="N114">
-        <f>N$97*M114</f>
+        <f t="shared" si="59"/>
         <v>7.5120952390325506</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115">
-        <f>A114+C$92</f>
+        <f t="shared" si="54"/>
         <v>2700</v>
       </c>
       <c r="B115">
-        <f>D115/SQRT(B$92)/0.152</f>
+        <f t="shared" si="48"/>
         <v>0.57910606761556693</v>
       </c>
       <c r="C115">
-        <f>(1+(A115/1225)^2)*MAX(1-A115/D$94, 0)</f>
+        <f t="shared" si="49"/>
         <v>0.58579758433985818</v>
       </c>
       <c r="D115">
-        <f>D$97*C115</f>
+        <f t="shared" si="55"/>
         <v>3.9365584214478315</v>
       </c>
       <c r="F115">
-        <f>F114+H$92</f>
+        <f t="shared" si="56"/>
         <v>2700</v>
       </c>
       <c r="G115">
-        <f>I115/SQRT(G$92)/0.152</f>
+        <f t="shared" si="50"/>
         <v>0.72263570542650646</v>
       </c>
       <c r="H115">
-        <f>(1+(F115/1225)^2)*MAX(1-F115/I$94, 0)</f>
+        <f t="shared" si="51"/>
         <v>0.58579758433985818</v>
       </c>
       <c r="I115">
-        <f>I$97*H115</f>
+        <f t="shared" si="57"/>
         <v>4.9122221833186339</v>
       </c>
       <c r="K115">
-        <f>K114+M$92</f>
+        <f t="shared" si="58"/>
         <v>2700</v>
       </c>
       <c r="L115">
-        <f>N115/SQRT(L$92)/0.152</f>
+        <f t="shared" si="52"/>
         <v>0.80922891834167587</v>
       </c>
       <c r="M115">
-        <f>(1+(K115/1225)^2)*MAX(1-K115/N$94, 0)</f>
+        <f t="shared" si="53"/>
         <v>0.58579758433985818</v>
       </c>
       <c r="N115">
-        <f>N$97*M115</f>
+        <f t="shared" si="59"/>
         <v>5.5008522471426655</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116">
-        <f>A115+C$92</f>
+        <f t="shared" si="54"/>
         <v>2850</v>
       </c>
       <c r="B116">
-        <f>D116/SQRT(B$92)/0.152</f>
+        <f t="shared" si="48"/>
         <v>0.31697462222100581</v>
       </c>
       <c r="C116">
-        <f>(1+(A116/1225)^2)*MAX(1-A116/D$94, 0)</f>
+        <f t="shared" si="49"/>
         <v>0.32063723448563125</v>
       </c>
       <c r="D116">
-        <f>D$97*C116</f>
+        <f t="shared" si="55"/>
         <v>2.1546814793825928</v>
       </c>
       <c r="F116">
-        <f>F115+H$92</f>
+        <f t="shared" si="56"/>
         <v>2850</v>
       </c>
       <c r="G116">
-        <f>I116/SQRT(G$92)/0.152</f>
+        <f t="shared" si="50"/>
         <v>0.3955357965322408</v>
       </c>
       <c r="H116">
-        <f>(1+(F116/1225)^2)*MAX(1-F116/I$94, 0)</f>
+        <f t="shared" si="51"/>
         <v>0.32063723448563125</v>
       </c>
       <c r="I116">
-        <f>I$97*H116</f>
+        <f t="shared" si="57"/>
         <v>2.6887125828850729</v>
       </c>
       <c r="K116">
-        <f>K115+M$92</f>
+        <f t="shared" si="58"/>
         <v>2850</v>
       </c>
       <c r="L116">
-        <f>N116/SQRT(L$92)/0.152</f>
+        <f t="shared" si="52"/>
         <v>0.44293272860671168</v>
       </c>
       <c r="M116">
-        <f>(1+(K116/1225)^2)*MAX(1-K116/N$94, 0)</f>
+        <f t="shared" si="53"/>
         <v>0.32063723448563125</v>
       </c>
       <c r="N116">
-        <f>N$97*M116</f>
+        <f t="shared" si="59"/>
         <v>3.0109001794971819</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117">
-        <f>A116+C$92</f>
+        <f t="shared" si="54"/>
         <v>3000</v>
       </c>
       <c r="B117">
-        <f>D117/SQRT(B$92)/0.152</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="C117">
-        <f>(1+(A117/1225)^2)*MAX(1-A117/D$94, 0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="D117">
-        <f>D$97*C117</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="F117">
-        <f>F116+H$92</f>
+        <f t="shared" si="56"/>
         <v>3000</v>
       </c>
       <c r="G117">
-        <f>I117/SQRT(G$92)/0.152</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="H117">
-        <f>(1+(F117/1225)^2)*MAX(1-F117/I$94, 0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="I117">
-        <f>I$97*H117</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="K117">
-        <f>K116+M$92</f>
+        <f t="shared" si="58"/>
         <v>3000</v>
       </c>
       <c r="L117">
-        <f>N117/SQRT(L$92)/0.152</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="M117">
-        <f>(1+(K117/1225)^2)*MAX(1-K117/N$94, 0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="N117">
-        <f>N$97*M117</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
@@ -15009,9 +15009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26C46FA-3D0D-4140-B70D-5CCA8C4B89E8}">
   <dimension ref="A1:D305"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D305"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/REB Engine Profile.xlsx
+++ b/REB Engine Profile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgkid\Documents\GitHub\REBalanced\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5F1A6E-E7A9-48B3-B41A-00A34EFCF8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E0BC42-47AC-402E-A963-2B51E738B6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48F6B32E-432E-46EB-935F-18F86645025F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="87">
   <si>
     <t>thrust</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,9 +332,6 @@
   <si>
     <t>F414-GE-400</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F-16A/B</t>
   </si>
   <si>
     <t>F-16C/D Blk 50</t>
@@ -8132,7 +8129,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305925" cy="6076950"/>
+    <xdr:ext cx="9298983" cy="6078242"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="차트 1">
@@ -8461,7 +8458,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8892,7 +8889,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="I6" s="3"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="3"/>
       <c r="K6" s="2"/>
       <c r="L6" s="4"/>
@@ -8901,16 +8898,16 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>7390</v>
+        <v>8573</v>
       </c>
       <c r="E7" s="2">
         <v>3200</v>
@@ -8919,87 +8916,87 @@
         <v>12020</v>
       </c>
       <c r="G7" s="2">
-        <v>14670</v>
+        <v>16600</v>
       </c>
       <c r="H7" s="2">
-        <v>23830</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0.73499999999999999</v>
+        <v>28000</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.745</v>
       </c>
       <c r="J7" s="3">
-        <v>2.1</v>
+        <v>1.9710000000000001</v>
       </c>
       <c r="K7" s="2">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" ref="L7:M11" si="4">G7/224.809</f>
-        <v>65.255394579398512</v>
+        <f t="shared" ref="L6:M10" si="4">G7/224.809</f>
+        <v>73.840460123927429</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="4"/>
-        <v>106.00109426224039</v>
+        <v>124.55017370301012</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" ref="N7:O11" si="5">I7*28.325</f>
-        <v>20.818874999999998</v>
+        <f t="shared" ref="N6:O10" si="5">I7*28.325</f>
+        <v>21.102125000000001</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="5"/>
-        <v>59.482500000000002</v>
+        <v>55.828575000000001</v>
       </c>
       <c r="P7" s="5">
-        <f t="shared" ref="P7:Q11" si="6">L7*N7/1000</f>
-        <v>1.358543902824175</v>
+        <f t="shared" ref="P6:Q10" si="6">L7*N7/1000</f>
+        <v>1.5581906195926323</v>
       </c>
       <c r="Q7" s="5">
         <f t="shared" si="6"/>
-        <v>6.3052100894537144</v>
+        <v>6.9534587138415285</v>
       </c>
       <c r="R7" s="5">
         <f>K7/2.205</f>
-        <v>103.40136054421768</v>
+        <v>119.72789115646258</v>
       </c>
       <c r="S7" s="5">
         <f>(C7*L7*1000/9.81)/D7</f>
-        <v>0.90012531163001641</v>
+        <v>0.87799605218060006</v>
       </c>
       <c r="T7" s="5">
         <f>(C7*L7*1000/9.81)/F7</f>
-        <v>0.55340482969599181</v>
+        <v>0.62621132739969088</v>
       </c>
       <c r="U7" s="5">
         <f>(C7*M7*1000/9.81)/D7</f>
-        <v>1.4621667468400332</v>
+        <v>1.4809571964492048</v>
       </c>
       <c r="V7" s="5">
         <f>(C7*M7*1000/9.81)/F7</f>
-        <v>0.89895276698401383</v>
+        <v>1.0562600703127314</v>
       </c>
       <c r="W7" s="5">
         <f>E7/(P7*C7)</f>
-        <v>2355.4630758327057</v>
+        <v>2053.6640124534933</v>
       </c>
       <c r="X7" s="5">
         <f>E7/(Q7*C7)</f>
-        <v>507.51679239878416</v>
+        <v>460.20263176799943</v>
       </c>
       <c r="Y7" s="5">
-        <f t="shared" ref="Y7:Y8" si="7">W7*0.33</f>
-        <v>777.30281502479295</v>
+        <f t="shared" ref="Y6:Y7" si="7">W7*0.33</f>
+        <v>677.70912410965286</v>
       </c>
       <c r="Z7" s="5">
         <f>Q7/P7</f>
-        <v>4.641152984711268</v>
+        <v>4.462521225842969</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -9014,27 +9011,27 @@
         <v>12020</v>
       </c>
       <c r="G8" s="2">
-        <v>16600</v>
+        <v>17000</v>
       </c>
       <c r="H8" s="2">
-        <v>28000</v>
-      </c>
-      <c r="I8" s="3">
+        <v>29000</v>
+      </c>
+      <c r="I8" s="6">
         <v>0.745</v>
       </c>
       <c r="J8" s="3">
-        <v>1.9710000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="K8" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="4"/>
-        <v>73.840460123927429</v>
+        <v>75.619748319684717</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="4"/>
-        <v>124.55017370301012</v>
+        <v>128.99839419240334</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="5"/>
@@ -9042,59 +9039,59 @@
       </c>
       <c r="O8" s="4">
         <f t="shared" si="5"/>
-        <v>55.828575000000001</v>
+        <v>53.817499999999995</v>
       </c>
       <c r="P8" s="5">
         <f t="shared" si="6"/>
-        <v>1.5581906195926323</v>
+        <v>1.5957373815105271</v>
       </c>
       <c r="Q8" s="5">
         <f t="shared" si="6"/>
-        <v>6.9534587138415285</v>
+        <v>6.942371079449666</v>
       </c>
       <c r="R8" s="5">
         <f>K8/2.205</f>
-        <v>119.72789115646258</v>
+        <v>122.44897959183673</v>
       </c>
       <c r="S8" s="5">
         <f>(C8*L8*1000/9.81)/D8</f>
-        <v>0.87799605218060006</v>
+        <v>0.89915258355844574</v>
       </c>
       <c r="T8" s="5">
         <f>(C8*L8*1000/9.81)/F8</f>
-        <v>0.62621132739969088</v>
+        <v>0.64130075697558697</v>
       </c>
       <c r="U8" s="5">
         <f>(C8*M8*1000/9.81)/D8</f>
-        <v>1.4809571964492048</v>
+        <v>1.5338485248938192</v>
       </c>
       <c r="V8" s="5">
         <f>(C8*M8*1000/9.81)/F8</f>
-        <v>1.0562600703127314</v>
+        <v>1.093983644252472</v>
       </c>
       <c r="W8" s="5">
         <f>E8/(P8*C8)</f>
-        <v>2053.6640124534933</v>
+        <v>2005.3425062781168</v>
       </c>
       <c r="X8" s="5">
         <f>E8/(Q8*C8)</f>
-        <v>460.20263176799943</v>
+        <v>460.93761963724785</v>
       </c>
       <c r="Y8" s="5">
-        <f t="shared" si="7"/>
-        <v>677.70912410965286</v>
+        <f>W8*0.33</f>
+        <v>661.76302707177854</v>
       </c>
       <c r="Z8" s="5">
         <f>Q8/P8</f>
-        <v>4.462521225842969</v>
+        <v>4.3505724437425961</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
         <v>78</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -9109,87 +9106,87 @@
         <v>12020</v>
       </c>
       <c r="G9" s="2">
-        <v>17000</v>
+        <v>14670</v>
       </c>
       <c r="H9" s="2">
-        <v>29000</v>
+        <v>23830</v>
       </c>
       <c r="I9" s="6">
-        <v>0.745</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="J9" s="3">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="K9" s="2">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="4"/>
-        <v>75.619748319684717</v>
+        <v>65.255394579398512</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" si="4"/>
-        <v>128.99839419240334</v>
+        <v>106.00109426224039</v>
       </c>
       <c r="N9" s="4">
         <f t="shared" si="5"/>
-        <v>21.102125000000001</v>
+        <v>20.818874999999998</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" si="5"/>
-        <v>53.817499999999995</v>
+        <v>59.482500000000002</v>
       </c>
       <c r="P9" s="5">
         <f t="shared" si="6"/>
-        <v>1.5957373815105271</v>
+        <v>1.358543902824175</v>
       </c>
       <c r="Q9" s="5">
         <f t="shared" si="6"/>
-        <v>6.942371079449666</v>
+        <v>6.3052100894537144</v>
       </c>
       <c r="R9" s="5">
         <f>K9/2.205</f>
-        <v>122.44897959183673</v>
+        <v>103.40136054421768</v>
       </c>
       <c r="S9" s="5">
         <f>(C9*L9*1000/9.81)/D9</f>
-        <v>0.89915258355844574</v>
+        <v>0.77591578828249408</v>
       </c>
       <c r="T9" s="5">
         <f>(C9*L9*1000/9.81)/F9</f>
-        <v>0.64130075697558697</v>
+        <v>0.55340482969599181</v>
       </c>
       <c r="U9" s="5">
         <f>(C9*M9*1000/9.81)/D9</f>
-        <v>1.5338485248938192</v>
+        <v>1.2604003568351623</v>
       </c>
       <c r="V9" s="5">
         <f>(C9*M9*1000/9.81)/F9</f>
-        <v>1.093983644252472</v>
+        <v>0.89895276698401383</v>
       </c>
       <c r="W9" s="5">
         <f>E9/(P9*C9)</f>
-        <v>2005.3425062781168</v>
+        <v>2355.4630758327057</v>
       </c>
       <c r="X9" s="5">
         <f>E9/(Q9*C9)</f>
-        <v>460.93761963724785</v>
+        <v>507.51679239878416</v>
       </c>
       <c r="Y9" s="5">
         <f>W9*0.33</f>
-        <v>661.76302707177854</v>
+        <v>777.30281502479295</v>
       </c>
       <c r="Z9" s="5">
         <f>Q9/P9</f>
-        <v>4.3505724437425961</v>
+        <v>4.641152984711268</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -9204,202 +9201,202 @@
         <v>12020</v>
       </c>
       <c r="G10" s="2">
-        <v>14670</v>
+        <v>17800</v>
       </c>
       <c r="H10" s="2">
-        <v>23830</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0.73499999999999999</v>
+        <v>29100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.72599999999999998</v>
       </c>
       <c r="J10" s="3">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="K10" s="2">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="4"/>
-        <v>65.255394579398512</v>
+        <v>79.178324711199281</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="4"/>
-        <v>106.00109426224039</v>
+        <v>129.44321624134264</v>
       </c>
       <c r="N10" s="4">
         <f t="shared" si="5"/>
-        <v>20.818874999999998</v>
+        <v>20.563949999999998</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="5"/>
-        <v>59.482500000000002</v>
+        <v>58.349499999999999</v>
       </c>
       <c r="P10" s="5">
         <f t="shared" si="6"/>
-        <v>1.358543902824175</v>
+        <v>1.6282191104448664</v>
       </c>
       <c r="Q10" s="5">
         <f t="shared" si="6"/>
-        <v>6.3052100894537144</v>
+        <v>7.552946946074222</v>
       </c>
       <c r="R10" s="5">
         <f>K10/2.205</f>
-        <v>103.40136054421768</v>
+        <v>115.19274376417233</v>
       </c>
       <c r="S10" s="5">
         <f>(C10*L10*1000/9.81)/D10</f>
-        <v>0.77591578828249408</v>
+        <v>0.94146564631413721</v>
       </c>
       <c r="T10" s="5">
         <f>(C10*L10*1000/9.81)/F10</f>
-        <v>0.55340482969599181</v>
+        <v>0.67147961612737928</v>
       </c>
       <c r="U10" s="5">
         <f>(C10*M10*1000/9.81)/D10</f>
-        <v>1.2604003568351623</v>
+        <v>1.5391376577382805</v>
       </c>
       <c r="V10" s="5">
         <f>(C10*M10*1000/9.81)/F10</f>
-        <v>0.89895276698401383</v>
+        <v>1.0977560016464458</v>
       </c>
       <c r="W10" s="5">
         <f>E10/(P10*C10)</f>
-        <v>2355.4630758327057</v>
+        <v>1965.3374533392421</v>
       </c>
       <c r="X10" s="5">
         <f>E10/(Q10*C10)</f>
-        <v>507.51679239878416</v>
+        <v>423.6756888201441</v>
       </c>
       <c r="Y10" s="5">
         <f>W10*0.33</f>
-        <v>777.30281502479295</v>
+        <v>648.5613596019499</v>
       </c>
       <c r="Z10" s="5">
         <f>Q10/P10</f>
+        <v>4.638777973813724</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>12701</v>
+      </c>
+      <c r="E12" s="2">
+        <v>6103</v>
+      </c>
+      <c r="F12" s="2">
+        <v>20185</v>
+      </c>
+      <c r="G12" s="2">
+        <v>14670</v>
+      </c>
+      <c r="H12" s="2">
+        <v>23830</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="K12" s="2">
+        <v>228</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" ref="L12:M15" si="8">G12/224.809</f>
+        <v>65.255394579398512</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="8"/>
+        <v>106.00109426224039</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" ref="N12:O15" si="9">I12*28.325</f>
+        <v>20.818874999999998</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="9"/>
+        <v>59.482500000000002</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" ref="P12:Q15" si="10">L12*N12/1000</f>
+        <v>1.358543902824175</v>
+      </c>
+      <c r="Q12" s="5">
+        <f t="shared" si="10"/>
+        <v>6.3052100894537144</v>
+      </c>
+      <c r="R12" s="5">
+        <f>K12/2.205</f>
+        <v>103.40136054421768</v>
+      </c>
+      <c r="S12" s="5">
+        <f>(C12*L12*1000/9.81)/D12</f>
+        <v>1.0474649323589988</v>
+      </c>
+      <c r="T12" s="5">
+        <f>(C12*L12*1000/9.81)/F12</f>
+        <v>0.65909596759433453</v>
+      </c>
+      <c r="U12" s="5">
+        <f>(C12*M12*1000/9.81)/D12</f>
+        <v>1.701505749019423</v>
+      </c>
+      <c r="V12" s="5">
+        <f>(C12*M12*1000/9.81)/F12</f>
+        <v>1.0706378260240621</v>
+      </c>
+      <c r="W12" s="5">
+        <f>E12/(P12*C12)</f>
+        <v>2246.1548674698442</v>
+      </c>
+      <c r="X12" s="5">
+        <f>E12/(Q12*C12)</f>
+        <v>483.96484125152807</v>
+      </c>
+      <c r="Y12" s="5">
+        <f>W12*0.33</f>
+        <v>741.23110626504865</v>
+      </c>
+      <c r="Z12" s="5">
+        <f>Q12/P12</f>
         <v>4.641152984711268</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>8573</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3200</v>
-      </c>
-      <c r="F11" s="2">
-        <v>12020</v>
-      </c>
-      <c r="G11" s="2">
-        <v>17800</v>
-      </c>
-      <c r="H11" s="2">
-        <v>29100</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0.72599999999999998</v>
-      </c>
-      <c r="J11" s="3">
-        <v>2.06</v>
-      </c>
-      <c r="K11" s="2">
-        <v>254</v>
-      </c>
-      <c r="L11" s="4">
-        <f t="shared" si="4"/>
-        <v>79.178324711199281</v>
-      </c>
-      <c r="M11" s="4">
-        <f t="shared" si="4"/>
-        <v>129.44321624134264</v>
-      </c>
-      <c r="N11" s="4">
-        <f t="shared" si="5"/>
-        <v>20.563949999999998</v>
-      </c>
-      <c r="O11" s="4">
-        <f t="shared" si="5"/>
-        <v>58.349499999999999</v>
-      </c>
-      <c r="P11" s="5">
-        <f t="shared" si="6"/>
-        <v>1.6282191104448664</v>
-      </c>
-      <c r="Q11" s="5">
-        <f t="shared" si="6"/>
-        <v>7.552946946074222</v>
-      </c>
-      <c r="R11" s="5">
-        <f>K11/2.205</f>
-        <v>115.19274376417233</v>
-      </c>
-      <c r="S11" s="5">
-        <f>(C11*L11*1000/9.81)/D11</f>
-        <v>0.94146564631413721</v>
-      </c>
-      <c r="T11" s="5">
-        <f>(C11*L11*1000/9.81)/F11</f>
-        <v>0.67147961612737928</v>
-      </c>
-      <c r="U11" s="5">
-        <f>(C11*M11*1000/9.81)/D11</f>
-        <v>1.5391376577382805</v>
-      </c>
-      <c r="V11" s="5">
-        <f>(C11*M11*1000/9.81)/F11</f>
-        <v>1.0977560016464458</v>
-      </c>
-      <c r="W11" s="5">
-        <f>E11/(P11*C11)</f>
-        <v>1965.3374533392421</v>
-      </c>
-      <c r="X11" s="5">
-        <f>E11/(Q11*C11)</f>
-        <v>423.6756888201441</v>
-      </c>
-      <c r="Y11" s="5">
-        <f>W11*0.33</f>
-        <v>648.5613596019499</v>
-      </c>
-      <c r="Z11" s="5">
-        <f>Q11/P11</f>
-        <v>4.638777973813724</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" s="2">
-        <v>12701</v>
+        <v>14379</v>
       </c>
       <c r="E13" s="2">
-        <v>6103</v>
+        <v>10591</v>
       </c>
       <c r="F13" s="2">
-        <v>20185</v>
+        <v>23000</v>
       </c>
       <c r="G13" s="2">
         <v>14670</v>
@@ -9417,7 +9414,7 @@
         <v>228</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" ref="L13:M16" si="8">G13/224.809</f>
+        <f t="shared" si="8"/>
         <v>65.255394579398512</v>
       </c>
       <c r="M13" s="4">
@@ -9425,7 +9422,7 @@
         <v>106.00109426224039</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" ref="N13:O16" si="9">I13*28.325</f>
+        <f t="shared" si="9"/>
         <v>20.818874999999998</v>
       </c>
       <c r="O13" s="4">
@@ -9433,7 +9430,7 @@
         <v>59.482500000000002</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" ref="P13:Q16" si="10">L13*N13/1000</f>
+        <f t="shared" si="10"/>
         <v>1.358543902824175</v>
       </c>
       <c r="Q13" s="5">
@@ -9446,31 +9443,31 @@
       </c>
       <c r="S13" s="5">
         <f>(C13*L13*1000/9.81)/D13</f>
-        <v>1.0474649323589988</v>
+        <v>0.92522790916556386</v>
       </c>
       <c r="T13" s="5">
         <f>(C13*L13*1000/9.81)/F13</f>
-        <v>0.65909596759433453</v>
+        <v>0.5784283524300714</v>
       </c>
       <c r="U13" s="5">
         <f>(C13*M13*1000/9.81)/D13</f>
-        <v>1.701505749019423</v>
+        <v>1.5029434952566725</v>
       </c>
       <c r="V13" s="5">
         <f>(C13*M13*1000/9.81)/F13</f>
-        <v>1.0706378260240621</v>
+        <v>0.9396010660128562</v>
       </c>
       <c r="W13" s="5">
         <f>E13/(P13*C13)</f>
-        <v>2246.1548674698442</v>
+        <v>3897.9233493975294</v>
       </c>
       <c r="X13" s="5">
         <f>E13/(Q13*C13)</f>
-        <v>483.96484125152807</v>
+        <v>839.86099192117547</v>
       </c>
       <c r="Y13" s="5">
         <f>W13*0.33</f>
-        <v>741.23110626504865</v>
+        <v>1286.3147053011849</v>
       </c>
       <c r="Z13" s="5">
         <f>Q13/P13</f>
@@ -9479,10 +9476,10 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -9497,87 +9494,87 @@
         <v>23000</v>
       </c>
       <c r="G14" s="2">
-        <v>14670</v>
+        <v>17000</v>
       </c>
       <c r="H14" s="2">
-        <v>23830</v>
+        <v>28000</v>
       </c>
       <c r="I14" s="6">
-        <v>0.73499999999999999</v>
+        <v>0.745</v>
       </c>
       <c r="J14" s="3">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="K14" s="2">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="8"/>
-        <v>65.255394579398512</v>
+        <v>75.619748319684717</v>
       </c>
       <c r="M14" s="4">
         <f t="shared" si="8"/>
-        <v>106.00109426224039</v>
+        <v>124.55017370301012</v>
       </c>
       <c r="N14" s="4">
         <f t="shared" si="9"/>
-        <v>20.818874999999998</v>
+        <v>21.102125000000001</v>
       </c>
       <c r="O14" s="4">
         <f t="shared" si="9"/>
-        <v>59.482500000000002</v>
+        <v>53.817499999999995</v>
       </c>
       <c r="P14" s="5">
         <f t="shared" si="10"/>
-        <v>1.358543902824175</v>
+        <v>1.5957373815105271</v>
       </c>
       <c r="Q14" s="5">
         <f t="shared" si="10"/>
-        <v>6.3052100894537144</v>
+        <v>6.7029789732617466</v>
       </c>
       <c r="R14" s="5">
         <f>K14/2.205</f>
-        <v>103.40136054421768</v>
+        <v>122.44897959183673</v>
       </c>
       <c r="S14" s="5">
         <f>(C14*L14*1000/9.81)/D14</f>
-        <v>0.92522790916556386</v>
+        <v>1.0721795811734551</v>
       </c>
       <c r="T14" s="5">
         <f>(C14*L14*1000/9.81)/F14</f>
-        <v>0.5784283524300714</v>
+        <v>0.67029870424752658</v>
       </c>
       <c r="U14" s="5">
         <f>(C14*M14*1000/9.81)/D14</f>
-        <v>1.5029434952566725</v>
+        <v>1.7659428395798085</v>
       </c>
       <c r="V14" s="5">
         <f>(C14*M14*1000/9.81)/F14</f>
-        <v>0.9396010660128562</v>
+        <v>1.1040213952312201</v>
       </c>
       <c r="W14" s="5">
         <f>E14/(P14*C14)</f>
-        <v>3897.9233493975294</v>
+        <v>3318.5285131236774</v>
       </c>
       <c r="X14" s="5">
         <f>E14/(Q14*C14)</f>
-        <v>839.86099192117547</v>
+        <v>790.02187253216891</v>
       </c>
       <c r="Y14" s="5">
         <f>W14*0.33</f>
-        <v>1286.3147053011849</v>
+        <v>1095.1144093308135</v>
       </c>
       <c r="Z14" s="5">
         <f>Q14/P14</f>
-        <v>4.641152984711268</v>
+        <v>4.2005527043031963</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -9592,190 +9589,190 @@
         <v>23000</v>
       </c>
       <c r="G15" s="2">
-        <v>17000</v>
+        <v>17800</v>
       </c>
       <c r="H15" s="2">
-        <v>28000</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0.745</v>
+        <v>29100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.72599999999999998</v>
       </c>
       <c r="J15" s="3">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="K15" s="2">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="8"/>
-        <v>75.619748319684717</v>
+        <v>79.178324711199281</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" si="8"/>
-        <v>124.55017370301012</v>
+        <v>129.44321624134264</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" si="9"/>
-        <v>21.102125000000001</v>
+        <v>20.563949999999998</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" si="9"/>
-        <v>53.817499999999995</v>
+        <v>58.349499999999999</v>
       </c>
       <c r="P15" s="5">
         <f t="shared" si="10"/>
-        <v>1.5957373815105271</v>
+        <v>1.6282191104448664</v>
       </c>
       <c r="Q15" s="5">
         <f t="shared" si="10"/>
-        <v>6.7029789732617466</v>
+        <v>7.552946946074222</v>
       </c>
       <c r="R15" s="5">
         <f>K15/2.205</f>
-        <v>122.44897959183673</v>
+        <v>115.19274376417233</v>
       </c>
       <c r="S15" s="5">
         <f>(C15*L15*1000/9.81)/D15</f>
-        <v>1.0721795811734551</v>
+        <v>1.1226350908757352</v>
       </c>
       <c r="T15" s="5">
         <f>(C15*L15*1000/9.81)/F15</f>
-        <v>0.67029870424752658</v>
+        <v>0.70184217268270421</v>
       </c>
       <c r="U15" s="5">
         <f>(C15*M15*1000/9.81)/D15</f>
-        <v>1.7659428395798085</v>
+        <v>1.8353191654204435</v>
       </c>
       <c r="V15" s="5">
         <f>(C15*M15*1000/9.81)/F15</f>
-        <v>1.1040213952312201</v>
+        <v>1.1473936643295894</v>
       </c>
       <c r="W15" s="5">
         <f>E15/(P15*C15)</f>
-        <v>3318.5285131236774</v>
+        <v>3252.3264012993614</v>
       </c>
       <c r="X15" s="5">
         <f>E15/(Q15*C15)</f>
-        <v>790.02187253216891</v>
+        <v>701.11706567096041</v>
       </c>
       <c r="Y15" s="5">
         <f>W15*0.33</f>
-        <v>1095.1144093308135</v>
+        <v>1073.2677124287893</v>
       </c>
       <c r="Z15" s="5">
         <f>Q15/P15</f>
-        <v>4.2005527043031963</v>
+        <v>4.638777973813724</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16">
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="D16" s="2">
-        <v>14379</v>
-      </c>
-      <c r="E16" s="2">
-        <v>10591</v>
-      </c>
-      <c r="F16" s="2">
-        <v>23000</v>
-      </c>
-      <c r="G16" s="2">
-        <v>17800</v>
-      </c>
-      <c r="H16" s="2">
-        <v>29100</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0.72599999999999998</v>
-      </c>
-      <c r="J16" s="3">
-        <v>2.06</v>
-      </c>
-      <c r="K16" s="2">
-        <v>254</v>
-      </c>
-      <c r="L16" s="4">
-        <f t="shared" si="8"/>
-        <v>79.178324711199281</v>
-      </c>
-      <c r="M16" s="4">
-        <f t="shared" si="8"/>
-        <v>129.44321624134264</v>
-      </c>
-      <c r="N16" s="4">
-        <f t="shared" si="9"/>
-        <v>20.563949999999998</v>
-      </c>
-      <c r="O16" s="4">
-        <f t="shared" si="9"/>
-        <v>58.349499999999999</v>
-      </c>
-      <c r="P16" s="5">
-        <f t="shared" si="10"/>
-        <v>1.6282191104448664</v>
-      </c>
-      <c r="Q16" s="5">
-        <f t="shared" si="10"/>
-        <v>7.552946946074222</v>
-      </c>
-      <c r="R16" s="5">
-        <f>K16/2.205</f>
-        <v>115.19274376417233</v>
-      </c>
-      <c r="S16" s="5">
-        <f>(C16*L16*1000/9.81)/D16</f>
-        <v>1.1226350908757352</v>
-      </c>
-      <c r="T16" s="5">
-        <f>(C16*L16*1000/9.81)/F16</f>
-        <v>0.70184217268270421</v>
-      </c>
-      <c r="U16" s="5">
-        <f>(C16*M16*1000/9.81)/D16</f>
-        <v>1.8353191654204435</v>
-      </c>
-      <c r="V16" s="5">
-        <f>(C16*M16*1000/9.81)/F16</f>
-        <v>1.1473936643295894</v>
-      </c>
-      <c r="W16" s="5">
-        <f>E16/(P16*C16)</f>
-        <v>3252.3264012993614</v>
-      </c>
-      <c r="X16" s="5">
-        <f>E16/(Q16*C16)</f>
-        <v>701.11706567096041</v>
-      </c>
-      <c r="Y16" s="5">
-        <f>W16*0.33</f>
-        <v>1073.2677124287893</v>
-      </c>
-      <c r="Z16" s="5">
-        <f>Q16/P16</f>
-        <v>4.638777973813724</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="Q17" s="5"/>
+      <c r="D17" s="2">
+        <v>19838</v>
+      </c>
+      <c r="E17" s="2">
+        <v>7350</v>
+      </c>
+      <c r="F17" s="2">
+        <v>27669</v>
+      </c>
+      <c r="G17" s="7">
+        <v>12350</v>
+      </c>
+      <c r="H17" s="2">
+        <v>20900</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="J17" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="K17" s="7">
+        <v>260</v>
+      </c>
+      <c r="L17" s="4">
+        <f>G17/224.809</f>
+        <v>54.935523044006246</v>
+      </c>
+      <c r="M17" s="4">
+        <f>H17/224.809</f>
+        <v>92.967808228318262</v>
+      </c>
+      <c r="N17" s="4">
+        <f>I17*28.325</f>
+        <v>18.892775</v>
+      </c>
+      <c r="O17" s="4">
+        <f>J17*28.325</f>
+        <v>70.8125</v>
+      </c>
+      <c r="P17" s="5">
+        <f>L17*N17/1000</f>
+        <v>1.0378844763777251</v>
+      </c>
+      <c r="Q17" s="5">
+        <f>M17*O17/1000</f>
+        <v>6.5832829201677869</v>
+      </c>
+      <c r="R17" s="5">
+        <f>K17/2.205</f>
+        <v>117.91383219954648</v>
+      </c>
+      <c r="S17" s="5">
+        <f>(C17*L17*1000/9.81)/D17</f>
+        <v>0.56456813999724209</v>
+      </c>
+      <c r="T17" s="5">
+        <f>(C17*L17*1000/9.81)/F17</f>
+        <v>0.40478162424609809</v>
+      </c>
+      <c r="U17" s="5">
+        <f>(C17*M17*1000/9.81)/D17</f>
+        <v>0.95542300614917886</v>
+      </c>
+      <c r="V17" s="5">
+        <f>(C17*M17*1000/9.81)/F17</f>
+        <v>0.68501505641647376</v>
+      </c>
+      <c r="W17" s="5">
+        <f>E17/(P17*C17)</f>
+        <v>3540.8565053655643</v>
+      </c>
+      <c r="X17" s="5">
+        <f>E17/(Q17*C17)</f>
+        <v>558.23212287317824</v>
+      </c>
+      <c r="Y17" s="5">
+        <f t="shared" ref="Y17:Y18" si="11">W17*0.33</f>
+        <v>1168.4826467706364</v>
+      </c>
+      <c r="Z17" s="5">
+        <f>Q17/P17</f>
+        <v>6.3429823549763578</v>
+      </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -9789,263 +9786,232 @@
       <c r="F18" s="2">
         <v>27669</v>
       </c>
-      <c r="G18" s="7">
-        <v>12350</v>
+      <c r="G18" s="2">
+        <v>16800</v>
       </c>
       <c r="H18" s="2">
-        <v>20900</v>
+        <v>26080</v>
       </c>
       <c r="I18" s="6">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="J18" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="K18" s="7">
-        <v>260</v>
+        <v>0.745</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2">
+        <v>250</v>
       </c>
       <c r="L18" s="4">
         <f>G18/224.809</f>
-        <v>54.935523044006246</v>
+        <v>74.730104221806073</v>
       </c>
       <c r="M18" s="4">
         <f>H18/224.809</f>
-        <v>92.967808228318262</v>
+        <v>116.00959036337514</v>
       </c>
       <c r="N18" s="4">
         <f>I18*28.325</f>
-        <v>18.892775</v>
+        <v>21.102125000000001</v>
       </c>
       <c r="O18" s="4">
         <f>J18*28.325</f>
-        <v>70.8125</v>
+        <v>56.65</v>
       </c>
       <c r="P18" s="5">
         <f>L18*N18/1000</f>
-        <v>1.0378844763777251</v>
+        <v>1.5769640005515797</v>
       </c>
       <c r="Q18" s="5">
         <f>M18*O18/1000</f>
-        <v>6.5832829201677869</v>
+        <v>6.5719432940852007</v>
       </c>
       <c r="R18" s="5">
         <f>K18/2.205</f>
-        <v>117.91383219954648</v>
+        <v>113.37868480725623</v>
       </c>
       <c r="S18" s="5">
         <f>(C18*L18*1000/9.81)/D18</f>
-        <v>0.56456813999724209</v>
+        <v>0.76799552647398128</v>
       </c>
       <c r="T18" s="5">
         <f>(C18*L18*1000/9.81)/F18</f>
-        <v>0.40478162424609809</v>
+        <v>0.55063411233477322</v>
       </c>
       <c r="U18" s="5">
         <f>(C18*M18*1000/9.81)/D18</f>
-        <v>0.95542300614917886</v>
+        <v>1.1922216268119898</v>
       </c>
       <c r="V18" s="5">
         <f>(C18*M18*1000/9.81)/F18</f>
-        <v>0.68501505641647376</v>
+        <v>0.85479390771969554</v>
       </c>
       <c r="W18" s="5">
         <f>E18/(P18*C18)</f>
-        <v>3540.8565053655643</v>
+        <v>2330.4273266317959</v>
       </c>
       <c r="X18" s="5">
         <f>E18/(Q18*C18)</f>
-        <v>558.23212287317824</v>
+        <v>559.19533014040587</v>
       </c>
       <c r="Y18" s="5">
-        <f t="shared" ref="Y18:Y19" si="11">W18*0.33</f>
-        <v>1168.4826467706364</v>
+        <f t="shared" si="11"/>
+        <v>769.0410177884927</v>
       </c>
       <c r="Z18" s="5">
         <f>Q18/P18</f>
-        <v>6.3429823549763578</v>
+        <v>4.1674656439757101</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
         <v>2</v>
       </c>
-      <c r="D19" s="2">
-        <v>19838</v>
-      </c>
-      <c r="E19" s="2">
-        <v>7350</v>
-      </c>
-      <c r="F19" s="2">
-        <v>27669</v>
-      </c>
-      <c r="G19" s="2">
-        <v>16800</v>
-      </c>
-      <c r="H19" s="2">
-        <v>26080</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0.745</v>
-      </c>
-      <c r="J19" s="3">
-        <v>2</v>
-      </c>
-      <c r="K19" s="2">
-        <v>250</v>
-      </c>
-      <c r="L19" s="4">
-        <f>G19/224.809</f>
-        <v>74.730104221806073</v>
-      </c>
-      <c r="M19" s="4">
-        <f>H19/224.809</f>
-        <v>116.00959036337514</v>
-      </c>
-      <c r="N19" s="4">
-        <f>I19*28.325</f>
-        <v>21.102125000000001</v>
-      </c>
-      <c r="O19" s="4">
-        <f>J19*28.325</f>
-        <v>56.65</v>
-      </c>
-      <c r="P19" s="5">
-        <f>L19*N19/1000</f>
-        <v>1.5769640005515797</v>
-      </c>
-      <c r="Q19" s="5">
-        <f>M19*O19/1000</f>
-        <v>6.5719432940852007</v>
-      </c>
-      <c r="R19" s="5">
-        <f>K19/2.205</f>
-        <v>113.37868480725623</v>
-      </c>
-      <c r="S19" s="5">
-        <f>(C19*L19*1000/9.81)/D19</f>
-        <v>0.76799552647398128</v>
-      </c>
-      <c r="T19" s="5">
-        <f>(C19*L19*1000/9.81)/F19</f>
-        <v>0.55063411233477322</v>
-      </c>
-      <c r="U19" s="5">
-        <f>(C19*M19*1000/9.81)/D19</f>
-        <v>1.1922216268119898</v>
-      </c>
-      <c r="V19" s="5">
-        <f>(C19*M19*1000/9.81)/F19</f>
-        <v>0.85479390771969554</v>
-      </c>
-      <c r="W19" s="5">
-        <f>E19/(P19*C19)</f>
-        <v>2330.4273266317959</v>
-      </c>
-      <c r="X19" s="5">
-        <f>E19/(Q19*C19)</f>
-        <v>559.19533014040587</v>
-      </c>
-      <c r="Y19" s="5">
-        <f t="shared" si="11"/>
-        <v>769.0410177884927</v>
-      </c>
-      <c r="Z19" s="5">
-        <f>Q19/P19</f>
-        <v>4.1674656439757101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="I20" s="3"/>
+      <c r="D20" s="2">
+        <v>11321</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4990</v>
+      </c>
+      <c r="F20" s="2">
+        <v>13782</v>
+      </c>
+      <c r="G20" s="2">
+        <v>9065</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.37</v>
+      </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="4"/>
+      <c r="K20" s="2">
+        <v>333</v>
+      </c>
+      <c r="L20" s="4">
+        <f>G20/224.809</f>
+        <v>40.323118736349521</v>
+      </c>
+      <c r="N20" s="4">
+        <f>I20*28.325</f>
+        <v>10.48025</v>
+      </c>
       <c r="O20" s="4"/>
+      <c r="P20" s="5">
+        <f>L20*N20/1000</f>
+        <v>0.42259636513662707</v>
+      </c>
       <c r="Q20" s="5"/>
+      <c r="R20" s="5">
+        <f>K20/2.205</f>
+        <v>151.0204081632653</v>
+      </c>
+      <c r="S20" s="5">
+        <f>(C20*L20*1000/9.81)/D20</f>
+        <v>0.7261566393640555</v>
+      </c>
+      <c r="T20" s="5">
+        <f>(C20*L20*1000/9.81)/F20</f>
+        <v>0.59648957438981809</v>
+      </c>
+      <c r="W20" s="5">
+        <f>E20/(P20*C20)</f>
+        <v>5903.9788456139622</v>
+      </c>
+      <c r="Y20" s="5">
+        <f t="shared" ref="Y20" si="12">W20*0.33</f>
+        <v>1948.3130190526076</v>
+      </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2">
-        <v>11321</v>
-      </c>
-      <c r="E21" s="2">
-        <v>4990</v>
-      </c>
-      <c r="F21" s="2">
-        <v>13782</v>
-      </c>
-      <c r="G21" s="2">
-        <v>9065</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0.37</v>
-      </c>
+      <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="2">
-        <v>333</v>
-      </c>
-      <c r="L21" s="4">
-        <f>G21/224.809</f>
-        <v>40.323118736349521</v>
-      </c>
-      <c r="N21" s="4">
-        <f>I21*28.325</f>
-        <v>10.48025</v>
-      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="4"/>
       <c r="O21" s="4"/>
-      <c r="P21" s="5">
-        <f>L21*N21/1000</f>
-        <v>0.42259636513662707</v>
-      </c>
       <c r="Q21" s="5"/>
-      <c r="R21" s="5">
-        <f>K21/2.205</f>
-        <v>151.0204081632653</v>
-      </c>
-      <c r="S21" s="5">
-        <f>(C21*L21*1000/9.81)/D21</f>
-        <v>0.7261566393640555</v>
-      </c>
-      <c r="T21" s="5">
-        <f>(C21*L21*1000/9.81)/F21</f>
-        <v>0.59648957438981809</v>
-      </c>
-      <c r="W21" s="5">
-        <f>E21/(P21*C21)</f>
-        <v>5903.9788456139622</v>
-      </c>
-      <c r="Y21" s="5">
-        <f t="shared" ref="Y21" si="12">W21*0.33</f>
-        <v>1948.3130190526076</v>
-      </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="I22" s="3"/>
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="8">
+        <v>6340</v>
+      </c>
+      <c r="E22" s="8">
+        <v>3400</v>
+      </c>
+      <c r="F22" s="8">
+        <v>10410</v>
+      </c>
+      <c r="G22" s="2">
+        <v>21450</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.74</v>
+      </c>
       <c r="J22" s="3"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="4"/>
+      <c r="K22" s="7">
+        <v>459</v>
+      </c>
+      <c r="L22" s="4">
+        <f>G22/224.809</f>
+        <v>95.41432949748453</v>
+      </c>
+      <c r="N22" s="4">
+        <f>I22*28.325</f>
+        <v>20.9605</v>
+      </c>
       <c r="O22" s="4"/>
+      <c r="P22" s="5">
+        <f>L22*N22/1000</f>
+        <v>1.9999320534320246</v>
+      </c>
       <c r="Q22" s="5"/>
+      <c r="R22" s="5">
+        <f>K22/2.205</f>
+        <v>208.16326530612244</v>
+      </c>
+      <c r="S22" s="5">
+        <f>(C22*L22*1000/9.81)/D22</f>
+        <v>1.5341058904273392</v>
+      </c>
+      <c r="T22" s="5">
+        <f>(C22*L22*1000/9.81)/F22</f>
+        <v>0.93431617149945534</v>
+      </c>
+      <c r="W22" s="5">
+        <f>E22/(P22*C22)</f>
+        <v>1700.0577565449585</v>
+      </c>
+      <c r="Y22" s="5">
+        <f t="shared" ref="Y22:Y24" si="13">W22*0.33</f>
+        <v>561.01905965983633</v>
+      </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -10060,27 +10026,27 @@
         <v>10410</v>
       </c>
       <c r="G23" s="2">
-        <v>21450</v>
+        <v>23800</v>
       </c>
       <c r="I23" s="3">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="J23" s="3"/>
-      <c r="K23" s="7">
+      <c r="K23" s="2">
         <v>459</v>
       </c>
       <c r="L23" s="4">
         <f>G23/224.809</f>
-        <v>95.41432949748453</v>
+        <v>105.8676476475586</v>
       </c>
       <c r="N23" s="4">
         <f>I23*28.325</f>
-        <v>20.9605</v>
+        <v>21.527000000000001</v>
       </c>
       <c r="O23" s="4"/>
       <c r="P23" s="5">
         <f>L23*N23/1000</f>
-        <v>1.9999320534320246</v>
+        <v>2.2790128509089942</v>
       </c>
       <c r="Q23" s="5"/>
       <c r="R23" s="5">
@@ -10089,27 +10055,27 @@
       </c>
       <c r="S23" s="5">
         <f>(C23*L23*1000/9.81)/D23</f>
-        <v>1.5341058904273392</v>
+        <v>1.7021780975370941</v>
       </c>
       <c r="T23" s="5">
         <f>(C23*L23*1000/9.81)/F23</f>
-        <v>0.93431617149945534</v>
+        <v>1.0366771506614003</v>
       </c>
       <c r="W23" s="5">
         <f>E23/(P23*C23)</f>
-        <v>1700.0577565449585</v>
+        <v>1491.873992129485</v>
       </c>
       <c r="Y23" s="5">
-        <f t="shared" ref="Y23:Y25" si="13">W23*0.33</f>
-        <v>561.01905965983633</v>
+        <f t="shared" si="13"/>
+        <v>492.31841740273006</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -10126,12 +10092,12 @@
       <c r="G24" s="2">
         <v>23800</v>
       </c>
-      <c r="I24" s="3">
-        <v>0.76</v>
+      <c r="I24" s="6">
+        <v>0.6</v>
       </c>
       <c r="J24" s="3"/>
-      <c r="K24" s="2">
-        <v>459</v>
+      <c r="K24" s="7">
+        <v>450</v>
       </c>
       <c r="L24" s="4">
         <f>G24/224.809</f>
@@ -10139,17 +10105,17 @@
       </c>
       <c r="N24" s="4">
         <f>I24*28.325</f>
-        <v>21.527000000000001</v>
+        <v>16.994999999999997</v>
       </c>
       <c r="O24" s="4"/>
       <c r="P24" s="5">
         <f>L24*N24/1000</f>
-        <v>2.2790128509089942</v>
+        <v>1.7992206717702581</v>
       </c>
       <c r="Q24" s="5"/>
       <c r="R24" s="5">
         <f>K24/2.205</f>
-        <v>208.16326530612244</v>
+        <v>204.08163265306121</v>
       </c>
       <c r="S24" s="5">
         <f>(C24*L24*1000/9.81)/D24</f>
@@ -10161,93 +10127,29 @@
       </c>
       <c r="W24" s="5">
         <f>E24/(P24*C24)</f>
-        <v>1491.873992129485</v>
+        <v>1889.7070566973482</v>
       </c>
       <c r="Y24" s="5">
         <f t="shared" si="13"/>
-        <v>492.31841740273006</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" s="8">
-        <v>6340</v>
-      </c>
-      <c r="E25" s="8">
-        <v>3400</v>
-      </c>
-      <c r="F25" s="8">
-        <v>10410</v>
-      </c>
-      <c r="G25" s="2">
-        <v>23800</v>
-      </c>
-      <c r="I25" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="7">
-        <v>450</v>
-      </c>
-      <c r="L25" s="4">
-        <f>G25/224.809</f>
-        <v>105.8676476475586</v>
-      </c>
-      <c r="N25" s="4">
-        <f>I25*28.325</f>
-        <v>16.994999999999997</v>
-      </c>
-      <c r="O25" s="4"/>
-      <c r="P25" s="5">
-        <f>L25*N25/1000</f>
-        <v>1.7992206717702581</v>
-      </c>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5">
-        <f>K25/2.205</f>
-        <v>204.08163265306121</v>
-      </c>
-      <c r="S25" s="5">
-        <f>(C25*L25*1000/9.81)/D25</f>
-        <v>1.7021780975370941</v>
-      </c>
-      <c r="T25" s="5">
-        <f>(C25*L25*1000/9.81)/F25</f>
-        <v>1.0366771506614003</v>
-      </c>
-      <c r="W25" s="5">
-        <f>E25/(P25*C25)</f>
-        <v>1889.7070566973482</v>
-      </c>
-      <c r="Y25" s="5">
-        <f t="shared" si="13"/>
         <v>623.60332871012497</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -10347,7 +10249,7 @@
         <v>75</v>
       </c>
       <c r="D2" s="1">
-        <f>IRL!$T$21</f>
+        <f>IRL!$T$20</f>
         <v>0.59648957438981809</v>
       </c>
       <c r="F2" t="s">
@@ -10361,7 +10263,7 @@
         <v>75</v>
       </c>
       <c r="I2">
-        <f>IRL!$T$23</f>
+        <f>IRL!$T$22</f>
         <v>0.93431617149945534</v>
       </c>
       <c r="K2" t="s">
@@ -10375,7 +10277,7 @@
         <v>75</v>
       </c>
       <c r="N2">
-        <f>IRL!$T$24</f>
+        <f>IRL!$T$23</f>
         <v>1.0366771506614003</v>
       </c>
       <c r="P2" t="s">
@@ -10389,7 +10291,7 @@
         <v>75</v>
       </c>
       <c r="S2">
-        <f>IRL!$T$25</f>
+        <f>IRL!$T$24</f>
         <v>1.0366771506614003</v>
       </c>
     </row>
@@ -10445,60 +10347,60 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f>IRL!$L$21*1000</f>
+        <f>IRL!$L$20*1000</f>
         <v>40323.118736349519</v>
       </c>
       <c r="B4">
-        <f>IRL!$R$21</f>
+        <f>IRL!$R$20</f>
         <v>151.0204081632653</v>
       </c>
       <c r="C4">
-        <f>IRL!$P$21</f>
+        <f>IRL!$P$20</f>
         <v>0.42259636513662707</v>
       </c>
       <c r="D4">
         <v>1000</v>
       </c>
       <c r="F4">
+        <f>IRL!$L$22*1000</f>
+        <v>95414.329497484534</v>
+      </c>
+      <c r="G4">
+        <f>IRL!$R$22</f>
+        <v>208.16326530612244</v>
+      </c>
+      <c r="H4">
+        <f>IRL!$P$22</f>
+        <v>1.9999320534320246</v>
+      </c>
+      <c r="I4">
+        <v>1500</v>
+      </c>
+      <c r="K4">
         <f>IRL!$L$23*1000</f>
-        <v>95414.329497484534</v>
-      </c>
-      <c r="G4">
+        <v>105867.6476475586</v>
+      </c>
+      <c r="L4">
         <f>IRL!$R$23</f>
         <v>208.16326530612244</v>
       </c>
-      <c r="H4">
+      <c r="M4">
         <f>IRL!$P$23</f>
-        <v>1.9999320534320246</v>
-      </c>
-      <c r="I4">
+        <v>2.2790128509089942</v>
+      </c>
+      <c r="N4">
         <v>1500</v>
       </c>
-      <c r="K4">
+      <c r="P4">
         <f>IRL!$L$24*1000</f>
         <v>105867.6476475586</v>
       </c>
-      <c r="L4">
+      <c r="Q4">
         <f>IRL!$R$24</f>
-        <v>208.16326530612244</v>
-      </c>
-      <c r="M4">
+        <v>204.08163265306121</v>
+      </c>
+      <c r="R4">
         <f>IRL!$P$24</f>
-        <v>2.2790128509089942</v>
-      </c>
-      <c r="N4">
-        <v>1500</v>
-      </c>
-      <c r="P4">
-        <f>IRL!$L$25*1000</f>
-        <v>105867.6476475586</v>
-      </c>
-      <c r="Q4">
-        <f>IRL!$R$25</f>
-        <v>204.08163265306121</v>
-      </c>
-      <c r="R4">
-        <f>IRL!$P$25</f>
         <v>1.7992206717702581</v>
       </c>
       <c r="S4">
@@ -11999,7 +11901,7 @@
         <v>150</v>
       </c>
       <c r="D32">
-        <f>IRL!$V$13</f>
+        <f>IRL!$V$12</f>
         <v>1.0706378260240621</v>
       </c>
       <c r="F32" t="s">
@@ -12013,7 +11915,7 @@
         <v>150</v>
       </c>
       <c r="I32">
-        <f>IRL!$V$14</f>
+        <f>IRL!$V$13</f>
         <v>0.9396010660128562</v>
       </c>
       <c r="K32" t="s">
@@ -12027,7 +11929,7 @@
         <v>150</v>
       </c>
       <c r="N32">
-        <f>IRL!$V$15</f>
+        <f>IRL!$V$14</f>
         <v>1.1040213952312201</v>
       </c>
       <c r="P32" t="s">
@@ -12041,7 +11943,7 @@
         <v>150</v>
       </c>
       <c r="S32">
-        <f>IRL!$V$16</f>
+        <f>IRL!$V$15</f>
         <v>1.1473936643295894</v>
       </c>
     </row>
@@ -12097,60 +11999,60 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34">
+        <f>IRL!$L$12*1000</f>
+        <v>65255.394579398511</v>
+      </c>
+      <c r="B34">
+        <f>IRL!$R$12</f>
+        <v>103.40136054421768</v>
+      </c>
+      <c r="C34">
+        <f>IRL!$P$12</f>
+        <v>1.358543902824175</v>
+      </c>
+      <c r="D34">
+        <v>3000</v>
+      </c>
+      <c r="F34">
         <f>IRL!$L$13*1000</f>
         <v>65255.394579398511</v>
       </c>
-      <c r="B34">
+      <c r="G34">
         <f>IRL!$R$13</f>
         <v>103.40136054421768</v>
       </c>
-      <c r="C34">
+      <c r="H34">
         <f>IRL!$P$13</f>
         <v>1.358543902824175</v>
       </c>
-      <c r="D34">
-        <v>3000</v>
-      </c>
-      <c r="F34">
-        <f>IRL!$L$14*1000</f>
-        <v>65255.394579398511</v>
-      </c>
-      <c r="G34">
-        <f>IRL!$R$14</f>
-        <v>103.40136054421768</v>
-      </c>
-      <c r="H34">
-        <f>IRL!$P$14</f>
-        <v>1.358543902824175</v>
-      </c>
       <c r="I34">
         <v>3000</v>
       </c>
       <c r="K34">
-        <f>IRL!$L$15*1000</f>
+        <f>IRL!$L$14*1000</f>
         <v>75619.748319684717</v>
       </c>
       <c r="L34">
-        <f>IRL!$R$15</f>
+        <f>IRL!$R$14</f>
         <v>122.44897959183673</v>
       </c>
       <c r="M34">
-        <f>IRL!$P$15</f>
+        <f>IRL!$P$14</f>
         <v>1.5957373815105271</v>
       </c>
       <c r="N34">
         <v>3000</v>
       </c>
       <c r="P34">
-        <f>IRL!$L$16*1000</f>
+        <f>IRL!$L$15*1000</f>
         <v>79178.324711199282</v>
       </c>
       <c r="Q34">
-        <f>IRL!$R$16</f>
+        <f>IRL!$R$15</f>
         <v>115.19274376417233</v>
       </c>
       <c r="R34">
-        <f>IRL!$P$16</f>
+        <f>IRL!$P$15</f>
         <v>1.6282191104448664</v>
       </c>
       <c r="S34">
@@ -13651,7 +13553,7 @@
         <v>150</v>
       </c>
       <c r="D62">
-        <f>IRL!$V$8</f>
+        <f>IRL!$V$7</f>
         <v>1.0562600703127314</v>
       </c>
       <c r="F62" t="s">
@@ -13665,7 +13567,7 @@
         <v>150</v>
       </c>
       <c r="I62">
-        <f>IRL!$V$9</f>
+        <f>IRL!$V$8</f>
         <v>1.093983644252472</v>
       </c>
       <c r="K62" t="s">
@@ -13679,7 +13581,7 @@
         <v>150</v>
       </c>
       <c r="N62">
-        <f>IRL!$V$10</f>
+        <f>IRL!$V$9</f>
         <v>0.89895276698401383</v>
       </c>
       <c r="P62" t="s">
@@ -13693,7 +13595,7 @@
         <v>150</v>
       </c>
       <c r="S62">
-        <f>IRL!$V$11</f>
+        <f>IRL!$V$10</f>
         <v>1.0977560016464458</v>
       </c>
     </row>
@@ -13749,60 +13651,60 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64">
-        <f>IRL!$L$8*1000</f>
+        <f>IRL!$L$7*1000</f>
         <v>73840.460123927434</v>
       </c>
       <c r="B64">
-        <f>IRL!$R$8</f>
+        <f>IRL!$R$7</f>
         <v>119.72789115646258</v>
       </c>
       <c r="C64">
-        <f>IRL!$P$8</f>
+        <f>IRL!$P$7</f>
         <v>1.5581906195926323</v>
       </c>
       <c r="D64">
         <v>3000</v>
       </c>
       <c r="F64">
-        <f>IRL!$L$9*1000</f>
+        <f>IRL!$L$8*1000</f>
         <v>75619.748319684717</v>
       </c>
       <c r="G64">
-        <f>IRL!$R$9</f>
+        <f>IRL!$R$8</f>
         <v>122.44897959183673</v>
       </c>
       <c r="H64">
-        <f>IRL!$P$9</f>
+        <f>IRL!$P$8</f>
         <v>1.5957373815105271</v>
       </c>
       <c r="I64">
         <v>3000</v>
       </c>
       <c r="K64">
-        <f>IRL!$L$10*1000</f>
+        <f>IRL!$L$9*1000</f>
         <v>65255.394579398511</v>
       </c>
       <c r="L64">
-        <f>IRL!$R$10</f>
+        <f>IRL!$R$9</f>
         <v>103.40136054421768</v>
       </c>
       <c r="M64">
-        <f>IRL!$P$10</f>
+        <f>IRL!$P$9</f>
         <v>1.358543902824175</v>
       </c>
       <c r="N64">
         <v>3000</v>
       </c>
       <c r="P64">
-        <f>IRL!$L$11*1000</f>
+        <f>IRL!$L$10*1000</f>
         <v>79178.324711199282</v>
       </c>
       <c r="Q64">
-        <f>IRL!$R$11</f>
+        <f>IRL!$R$10</f>
         <v>115.19274376417233</v>
       </c>
       <c r="R64">
-        <f>IRL!$P$11</f>
+        <f>IRL!$P$10</f>
         <v>1.6282191104448664</v>
       </c>
       <c r="S64">
@@ -15291,7 +15193,7 @@
         <v>150</v>
       </c>
       <c r="D92">
-        <f>IRL!$V$18</f>
+        <f>IRL!$V$17</f>
         <v>0.68501505641647376</v>
       </c>
       <c r="F92" t="s">
@@ -15305,7 +15207,7 @@
         <v>150</v>
       </c>
       <c r="I92">
-        <f>IRL!$V$19</f>
+        <f>IRL!$V$18</f>
         <v>0.85479390771969554</v>
       </c>
       <c r="K92" t="s">
@@ -15363,30 +15265,30 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94">
-        <f>IRL!$L$18*1000</f>
+        <f>IRL!$L$17*1000</f>
         <v>54935.523044006244</v>
       </c>
       <c r="B94">
-        <f>IRL!$R$18</f>
+        <f>IRL!$R$17</f>
         <v>117.91383219954648</v>
       </c>
       <c r="C94">
-        <f>IRL!$P$18</f>
+        <f>IRL!$P$17</f>
         <v>1.0378844763777251</v>
       </c>
       <c r="D94">
         <v>3000</v>
       </c>
       <c r="F94">
-        <f>IRL!$L$19*1000</f>
+        <f>IRL!$L$18*1000</f>
         <v>74730.104221806076</v>
       </c>
       <c r="G94">
-        <f>IRL!$R$19</f>
+        <f>IRL!$R$18</f>
         <v>113.37868480725623</v>
       </c>
       <c r="H94">
-        <f>IRL!$P$19</f>
+        <f>IRL!$P$18</f>
         <v>1.5769640005515797</v>
       </c>
       <c r="I94">

--- a/REB Engine Profile.xlsx
+++ b/REB Engine Profile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgkid\Documents\GitHub\REBalanced\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E0BC42-47AC-402E-A963-2B51E738B6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030289AE-AEBF-4655-A019-4074F46B2603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48F6B32E-432E-46EB-935F-18F86645025F}"/>
   </bookViews>
@@ -8458,7 +8458,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/REB Engine Profile.xlsx
+++ b/REB Engine Profile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgkid\Documents\GitHub\REBalanced\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030289AE-AEBF-4655-A019-4074F46B2603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7116093D-ECB3-4FF6-9233-14B2A411DC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48F6B32E-432E-46EB-935F-18F86645025F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{48F6B32E-432E-46EB-935F-18F86645025F}"/>
   </bookViews>
   <sheets>
     <sheet name="IRL" sheetId="4" r:id="rId1"/>
@@ -433,12 +433,98 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -450,7 +536,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -469,23 +555,113 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8472,7 +8648,7 @@
     <col min="8" max="8" width="13.75" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="16.75" style="4" customWidth="1"/>
     <col min="11" max="11" width="9.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="16.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.75" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.375" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.75" style="4" customWidth="1"/>
     <col min="15" max="15" width="16.75" style="5" customWidth="1"/>
@@ -8490,1649 +8666,1773 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11" t="s">
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="34"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="41" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="9">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="10">
         <v>10660</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="10">
         <v>4930</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="11">
         <v>16769</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="18">
         <v>10600</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="10">
         <v>16000</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="19">
         <v>0.85299999999999998</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="19">
         <v>1.85</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="11">
         <v>142</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="20">
         <f t="shared" ref="L3:M5" si="0">G3/224.809</f>
         <v>47.151137187568111</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="20">
         <f t="shared" si="0"/>
         <v>71.171527830291495</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="20">
         <f t="shared" ref="N3:O5" si="1">I3*28.325</f>
         <v>24.161224999999998</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="20">
         <f t="shared" si="1"/>
         <v>52.401250000000005</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="21">
         <f t="shared" ref="P3:Q5" si="2">L3*N3/1000</f>
         <v>1.1392292345947004</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="21">
         <f t="shared" si="2"/>
         <v>3.7294770227170626</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="22">
         <f>K3/2.205</f>
         <v>64.399092970521536</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="35">
         <f>(C3*L3*1000/9.81)/D3</f>
         <v>0.90177035700003838</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="21">
         <f>(C3*L3*1000/9.81)/F3</f>
         <v>0.57325254968217598</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="21">
         <f>(C3*M3*1000/9.81)/D3</f>
         <v>1.361162803018926</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3" s="21">
         <f>(C3*M3*1000/9.81)/F3</f>
         <v>0.86528686744479399</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="21">
         <f>E3/(P3*C3)</f>
         <v>2163.743630470442</v>
       </c>
-      <c r="X3" s="5">
+      <c r="X3" s="21">
         <f>E3/(Q3*C3)</f>
         <v>660.95057966174465</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="Y3" s="21">
         <f>W3*0.33</f>
         <v>714.03539805524588</v>
       </c>
-      <c r="Z3" s="5">
+      <c r="Z3" s="22">
         <f>Q3/P3</f>
         <v>3.2736844433630479</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="9">
         <v>2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="10">
         <v>10433</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="10">
         <v>4930</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="11">
         <v>16769</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="18">
         <v>11950</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="10">
         <v>17700</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="23">
         <v>0.85299999999999998</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="19">
         <v>1.74</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="11">
         <v>146</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="20">
         <f t="shared" si="0"/>
         <v>53.156234848248957</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="20">
         <f t="shared" si="0"/>
         <v>78.733502662259966</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="20">
         <f t="shared" si="1"/>
         <v>24.161224999999998</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="20">
         <f t="shared" si="1"/>
         <v>49.285499999999999</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="21">
         <f t="shared" si="2"/>
         <v>1.2843197503213837</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="21">
         <f t="shared" si="2"/>
         <v>3.8804200454608133</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="22">
         <f>K4/2.205</f>
         <v>66.213151927437636</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="35">
         <f>(C4*L4*1000/9.81)/D4</f>
         <v>1.038737934847191</v>
       </c>
-      <c r="T4" s="5">
+      <c r="T4" s="21">
         <f>(C4*L4*1000/9.81)/F4</f>
         <v>0.64626112912283051</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="21">
         <f>(C4*M4*1000/9.81)/D4</f>
         <v>1.5385490750456305</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="21">
         <f>(C4*M4*1000/9.81)/F4</f>
         <v>0.9572235971108034</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="21">
         <f>E4/(P4*C4)</f>
         <v>1919.3039734716897</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4" s="21">
         <f>E4/(Q4*C4)</f>
         <v>635.24050775984301</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Y4" s="21">
         <f t="shared" ref="Y4:Y5" si="3">W4*0.33</f>
         <v>633.3703112456576</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="Z4" s="22">
         <f>Q4/P4</f>
         <v>3.0213815870150644</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="9">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="10">
         <v>14552</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="10">
         <v>6667</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="11">
         <v>23000</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="18">
         <v>12500</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="10">
         <v>22000</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="23">
         <v>0.72399999999999998</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="23">
         <v>1.8</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="11">
         <v>169</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="20">
         <f t="shared" si="0"/>
         <v>55.602756117415225</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="20">
         <f t="shared" si="0"/>
         <v>97.860850766650799</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="20">
         <f t="shared" si="1"/>
         <v>20.507299999999997</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="20">
         <f t="shared" si="1"/>
         <v>50.984999999999999</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="21">
         <f t="shared" si="2"/>
         <v>1.1402624005266691</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="21">
         <f t="shared" si="2"/>
         <v>4.9894354763376905</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="22">
         <f>K5/2.205</f>
         <v>76.643990929705211</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="35">
         <f>(C5*L5*1000/9.81)/D5</f>
         <v>0.77899491265063181</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="21">
         <f>(C5*L5*1000/9.81)/F5</f>
         <v>0.49286669429965191</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="21">
         <f>(C5*M5*1000/9.81)/D5</f>
         <v>1.3710310462651119</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="21">
         <f>(C5*M5*1000/9.81)/F5</f>
         <v>0.86744538196738719</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="21">
         <f>E5/(P5*C5)</f>
         <v>2923.4498993041507</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5" s="21">
         <f>E5/(Q5*C5)</f>
         <v>668.1116562803677</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Y5" s="21">
         <f t="shared" si="3"/>
         <v>964.73846677036977</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="Z5" s="22">
         <f>Q5/P5</f>
         <v>4.375690607734807</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="I6" s="2"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="Q6" s="5"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="22"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="9">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="10">
         <v>8573</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="10">
         <v>3200</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="11">
         <v>12020</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="18">
         <v>16600</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="10">
         <v>28000</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="19">
         <v>0.745</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="19">
         <v>1.9710000000000001</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="11">
         <v>264</v>
       </c>
-      <c r="L7" s="4">
-        <f t="shared" ref="L6:M10" si="4">G7/224.809</f>
+      <c r="L7" s="20">
+        <f t="shared" ref="L7:M10" si="4">G7/224.809</f>
         <v>73.840460123927429</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="20">
         <f t="shared" si="4"/>
         <v>124.55017370301012</v>
       </c>
-      <c r="N7" s="4">
-        <f t="shared" ref="N6:O10" si="5">I7*28.325</f>
+      <c r="N7" s="20">
+        <f t="shared" ref="N7:O10" si="5">I7*28.325</f>
         <v>21.102125000000001</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="20">
         <f t="shared" si="5"/>
         <v>55.828575000000001</v>
       </c>
-      <c r="P7" s="5">
-        <f t="shared" ref="P6:Q10" si="6">L7*N7/1000</f>
+      <c r="P7" s="21">
+        <f t="shared" ref="P7:Q10" si="6">L7*N7/1000</f>
         <v>1.5581906195926323</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="21">
         <f t="shared" si="6"/>
         <v>6.9534587138415285</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="22">
         <f>K7/2.205</f>
         <v>119.72789115646258</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="35">
         <f>(C7*L7*1000/9.81)/D7</f>
         <v>0.87799605218060006</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="21">
         <f>(C7*L7*1000/9.81)/F7</f>
         <v>0.62621132739969088</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="21">
         <f>(C7*M7*1000/9.81)/D7</f>
         <v>1.4809571964492048</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="21">
         <f>(C7*M7*1000/9.81)/F7</f>
         <v>1.0562600703127314</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="21">
         <f>E7/(P7*C7)</f>
         <v>2053.6640124534933</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" s="21">
         <f>E7/(Q7*C7)</f>
         <v>460.20263176799943</v>
       </c>
-      <c r="Y7" s="5">
-        <f t="shared" ref="Y6:Y7" si="7">W7*0.33</f>
+      <c r="Y7" s="21">
+        <f t="shared" ref="Y7" si="7">W7*0.33</f>
         <v>677.70912410965286</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="Z7" s="22">
         <f>Q7/P7</f>
         <v>4.462521225842969</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="9">
         <v>1</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="10">
         <v>8573</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="10">
         <v>3200</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="11">
         <v>12020</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="18">
         <v>17000</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="10">
         <v>29000</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="23">
         <v>0.745</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="19">
         <v>1.9</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="11">
         <v>270</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="20">
         <f t="shared" si="4"/>
         <v>75.619748319684717</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="20">
         <f t="shared" si="4"/>
         <v>128.99839419240334</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="20">
         <f t="shared" si="5"/>
         <v>21.102125000000001</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="20">
         <f t="shared" si="5"/>
         <v>53.817499999999995</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="21">
         <f t="shared" si="6"/>
         <v>1.5957373815105271</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="21">
         <f t="shared" si="6"/>
         <v>6.942371079449666</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="22">
         <f>K8/2.205</f>
         <v>122.44897959183673</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="35">
         <f>(C8*L8*1000/9.81)/D8</f>
         <v>0.89915258355844574</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="21">
         <f>(C8*L8*1000/9.81)/F8</f>
         <v>0.64130075697558697</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="21">
         <f>(C8*M8*1000/9.81)/D8</f>
         <v>1.5338485248938192</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8" s="21">
         <f>(C8*M8*1000/9.81)/F8</f>
         <v>1.093983644252472</v>
       </c>
-      <c r="W8" s="5">
+      <c r="W8" s="21">
         <f>E8/(P8*C8)</f>
         <v>2005.3425062781168</v>
       </c>
-      <c r="X8" s="5">
+      <c r="X8" s="21">
         <f>E8/(Q8*C8)</f>
         <v>460.93761963724785</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="Y8" s="21">
         <f>W8*0.33</f>
         <v>661.76302707177854</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="Z8" s="22">
         <f>Q8/P8</f>
         <v>4.3505724437425961</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="9">
         <v>1</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="10">
         <v>8573</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="10">
         <v>3200</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="11">
         <v>12020</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="18">
         <v>14670</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="10">
         <v>23830</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="23">
         <v>0.73499999999999999</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="19">
         <v>2.1</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="11">
         <v>228</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="20">
         <f t="shared" si="4"/>
         <v>65.255394579398512</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="20">
         <f t="shared" si="4"/>
         <v>106.00109426224039</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="20">
         <f t="shared" si="5"/>
         <v>20.818874999999998</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="20">
         <f t="shared" si="5"/>
         <v>59.482500000000002</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="21">
         <f t="shared" si="6"/>
         <v>1.358543902824175</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="21">
         <f t="shared" si="6"/>
         <v>6.3052100894537144</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="22">
         <f>K9/2.205</f>
         <v>103.40136054421768</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="35">
         <f>(C9*L9*1000/9.81)/D9</f>
         <v>0.77591578828249408</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="21">
         <f>(C9*L9*1000/9.81)/F9</f>
         <v>0.55340482969599181</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="21">
         <f>(C9*M9*1000/9.81)/D9</f>
         <v>1.2604003568351623</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="21">
         <f>(C9*M9*1000/9.81)/F9</f>
         <v>0.89895276698401383</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9" s="21">
         <f>E9/(P9*C9)</f>
         <v>2355.4630758327057</v>
       </c>
-      <c r="X9" s="5">
+      <c r="X9" s="21">
         <f>E9/(Q9*C9)</f>
         <v>507.51679239878416</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Y9" s="21">
         <f>W9*0.33</f>
         <v>777.30281502479295</v>
       </c>
-      <c r="Z9" s="5">
+      <c r="Z9" s="22">
         <f>Q9/P9</f>
         <v>4.641152984711268</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="10">
         <v>8573</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="10">
         <v>3200</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="11">
         <v>12020</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="18">
         <v>17800</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="10">
         <v>29100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="19">
         <v>0.72599999999999998</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="19">
         <v>2.06</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="11">
         <v>254</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="20">
         <f t="shared" si="4"/>
         <v>79.178324711199281</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="20">
         <f t="shared" si="4"/>
         <v>129.44321624134264</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="20">
         <f t="shared" si="5"/>
         <v>20.563949999999998</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="20">
         <f t="shared" si="5"/>
         <v>58.349499999999999</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="21">
         <f t="shared" si="6"/>
         <v>1.6282191104448664</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="21">
         <f t="shared" si="6"/>
         <v>7.552946946074222</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="22">
         <f>K10/2.205</f>
         <v>115.19274376417233</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="35">
         <f>(C10*L10*1000/9.81)/D10</f>
         <v>0.94146564631413721</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="21">
         <f>(C10*L10*1000/9.81)/F10</f>
         <v>0.67147961612737928</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="21">
         <f>(C10*M10*1000/9.81)/D10</f>
         <v>1.5391376577382805</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10" s="21">
         <f>(C10*M10*1000/9.81)/F10</f>
         <v>1.0977560016464458</v>
       </c>
-      <c r="W10" s="5">
+      <c r="W10" s="21">
         <f>E10/(P10*C10)</f>
         <v>1965.3374533392421</v>
       </c>
-      <c r="X10" s="5">
+      <c r="X10" s="21">
         <f>E10/(Q10*C10)</f>
         <v>423.6756888201441</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Y10" s="21">
         <f>W10*0.33</f>
         <v>648.5613596019499</v>
       </c>
-      <c r="Z10" s="5">
+      <c r="Z10" s="22">
         <f>Q10/P10</f>
         <v>4.638777973813724</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="Q11" s="5"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="22"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="9">
         <v>2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="10">
         <v>12701</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="10">
         <v>6103</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="11">
         <v>20185</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="18">
         <v>14670</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="10">
         <v>23830</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="23">
         <v>0.73499999999999999</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="19">
         <v>2.1</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="11">
         <v>228</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="20">
         <f t="shared" ref="L12:M15" si="8">G12/224.809</f>
         <v>65.255394579398512</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="20">
         <f t="shared" si="8"/>
         <v>106.00109426224039</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="20">
         <f t="shared" ref="N12:O15" si="9">I12*28.325</f>
         <v>20.818874999999998</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="20">
         <f t="shared" si="9"/>
         <v>59.482500000000002</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="21">
         <f t="shared" ref="P12:Q15" si="10">L12*N12/1000</f>
         <v>1.358543902824175</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="21">
         <f t="shared" si="10"/>
         <v>6.3052100894537144</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="22">
         <f>K12/2.205</f>
         <v>103.40136054421768</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="35">
         <f>(C12*L12*1000/9.81)/D12</f>
         <v>1.0474649323589988</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T12" s="21">
         <f>(C12*L12*1000/9.81)/F12</f>
         <v>0.65909596759433453</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12" s="21">
         <f>(C12*M12*1000/9.81)/D12</f>
         <v>1.701505749019423</v>
       </c>
-      <c r="V12" s="5">
+      <c r="V12" s="21">
         <f>(C12*M12*1000/9.81)/F12</f>
         <v>1.0706378260240621</v>
       </c>
-      <c r="W12" s="5">
+      <c r="W12" s="21">
         <f>E12/(P12*C12)</f>
         <v>2246.1548674698442</v>
       </c>
-      <c r="X12" s="5">
+      <c r="X12" s="21">
         <f>E12/(Q12*C12)</f>
         <v>483.96484125152807</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Y12" s="21">
         <f>W12*0.33</f>
         <v>741.23110626504865</v>
       </c>
-      <c r="Z12" s="5">
+      <c r="Z12" s="22">
         <f>Q12/P12</f>
         <v>4.641152984711268</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="9">
         <v>2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="10">
         <v>14379</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="10">
         <v>10591</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="11">
         <v>23000</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="18">
         <v>14670</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="10">
         <v>23830</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="23">
         <v>0.73499999999999999</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="19">
         <v>2.1</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="11">
         <v>228</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="20">
         <f t="shared" si="8"/>
         <v>65.255394579398512</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="20">
         <f t="shared" si="8"/>
         <v>106.00109426224039</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="20">
         <f t="shared" si="9"/>
         <v>20.818874999999998</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="20">
         <f t="shared" si="9"/>
         <v>59.482500000000002</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="21">
         <f t="shared" si="10"/>
         <v>1.358543902824175</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="21">
         <f t="shared" si="10"/>
         <v>6.3052100894537144</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="22">
         <f>K13/2.205</f>
         <v>103.40136054421768</v>
       </c>
-      <c r="S13" s="5">
+      <c r="S13" s="35">
         <f>(C13*L13*1000/9.81)/D13</f>
         <v>0.92522790916556386</v>
       </c>
-      <c r="T13" s="5">
+      <c r="T13" s="21">
         <f>(C13*L13*1000/9.81)/F13</f>
         <v>0.5784283524300714</v>
       </c>
-      <c r="U13" s="5">
+      <c r="U13" s="21">
         <f>(C13*M13*1000/9.81)/D13</f>
         <v>1.5029434952566725</v>
       </c>
-      <c r="V13" s="5">
+      <c r="V13" s="21">
         <f>(C13*M13*1000/9.81)/F13</f>
         <v>0.9396010660128562</v>
       </c>
-      <c r="W13" s="5">
+      <c r="W13" s="21">
         <f>E13/(P13*C13)</f>
         <v>3897.9233493975294</v>
       </c>
-      <c r="X13" s="5">
+      <c r="X13" s="21">
         <f>E13/(Q13*C13)</f>
         <v>839.86099192117547</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="Y13" s="21">
         <f>W13*0.33</f>
         <v>1286.3147053011849</v>
       </c>
-      <c r="Z13" s="5">
+      <c r="Z13" s="22">
         <f>Q13/P13</f>
         <v>4.641152984711268</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="9">
         <v>2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="10">
         <v>14379</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="10">
         <v>10591</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="11">
         <v>23000</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="18">
         <v>17000</v>
       </c>
-      <c r="H14" s="2">
-        <v>28000</v>
-      </c>
-      <c r="I14" s="6">
+      <c r="H14" s="10">
+        <v>29000</v>
+      </c>
+      <c r="I14" s="23">
         <v>0.745</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="19">
         <v>1.9</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="11">
         <v>270</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="20">
         <f t="shared" si="8"/>
         <v>75.619748319684717</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="20">
         <f t="shared" si="8"/>
-        <v>124.55017370301012</v>
-      </c>
-      <c r="N14" s="4">
+        <v>128.99839419240334</v>
+      </c>
+      <c r="N14" s="20">
         <f t="shared" si="9"/>
         <v>21.102125000000001</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="20">
         <f t="shared" si="9"/>
         <v>53.817499999999995</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="21">
         <f t="shared" si="10"/>
         <v>1.5957373815105271</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="21">
         <f t="shared" si="10"/>
-        <v>6.7029789732617466</v>
-      </c>
-      <c r="R14" s="5">
+        <v>6.942371079449666</v>
+      </c>
+      <c r="R14" s="22">
         <f>K14/2.205</f>
         <v>122.44897959183673</v>
       </c>
-      <c r="S14" s="5">
+      <c r="S14" s="35">
         <f>(C14*L14*1000/9.81)/D14</f>
         <v>1.0721795811734551</v>
       </c>
-      <c r="T14" s="5">
+      <c r="T14" s="21">
         <f>(C14*L14*1000/9.81)/F14</f>
         <v>0.67029870424752658</v>
       </c>
-      <c r="U14" s="5">
+      <c r="U14" s="21">
         <f>(C14*M14*1000/9.81)/D14</f>
-        <v>1.7659428395798085</v>
-      </c>
-      <c r="V14" s="5">
+        <v>1.8290122267076587</v>
+      </c>
+      <c r="V14" s="21">
         <f>(C14*M14*1000/9.81)/F14</f>
-        <v>1.1040213952312201</v>
-      </c>
-      <c r="W14" s="5">
+        <v>1.1434507307751924</v>
+      </c>
+      <c r="W14" s="21">
         <f>E14/(P14*C14)</f>
         <v>3318.5285131236774</v>
       </c>
-      <c r="X14" s="5">
+      <c r="X14" s="21">
         <f>E14/(Q14*C14)</f>
-        <v>790.02187253216891</v>
-      </c>
-      <c r="Y14" s="5">
+        <v>762.77973899657684</v>
+      </c>
+      <c r="Y14" s="21">
         <f>W14*0.33</f>
         <v>1095.1144093308135</v>
       </c>
-      <c r="Z14" s="5">
+      <c r="Z14" s="22">
         <f>Q14/P14</f>
-        <v>4.2005527043031963</v>
+        <v>4.3505724437425961</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="9">
         <v>2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="10">
         <v>14379</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="10">
         <v>10591</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="11">
         <v>23000</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="18">
         <v>17800</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="10">
         <v>29100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="19">
         <v>0.72599999999999998</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="19">
         <v>2.06</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="11">
         <v>254</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="20">
         <f t="shared" si="8"/>
         <v>79.178324711199281</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="20">
         <f t="shared" si="8"/>
         <v>129.44321624134264</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="20">
         <f t="shared" si="9"/>
         <v>20.563949999999998</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="20">
         <f t="shared" si="9"/>
         <v>58.349499999999999</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="21">
         <f t="shared" si="10"/>
         <v>1.6282191104448664</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="21">
         <f t="shared" si="10"/>
         <v>7.552946946074222</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="22">
         <f>K15/2.205</f>
         <v>115.19274376417233</v>
       </c>
-      <c r="S15" s="5">
+      <c r="S15" s="35">
         <f>(C15*L15*1000/9.81)/D15</f>
         <v>1.1226350908757352</v>
       </c>
-      <c r="T15" s="5">
+      <c r="T15" s="21">
         <f>(C15*L15*1000/9.81)/F15</f>
         <v>0.70184217268270421</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U15" s="21">
         <f>(C15*M15*1000/9.81)/D15</f>
         <v>1.8353191654204435</v>
       </c>
-      <c r="V15" s="5">
+      <c r="V15" s="21">
         <f>(C15*M15*1000/9.81)/F15</f>
         <v>1.1473936643295894</v>
       </c>
-      <c r="W15" s="5">
+      <c r="W15" s="21">
         <f>E15/(P15*C15)</f>
         <v>3252.3264012993614</v>
       </c>
-      <c r="X15" s="5">
+      <c r="X15" s="21">
         <f>E15/(Q15*C15)</f>
         <v>701.11706567096041</v>
       </c>
-      <c r="Y15" s="5">
+      <c r="Y15" s="21">
         <f>W15*0.33</f>
         <v>1073.2677124287893</v>
       </c>
-      <c r="Z15" s="5">
+      <c r="Z15" s="22">
         <f>Q15/P15</f>
         <v>4.638777973813724</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="Q16" s="5"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="22"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="9">
         <v>2</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="10">
         <v>19838</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="10">
         <v>7350</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="11">
         <v>27669</v>
       </c>
-      <c r="G17" s="7">
-        <v>12350</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G17" s="24">
+        <v>13400</v>
+      </c>
+      <c r="H17" s="10">
         <v>20900</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="23">
         <v>0.66700000000000004</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="23">
         <v>2.5</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="37">
         <v>260</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="20">
         <f>G17/224.809</f>
-        <v>54.935523044006246</v>
-      </c>
-      <c r="M17" s="4">
+        <v>59.606154557869125</v>
+      </c>
+      <c r="M17" s="20">
         <f>H17/224.809</f>
         <v>92.967808228318262</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="20">
         <f>I17*28.325</f>
         <v>18.892775</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="20">
         <f>J17*28.325</f>
         <v>70.8125</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="21">
         <f>L17*N17/1000</f>
-        <v>1.0378844763777251</v>
-      </c>
-      <c r="Q17" s="5">
+        <v>1.1261256666770461</v>
+      </c>
+      <c r="Q17" s="21">
         <f>M17*O17/1000</f>
         <v>6.5832829201677869</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="22">
         <f>K17/2.205</f>
         <v>117.91383219954648</v>
       </c>
-      <c r="S17" s="5">
+      <c r="S17" s="35">
         <f>(C17*L17*1000/9.81)/D17</f>
-        <v>0.56456813999724209</v>
-      </c>
-      <c r="T17" s="5">
+        <v>0.61256786040186595</v>
+      </c>
+      <c r="T17" s="21">
         <f>(C17*L17*1000/9.81)/F17</f>
-        <v>0.40478162424609809</v>
-      </c>
-      <c r="U17" s="5">
+        <v>0.43919625626702141</v>
+      </c>
+      <c r="U17" s="21">
         <f>(C17*M17*1000/9.81)/D17</f>
         <v>0.95542300614917886</v>
       </c>
-      <c r="V17" s="5">
+      <c r="V17" s="21">
         <f>(C17*M17*1000/9.81)/F17</f>
         <v>0.68501505641647376</v>
       </c>
-      <c r="W17" s="5">
+      <c r="W17" s="21">
         <f>E17/(P17*C17)</f>
-        <v>3540.8565053655643</v>
-      </c>
-      <c r="X17" s="5">
+        <v>3263.4013314376648</v>
+      </c>
+      <c r="X17" s="21">
         <f>E17/(Q17*C17)</f>
         <v>558.23212287317824</v>
       </c>
-      <c r="Y17" s="5">
+      <c r="Y17" s="21">
         <f t="shared" ref="Y17:Y18" si="11">W17*0.33</f>
-        <v>1168.4826467706364</v>
-      </c>
-      <c r="Z17" s="5">
+        <v>1076.9224393744294</v>
+      </c>
+      <c r="Z17" s="22">
         <f>Q17/P17</f>
-        <v>6.3429823549763578</v>
+        <v>5.845957618205821</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="9">
         <v>2</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="10">
         <v>19838</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="10">
         <v>7350</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="11">
         <v>27669</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="18">
         <v>16800</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="10">
         <v>26080</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="23">
         <v>0.745</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="19">
         <v>2</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="11">
         <v>250</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="20">
         <f>G18/224.809</f>
         <v>74.730104221806073</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="20">
         <f>H18/224.809</f>
         <v>116.00959036337514</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="20">
         <f>I18*28.325</f>
         <v>21.102125000000001</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="20">
         <f>J18*28.325</f>
         <v>56.65</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" s="21">
         <f>L18*N18/1000</f>
         <v>1.5769640005515797</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="21">
         <f>M18*O18/1000</f>
         <v>6.5719432940852007</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="22">
         <f>K18/2.205</f>
         <v>113.37868480725623</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="35">
         <f>(C18*L18*1000/9.81)/D18</f>
         <v>0.76799552647398128</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18" s="21">
         <f>(C18*L18*1000/9.81)/F18</f>
         <v>0.55063411233477322</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" s="21">
         <f>(C18*M18*1000/9.81)/D18</f>
         <v>1.1922216268119898</v>
       </c>
-      <c r="V18" s="5">
+      <c r="V18" s="21">
         <f>(C18*M18*1000/9.81)/F18</f>
         <v>0.85479390771969554</v>
       </c>
-      <c r="W18" s="5">
+      <c r="W18" s="21">
         <f>E18/(P18*C18)</f>
         <v>2330.4273266317959</v>
       </c>
-      <c r="X18" s="5">
+      <c r="X18" s="21">
         <f>E18/(Q18*C18)</f>
         <v>559.19533014040587</v>
       </c>
-      <c r="Y18" s="5">
+      <c r="Y18" s="21">
         <f t="shared" si="11"/>
         <v>769.0410177884927</v>
       </c>
-      <c r="Z18" s="5">
+      <c r="Z18" s="22">
         <f>Q18/P18</f>
         <v>4.1674656439757101</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="Q19" s="5"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="22"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="9">
         <v>2</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="10">
         <v>11321</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="10">
         <v>4990</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="11">
         <v>13782</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="18">
         <v>9065</v>
       </c>
-      <c r="I20" s="6">
+      <c r="H20" s="10"/>
+      <c r="I20" s="23">
         <v>0.37</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="2">
+      <c r="J20" s="19"/>
+      <c r="K20" s="11">
         <v>333</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="20">
         <f>G20/224.809</f>
         <v>40.323118736349521</v>
       </c>
-      <c r="N20" s="4">
+      <c r="M20" s="20"/>
+      <c r="N20" s="20">
         <f>I20*28.325</f>
         <v>10.48025</v>
       </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="5">
+      <c r="O20" s="20"/>
+      <c r="P20" s="21">
         <f>L20*N20/1000</f>
         <v>0.42259636513662707</v>
       </c>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5">
+      <c r="Q20" s="21"/>
+      <c r="R20" s="22">
         <f>K20/2.205</f>
         <v>151.0204081632653</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S20" s="35">
         <f>(C20*L20*1000/9.81)/D20</f>
         <v>0.7261566393640555</v>
       </c>
-      <c r="T20" s="5">
+      <c r="T20" s="21">
         <f>(C20*L20*1000/9.81)/F20</f>
         <v>0.59648957438981809</v>
       </c>
-      <c r="W20" s="5">
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21">
         <f>E20/(P20*C20)</f>
         <v>5903.9788456139622</v>
       </c>
-      <c r="Y20" s="5">
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21">
         <f t="shared" ref="Y20" si="12">W20*0.33</f>
         <v>1948.3130190526076</v>
       </c>
+      <c r="Z20" s="22"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="Q21" s="5"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="22"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="9">
         <v>1</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="12">
         <v>6340</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="12">
         <v>3400</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="13">
         <v>10410</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="18">
         <v>21450</v>
       </c>
-      <c r="I22" s="3">
+      <c r="H22" s="10"/>
+      <c r="I22" s="19">
         <v>0.74</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="7">
+      <c r="J22" s="19"/>
+      <c r="K22" s="37">
         <v>459</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="20">
         <f>G22/224.809</f>
         <v>95.41432949748453</v>
       </c>
-      <c r="N22" s="4">
+      <c r="M22" s="20"/>
+      <c r="N22" s="20">
         <f>I22*28.325</f>
         <v>20.9605</v>
       </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="5">
+      <c r="O22" s="20"/>
+      <c r="P22" s="21">
         <f>L22*N22/1000</f>
         <v>1.9999320534320246</v>
       </c>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5">
+      <c r="Q22" s="21"/>
+      <c r="R22" s="22">
         <f>K22/2.205</f>
         <v>208.16326530612244</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22" s="35">
         <f>(C22*L22*1000/9.81)/D22</f>
         <v>1.5341058904273392</v>
       </c>
-      <c r="T22" s="5">
+      <c r="T22" s="21">
         <f>(C22*L22*1000/9.81)/F22</f>
         <v>0.93431617149945534</v>
       </c>
-      <c r="W22" s="5">
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21">
         <f>E22/(P22*C22)</f>
         <v>1700.0577565449585</v>
       </c>
-      <c r="Y22" s="5">
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21">
         <f t="shared" ref="Y22:Y24" si="13">W22*0.33</f>
         <v>561.01905965983633</v>
       </c>
+      <c r="Z22" s="22"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="9">
         <v>1</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="12">
         <v>6340</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="12">
         <v>3400</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="13">
         <v>10410</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="18">
         <v>23800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="H23" s="10"/>
+      <c r="I23" s="19">
         <v>0.76</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="2">
+      <c r="J23" s="19"/>
+      <c r="K23" s="11">
         <v>459</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="20">
         <f>G23/224.809</f>
         <v>105.8676476475586</v>
       </c>
-      <c r="N23" s="4">
+      <c r="M23" s="20"/>
+      <c r="N23" s="20">
         <f>I23*28.325</f>
         <v>21.527000000000001</v>
       </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="5">
+      <c r="O23" s="20"/>
+      <c r="P23" s="21">
         <f>L23*N23/1000</f>
         <v>2.2790128509089942</v>
       </c>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5">
+      <c r="Q23" s="21"/>
+      <c r="R23" s="22">
         <f>K23/2.205</f>
         <v>208.16326530612244</v>
       </c>
-      <c r="S23" s="5">
+      <c r="S23" s="35">
         <f>(C23*L23*1000/9.81)/D23</f>
         <v>1.7021780975370941</v>
       </c>
-      <c r="T23" s="5">
+      <c r="T23" s="21">
         <f>(C23*L23*1000/9.81)/F23</f>
         <v>1.0366771506614003</v>
       </c>
-      <c r="W23" s="5">
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21">
         <f>E23/(P23*C23)</f>
         <v>1491.873992129485</v>
       </c>
-      <c r="Y23" s="5">
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21">
         <f t="shared" si="13"/>
         <v>492.31841740273006</v>
       </c>
+      <c r="Z23" s="22"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="15">
         <v>1</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="16">
         <v>6340</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="16">
         <v>3400</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="17">
         <v>10410</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="25">
         <v>23800</v>
       </c>
-      <c r="I24" s="6">
+      <c r="H24" s="26"/>
+      <c r="I24" s="27">
         <v>0.6</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="7">
+      <c r="J24" s="28"/>
+      <c r="K24" s="38">
         <v>450</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="29">
         <f>G24/224.809</f>
         <v>105.8676476475586</v>
       </c>
-      <c r="N24" s="4">
+      <c r="M24" s="29"/>
+      <c r="N24" s="29">
         <f>I24*28.325</f>
         <v>16.994999999999997</v>
       </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="5">
+      <c r="O24" s="29"/>
+      <c r="P24" s="30">
         <f>L24*N24/1000</f>
         <v>1.7992206717702581</v>
       </c>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5">
+      <c r="Q24" s="30"/>
+      <c r="R24" s="31">
         <f>K24/2.205</f>
         <v>204.08163265306121</v>
       </c>
-      <c r="S24" s="5">
+      <c r="S24" s="36">
         <f>(C24*L24*1000/9.81)/D24</f>
         <v>1.7021780975370941</v>
       </c>
-      <c r="T24" s="5">
+      <c r="T24" s="30">
         <f>(C24*L24*1000/9.81)/F24</f>
         <v>1.0366771506614003</v>
       </c>
-      <c r="W24" s="5">
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30">
         <f>E24/(P24*C24)</f>
         <v>1889.7070566973482</v>
       </c>
-      <c r="Y24" s="5">
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30">
         <f t="shared" si="13"/>
         <v>623.60332871012497</v>
       </c>
+      <c r="Z24" s="31"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -10143,7 +10443,7 @@
       <c r="A31" t="s">
         <v>84</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="7" t="s">
         <v>85</v>
       </c>
     </row>
@@ -11930,7 +12230,7 @@
       </c>
       <c r="N32">
         <f>IRL!$V$14</f>
-        <v>1.1040213952312201</v>
+        <v>1.1434507307751924</v>
       </c>
       <c r="P32" t="s">
         <v>22</v>
@@ -12145,7 +12445,7 @@
       </c>
       <c r="L37">
         <f t="shared" ref="L37:L57" si="20">N37/SQRT(L$32)/0.152</f>
-        <v>1.5932646167582225</v>
+        <v>1.6501669244995878</v>
       </c>
       <c r="M37">
         <f t="shared" ref="M37:M57" si="21">(1+(K37/1225)^2)*MAX(1-K37/N$34, 0)</f>
@@ -12153,7 +12453,7 @@
       </c>
       <c r="N37">
         <f>N32*9.81</f>
-        <v>10.83044988721827</v>
+        <v>11.217251668904638</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -12210,7 +12510,7 @@
       </c>
       <c r="L38">
         <f t="shared" si="20"/>
-        <v>1.5362959506404827</v>
+        <v>1.591163663163357</v>
       </c>
       <c r="M38">
         <f t="shared" si="21"/>
@@ -12218,7 +12518,7 @@
       </c>
       <c r="N38">
         <f t="shared" ref="N38:N57" si="29">N$37*M38</f>
-        <v>10.443197024736934</v>
+        <v>10.816168347048967</v>
       </c>
       <c r="P38">
         <f t="shared" ref="P38:P57" si="30">P37+R$32</f>
@@ -12276,7 +12576,7 @@
       </c>
       <c r="L39">
         <f t="shared" si="20"/>
-        <v>1.5199386108641018</v>
+        <v>1.5742221326806771</v>
       </c>
       <c r="M39">
         <f t="shared" si="21"/>
@@ -12284,7 +12584,7 @@
       </c>
       <c r="N39">
         <f t="shared" si="29"/>
-        <v>10.332005608776946</v>
+        <v>10.701005809090409</v>
       </c>
       <c r="P39">
         <f t="shared" si="30"/>
@@ -12342,7 +12642,7 @@
       </c>
       <c r="L40">
         <f t="shared" si="20"/>
-        <v>1.5370258927806051</v>
+        <v>1.5919196746656268</v>
       </c>
       <c r="M40">
         <f t="shared" si="21"/>
@@ -12350,7 +12650,7 @@
       </c>
       <c r="N40">
         <f t="shared" si="29"/>
-        <v>10.448158913481599</v>
+        <v>10.821307446105942</v>
       </c>
       <c r="P40">
         <f t="shared" si="30"/>
@@ -12408,7 +12708,7 @@
       </c>
       <c r="L41">
         <f t="shared" si="20"/>
-        <v>1.5803910917415174</v>
+        <v>1.6368336307322857</v>
       </c>
       <c r="M41">
         <f t="shared" si="21"/>
@@ -12416,7 +12716,7 @@
       </c>
       <c r="N41">
         <f t="shared" si="29"/>
-        <v>10.742940212994183</v>
+        <v>11.126616649172547</v>
       </c>
       <c r="P41">
         <f t="shared" si="30"/>
@@ -12474,7 +12774,7 @@
       </c>
       <c r="L42">
         <f t="shared" si="20"/>
-        <v>1.6428675030983628</v>
+        <v>1.701541342494733</v>
       </c>
       <c r="M42">
         <f t="shared" si="21"/>
@@ -12482,7 +12782,7 @@
       </c>
       <c r="N42">
         <f t="shared" si="29"/>
-        <v>11.167632781457989</v>
+        <v>11.566476809367202</v>
       </c>
       <c r="P42">
         <f t="shared" si="30"/>
@@ -12540,7 +12840,7 @@
       </c>
       <c r="L43">
         <f t="shared" si="20"/>
-        <v>1.7172884222026672</v>
+        <v>1.7786201515670481</v>
       </c>
       <c r="M43">
         <f t="shared" si="21"/>
@@ -12548,7 +12848,7 @@
       </c>
       <c r="N43">
         <f t="shared" si="29"/>
-        <v>11.67351989301631</v>
+        <v>12.090431317766893</v>
       </c>
       <c r="P43">
         <f t="shared" si="30"/>
@@ -12606,7 +12906,7 @@
       </c>
       <c r="L44">
         <f t="shared" si="20"/>
-        <v>1.7964871444059551</v>
+        <v>1.8606473995633104</v>
       </c>
       <c r="M44">
         <f t="shared" si="21"/>
@@ -12614,7 +12914,7 @@
       </c>
       <c r="N44">
         <f t="shared" si="29"/>
-        <v>12.211884821812438</v>
+        <v>12.648023565448597</v>
       </c>
       <c r="P44">
         <f t="shared" si="30"/>
@@ -12672,7 +12972,7 @@
       </c>
       <c r="L45">
         <f t="shared" si="20"/>
-        <v>1.8732969650597509</v>
+        <v>1.9402004280975993</v>
       </c>
       <c r="M45">
         <f t="shared" si="21"/>
@@ -12680,7 +12980,7 @@
       </c>
       <c r="N45">
         <f t="shared" si="29"/>
-        <v>12.73401084198966</v>
+        <v>13.188796943489292</v>
       </c>
       <c r="P45">
         <f t="shared" si="30"/>
@@ -12738,7 +13038,7 @@
       </c>
       <c r="L46">
         <f t="shared" si="20"/>
-        <v>1.9405511795155799</v>
+        <v>2.0098565787839937</v>
       </c>
       <c r="M46">
         <f t="shared" si="21"/>
@@ -12746,7 +13046,7 @@
       </c>
       <c r="N46">
         <f t="shared" si="29"/>
-        <v>13.191181227691272</v>
+        <v>13.662294842965961</v>
       </c>
       <c r="P46">
         <f t="shared" si="30"/>
@@ -12804,7 +13104,7 @@
       </c>
       <c r="L47">
         <f t="shared" si="20"/>
-        <v>1.9910830831249673</v>
+        <v>2.0621931932365736</v>
       </c>
       <c r="M47">
         <f t="shared" si="21"/>
@@ -12812,7 +13112,7 @@
       </c>
       <c r="N47">
         <f t="shared" si="29"/>
-        <v>13.534679253060567</v>
+        <v>14.018060654955587</v>
       </c>
       <c r="P47">
         <f t="shared" si="30"/>
@@ -12870,7 +13170,7 @@
       </c>
       <c r="L48">
         <f t="shared" si="20"/>
-        <v>2.0177259712394373</v>
+        <v>2.0897876130694168</v>
       </c>
       <c r="M48">
         <f t="shared" si="21"/>
@@ -12878,7 +13178,7 @@
       </c>
       <c r="N48">
         <f t="shared" si="29"/>
-        <v>13.715788192240829</v>
+        <v>14.205637770535144</v>
       </c>
       <c r="P48">
         <f t="shared" si="30"/>
@@ -12936,7 +13236,7 @@
       </c>
       <c r="L49">
         <f t="shared" si="20"/>
-        <v>2.0133131392105152</v>
+        <v>2.0852171798966053</v>
       </c>
       <c r="M49">
         <f t="shared" si="21"/>
@@ -12944,7 +13244,7 @@
       </c>
       <c r="N49">
         <f t="shared" si="29"/>
-        <v>13.685791319375356</v>
+        <v>14.17456958078162</v>
       </c>
       <c r="P49">
         <f t="shared" si="30"/>
@@ -13002,7 +13302,7 @@
       </c>
       <c r="L50">
         <f t="shared" si="20"/>
-        <v>1.9706778823897253</v>
+        <v>2.0410592353322157</v>
       </c>
       <c r="M50">
         <f t="shared" si="21"/>
@@ -13010,7 +13310,7 @@
       </c>
       <c r="N50">
         <f t="shared" si="29"/>
-        <v>13.395971908607436</v>
+        <v>13.874399476771988</v>
       </c>
       <c r="P50">
         <f t="shared" si="30"/>
@@ -13068,7 +13368,7 @@
       </c>
       <c r="L51">
         <f t="shared" si="20"/>
-        <v>1.8826534961285939</v>
+        <v>1.9498911209903294</v>
       </c>
       <c r="M51">
         <f t="shared" si="21"/>
@@ -13076,7 +13376,7 @@
       </c>
       <c r="N51">
         <f t="shared" si="29"/>
-        <v>12.797613234080366</v>
+        <v>13.254670849583237</v>
       </c>
       <c r="P51">
         <f t="shared" si="30"/>
@@ -13134,7 +13434,7 @@
       </c>
       <c r="L52">
         <f t="shared" si="20"/>
-        <v>1.7420732757786439</v>
+        <v>1.804290178485024</v>
       </c>
       <c r="M52">
         <f t="shared" si="21"/>
@@ -13142,7 +13442,7 @@
       </c>
       <c r="N52">
         <f t="shared" si="29"/>
-        <v>11.841998569937427</v>
+        <v>12.264927090292337</v>
       </c>
       <c r="P52">
         <f t="shared" si="30"/>
@@ -13200,7 +13500,7 @@
       </c>
       <c r="L53">
         <f t="shared" si="20"/>
-        <v>1.5417705166914006</v>
+        <v>1.5968337494303797</v>
       </c>
       <c r="M53">
         <f t="shared" si="21"/>
@@ -13208,7 +13508,7 @@
       </c>
       <c r="N53">
         <f t="shared" si="29"/>
-        <v>10.480411190321917</v>
+        <v>10.854711589976272</v>
       </c>
       <c r="P53">
         <f t="shared" si="30"/>
@@ -13266,7 +13566,7 @@
       </c>
       <c r="L54">
         <f t="shared" si="20"/>
-        <v>1.274578514218391</v>
+        <v>1.3200991754404763</v>
       </c>
       <c r="M54">
         <f t="shared" si="21"/>
@@ -13274,7 +13574,7 @@
       </c>
       <c r="N54">
         <f t="shared" si="29"/>
-        <v>8.664134369377134</v>
+        <v>8.9735677397120313</v>
       </c>
       <c r="P54">
         <f t="shared" si="30"/>
@@ -13332,7 +13632,7 @@
       </c>
       <c r="L55">
         <f t="shared" si="20"/>
-        <v>0.93333056371113654</v>
+        <v>0.96666379812939163</v>
       </c>
       <c r="M55">
         <f t="shared" si="21"/>
@@ -13340,7 +13640,7 @@
       </c>
       <c r="N55">
         <f t="shared" si="29"/>
-        <v>6.3444513812463521</v>
+        <v>6.5710389305765791</v>
       </c>
       <c r="P55">
         <f t="shared" si="30"/>
@@ -13398,7 +13698,7 @@
       </c>
       <c r="L56">
         <f t="shared" si="20"/>
-        <v>0.51085996052116567</v>
+        <v>0.52910495911120725</v>
       </c>
       <c r="M56">
         <f t="shared" si="21"/>
@@ -13406,7 +13706,7 @@
       </c>
       <c r="N56">
         <f t="shared" si="29"/>
-        <v>3.4726455000728831</v>
+        <v>3.5966685536469147</v>
       </c>
       <c r="P56">
         <f t="shared" si="30"/>
@@ -15266,7 +15566,7 @@
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94">
         <f>IRL!$L$17*1000</f>
-        <v>54935.523044006244</v>
+        <v>59606.154557869122</v>
       </c>
       <c r="B94">
         <f>IRL!$R$17</f>
@@ -15274,7 +15574,7 @@
       </c>
       <c r="C94">
         <f>IRL!$P$17</f>
-        <v>1.0378844763777251</v>
+        <v>1.1261256666770461</v>
       </c>
       <c r="D94">
         <v>3000</v>

--- a/REB Engine Profile.xlsx
+++ b/REB Engine Profile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgkid\Documents\GitHub\REBalanced\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7116093D-ECB3-4FF6-9233-14B2A411DC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A8A399-0249-414D-A1E3-0F663CDF8B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{48F6B32E-432E-46EB-935F-18F86645025F}"/>
   </bookViews>
@@ -34,6 +34,42 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={5F58F688-8559-4CAA-903D-5B37486DED4F}</author>
+  </authors>
+  <commentList>
+    <comment ref="G20" authorId="0" shapeId="0" xr:uid="{5F58F688-8559-4CAA-903D-5B37486DED4F}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    9065 lbs is correct value, but for viable gameplay it is set to current value.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={FDD360BB-6FD3-4C03-907D-93C92009B2A2}</author>
+  </authors>
+  <commentList>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{FDD360BB-6FD3-4C03-907D-93C92009B2A2}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    IRL it's more like 1000</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,7 +415,7 @@
     <numFmt numFmtId="179" formatCode="#,##0.0000_ "/>
     <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +452,12 @@
       <sz val="11"/>
       <color rgb="FF202122"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -536,7 +578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -564,16 +606,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -594,19 +630,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -633,15 +660,6 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -662,6 +680,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6401,52 +6428,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>5.8515627247641158</c:v>
+                  <c:v>11.703125449528232</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.432984674794004</c:v>
+                  <c:v>11.012806773231089</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0484046673105487</c:v>
+                  <c:v>10.393774315051131</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.687952302882139</c:v>
+                  <c:v>9.8295774092690014</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3417571820771643</c:v>
+                  <c:v>9.3037653901653528</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9999489054640169</c:v>
+                  <c:v>8.7998875920208377</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.652657073611087</c:v>
+                  <c:v>8.3014933491161056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.290011287086763</c:v>
+                  <c:v>7.7921319957318076</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9021411464594378</c:v>
+                  <c:v>7.255352866148594</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4791762522974996</c:v>
+                  <c:v>6.674705294647115</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0112462051693405</c:v>
+                  <c:v>6.033738615508021</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4884806056433504</c:v>
+                  <c:v>5.3160021630119649</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.90100905428791878</c:v>
+                  <c:v>4.5050452714395952</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.23896115167143778</c:v>
+                  <c:v>3.5844172750715635</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2.5376675081885196</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1.3483453050711149</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -8294,7 +8321,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{56A8DD58-7ECC-479E-88D8-A0EAF35ACF06}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8305,7 +8332,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9298983" cy="6078242"/>
+    <xdr:ext cx="9302238" cy="6083710"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="차트 1">
@@ -8334,10 +8361,16 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Mingi Park" id="{2B9CBCF4-6017-4503-A8D7-215C7F85D903}" userId="cd0a2b2004dc7eb2" providerId="Windows Live"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8375,7 +8408,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8481,7 +8514,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8623,18 +8656,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G20" dT="2024-03-24T11:53:42.82" personId="{2B9CBCF4-6017-4503-A8D7-215C7F85D903}" id="{5F58F688-8559-4CAA-903D-5B37486DED4F}">
+    <text>9065 lbs is correct value, but for viable gameplay it is set to current value.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D4" dT="2024-03-24T11:58:52.86" personId="{2B9CBCF4-6017-4503-A8D7-215C7F85D903}" id="{FDD360BB-6FD3-4C03-907D-93C92009B2A2}">
+    <text>IRL it's more like 1000</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFD454E-F3C6-4FAB-86B6-C320D531FCD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFD454E-F3C6-4FAB-86B6-C320D531FCD7}">
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8666,116 +8715,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="32" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="33" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="34"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="36"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="40" t="s">
+      <c r="P2" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="40" t="s">
+      <c r="Q2" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S2" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="T2" s="40" t="s">
+      <c r="T2" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="40" t="s">
+      <c r="U2" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="V2" s="40" t="s">
+      <c r="V2" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="W2" s="40" t="s">
+      <c r="W2" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="40" t="s">
+      <c r="X2" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" s="40" t="s">
+      <c r="Y2" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="41" t="s">
+      <c r="Z2" s="33" t="s">
         <v>71</v>
       </c>
     </row>
@@ -8783,93 +8832,93 @@
       <c r="A3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="2">
         <v>10660</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="2">
         <v>4930</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>16769</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="16">
         <v>10600</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="2">
         <v>16000</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="3">
         <v>0.85299999999999998</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="3">
         <v>1.85</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="9">
         <v>142</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="4">
         <f t="shared" ref="L3:M5" si="0">G3/224.809</f>
         <v>47.151137187568111</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="4">
         <f t="shared" si="0"/>
         <v>71.171527830291495</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="4">
         <f t="shared" ref="N3:O5" si="1">I3*28.325</f>
         <v>24.161224999999998</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3" s="4">
         <f t="shared" si="1"/>
         <v>52.401250000000005</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="5">
         <f t="shared" ref="P3:Q5" si="2">L3*N3/1000</f>
         <v>1.1392292345947004</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="5">
         <f t="shared" si="2"/>
         <v>3.7294770227170626</v>
       </c>
-      <c r="R3" s="22">
+      <c r="R3" s="17">
         <f>K3/2.205</f>
         <v>64.399092970521536</v>
       </c>
-      <c r="S3" s="35">
+      <c r="S3" s="27">
         <f>(C3*L3*1000/9.81)/D3</f>
         <v>0.90177035700003838</v>
       </c>
-      <c r="T3" s="21">
+      <c r="T3" s="5">
         <f>(C3*L3*1000/9.81)/F3</f>
         <v>0.57325254968217598</v>
       </c>
-      <c r="U3" s="21">
+      <c r="U3" s="5">
         <f>(C3*M3*1000/9.81)/D3</f>
         <v>1.361162803018926</v>
       </c>
-      <c r="V3" s="21">
+      <c r="V3" s="5">
         <f>(C3*M3*1000/9.81)/F3</f>
         <v>0.86528686744479399</v>
       </c>
-      <c r="W3" s="21">
+      <c r="W3" s="5">
         <f>E3/(P3*C3)</f>
         <v>2163.743630470442</v>
       </c>
-      <c r="X3" s="21">
+      <c r="X3" s="5">
         <f>E3/(Q3*C3)</f>
         <v>660.95057966174465</v>
       </c>
-      <c r="Y3" s="21">
+      <c r="Y3" s="5">
         <f>W3*0.33</f>
         <v>714.03539805524588</v>
       </c>
-      <c r="Z3" s="22">
+      <c r="Z3" s="17">
         <f>Q3/P3</f>
         <v>3.2736844433630479</v>
       </c>
@@ -8878,93 +8927,93 @@
       <c r="A4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="2">
         <v>10433</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="2">
         <v>4930</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <v>16769</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="16">
         <v>11950</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="2">
         <v>17700</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="18">
         <v>0.85299999999999998</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="3">
         <v>1.74</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="9">
         <v>146</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="4">
         <f t="shared" si="0"/>
         <v>53.156234848248957</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="4">
         <f t="shared" si="0"/>
         <v>78.733502662259966</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="4">
         <f t="shared" si="1"/>
         <v>24.161224999999998</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="4">
         <f t="shared" si="1"/>
         <v>49.285499999999999</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="5">
         <f t="shared" si="2"/>
         <v>1.2843197503213837</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="5">
         <f t="shared" si="2"/>
         <v>3.8804200454608133</v>
       </c>
-      <c r="R4" s="22">
+      <c r="R4" s="17">
         <f>K4/2.205</f>
         <v>66.213151927437636</v>
       </c>
-      <c r="S4" s="35">
+      <c r="S4" s="27">
         <f>(C4*L4*1000/9.81)/D4</f>
         <v>1.038737934847191</v>
       </c>
-      <c r="T4" s="21">
+      <c r="T4" s="5">
         <f>(C4*L4*1000/9.81)/F4</f>
         <v>0.64626112912283051</v>
       </c>
-      <c r="U4" s="21">
+      <c r="U4" s="5">
         <f>(C4*M4*1000/9.81)/D4</f>
         <v>1.5385490750456305</v>
       </c>
-      <c r="V4" s="21">
+      <c r="V4" s="5">
         <f>(C4*M4*1000/9.81)/F4</f>
         <v>0.9572235971108034</v>
       </c>
-      <c r="W4" s="21">
+      <c r="W4" s="5">
         <f>E4/(P4*C4)</f>
         <v>1919.3039734716897</v>
       </c>
-      <c r="X4" s="21">
+      <c r="X4" s="5">
         <f>E4/(Q4*C4)</f>
         <v>635.24050775984301</v>
       </c>
-      <c r="Y4" s="21">
+      <c r="Y4" s="5">
         <f t="shared" ref="Y4:Y5" si="3">W4*0.33</f>
         <v>633.3703112456576</v>
       </c>
-      <c r="Z4" s="22">
+      <c r="Z4" s="17">
         <f>Q4/P4</f>
         <v>3.0213815870150644</v>
       </c>
@@ -8973,216 +9022,202 @@
       <c r="A5" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="2">
         <v>14552</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="2">
         <v>6667</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>23000</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="16">
         <v>12500</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="2">
         <v>22000</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="18">
         <v>0.72399999999999998</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="18">
         <v>1.8</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="9">
         <v>169</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="4">
         <f t="shared" si="0"/>
         <v>55.602756117415225</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="4">
         <f t="shared" si="0"/>
         <v>97.860850766650799</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="4">
         <f t="shared" si="1"/>
         <v>20.507299999999997</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="4">
         <f t="shared" si="1"/>
         <v>50.984999999999999</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="5">
         <f t="shared" si="2"/>
         <v>1.1402624005266691</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="5">
         <f t="shared" si="2"/>
         <v>4.9894354763376905</v>
       </c>
-      <c r="R5" s="22">
+      <c r="R5" s="17">
         <f>K5/2.205</f>
         <v>76.643990929705211</v>
       </c>
-      <c r="S5" s="35">
+      <c r="S5" s="27">
         <f>(C5*L5*1000/9.81)/D5</f>
         <v>0.77899491265063181</v>
       </c>
-      <c r="T5" s="21">
+      <c r="T5" s="5">
         <f>(C5*L5*1000/9.81)/F5</f>
         <v>0.49286669429965191</v>
       </c>
-      <c r="U5" s="21">
+      <c r="U5" s="5">
         <f>(C5*M5*1000/9.81)/D5</f>
         <v>1.3710310462651119</v>
       </c>
-      <c r="V5" s="21">
+      <c r="V5" s="5">
         <f>(C5*M5*1000/9.81)/F5</f>
         <v>0.86744538196738719</v>
       </c>
-      <c r="W5" s="21">
+      <c r="W5" s="5">
         <f>E5/(P5*C5)</f>
         <v>2923.4498993041507</v>
       </c>
-      <c r="X5" s="21">
+      <c r="X5" s="5">
         <f>E5/(Q5*C5)</f>
         <v>668.1116562803677</v>
       </c>
-      <c r="Y5" s="21">
+      <c r="Y5" s="5">
         <f t="shared" si="3"/>
         <v>964.73846677036977</v>
       </c>
-      <c r="Z5" s="22">
+      <c r="Z5" s="17">
         <f>Q5/P5</f>
         <v>4.375690607734807</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="22"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="16"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="27"/>
+      <c r="Z6" s="17"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="2">
         <v>8573</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="2">
         <v>3200</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>12020</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="16">
         <v>16600</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="2">
         <v>28000</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="3">
         <v>0.745</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="3">
         <v>1.9710000000000001</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="9">
         <v>264</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="4">
         <f t="shared" ref="L7:M10" si="4">G7/224.809</f>
         <v>73.840460123927429</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="4">
         <f t="shared" si="4"/>
         <v>124.55017370301012</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="4">
         <f t="shared" ref="N7:O10" si="5">I7*28.325</f>
         <v>21.102125000000001</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="4">
         <f t="shared" si="5"/>
         <v>55.828575000000001</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="5">
         <f t="shared" ref="P7:Q10" si="6">L7*N7/1000</f>
         <v>1.5581906195926323</v>
       </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="5">
         <f t="shared" si="6"/>
         <v>6.9534587138415285</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="17">
         <f>K7/2.205</f>
         <v>119.72789115646258</v>
       </c>
-      <c r="S7" s="35">
+      <c r="S7" s="27">
         <f>(C7*L7*1000/9.81)/D7</f>
         <v>0.87799605218060006</v>
       </c>
-      <c r="T7" s="21">
+      <c r="T7" s="5">
         <f>(C7*L7*1000/9.81)/F7</f>
         <v>0.62621132739969088</v>
       </c>
-      <c r="U7" s="21">
+      <c r="U7" s="5">
         <f>(C7*M7*1000/9.81)/D7</f>
         <v>1.4809571964492048</v>
       </c>
-      <c r="V7" s="21">
+      <c r="V7" s="5">
         <f>(C7*M7*1000/9.81)/F7</f>
         <v>1.0562600703127314</v>
       </c>
-      <c r="W7" s="21">
+      <c r="W7" s="5">
         <f>E7/(P7*C7)</f>
         <v>2053.6640124534933</v>
       </c>
-      <c r="X7" s="21">
+      <c r="X7" s="5">
         <f>E7/(Q7*C7)</f>
         <v>460.20263176799943</v>
       </c>
-      <c r="Y7" s="21">
+      <c r="Y7" s="5">
         <f t="shared" ref="Y7" si="7">W7*0.33</f>
         <v>677.70912410965286</v>
       </c>
-      <c r="Z7" s="22">
+      <c r="Z7" s="17">
         <f>Q7/P7</f>
         <v>4.462521225842969</v>
       </c>
@@ -9191,93 +9226,93 @@
       <c r="A8" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="2">
         <v>8573</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="2">
         <v>3200</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <v>12020</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="16">
         <v>17000</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="2">
         <v>29000</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="18">
         <v>0.745</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="3">
         <v>1.9</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="9">
         <v>270</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="4">
         <f t="shared" si="4"/>
         <v>75.619748319684717</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="4">
         <f t="shared" si="4"/>
         <v>128.99839419240334</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="4">
         <f t="shared" si="5"/>
         <v>21.102125000000001</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="4">
         <f t="shared" si="5"/>
         <v>53.817499999999995</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="5">
         <f t="shared" si="6"/>
         <v>1.5957373815105271</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="5">
         <f t="shared" si="6"/>
         <v>6.942371079449666</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8" s="17">
         <f>K8/2.205</f>
         <v>122.44897959183673</v>
       </c>
-      <c r="S8" s="35">
+      <c r="S8" s="27">
         <f>(C8*L8*1000/9.81)/D8</f>
         <v>0.89915258355844574</v>
       </c>
-      <c r="T8" s="21">
+      <c r="T8" s="5">
         <f>(C8*L8*1000/9.81)/F8</f>
         <v>0.64130075697558697</v>
       </c>
-      <c r="U8" s="21">
+      <c r="U8" s="5">
         <f>(C8*M8*1000/9.81)/D8</f>
         <v>1.5338485248938192</v>
       </c>
-      <c r="V8" s="21">
+      <c r="V8" s="5">
         <f>(C8*M8*1000/9.81)/F8</f>
         <v>1.093983644252472</v>
       </c>
-      <c r="W8" s="21">
+      <c r="W8" s="5">
         <f>E8/(P8*C8)</f>
         <v>2005.3425062781168</v>
       </c>
-      <c r="X8" s="21">
+      <c r="X8" s="5">
         <f>E8/(Q8*C8)</f>
         <v>460.93761963724785</v>
       </c>
-      <c r="Y8" s="21">
+      <c r="Y8" s="5">
         <f>W8*0.33</f>
         <v>661.76302707177854</v>
       </c>
-      <c r="Z8" s="22">
+      <c r="Z8" s="17">
         <f>Q8/P8</f>
         <v>4.3505724437425961</v>
       </c>
@@ -9286,93 +9321,93 @@
       <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="2">
         <v>8573</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="2">
         <v>3200</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <v>12020</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="16">
         <v>14670</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="2">
         <v>23830</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="18">
         <v>0.73499999999999999</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="3">
         <v>2.1</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="9">
         <v>228</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="4">
         <f t="shared" si="4"/>
         <v>65.255394579398512</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="4">
         <f t="shared" si="4"/>
         <v>106.00109426224039</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="4">
         <f t="shared" si="5"/>
         <v>20.818874999999998</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="4">
         <f t="shared" si="5"/>
         <v>59.482500000000002</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="5">
         <f t="shared" si="6"/>
         <v>1.358543902824175</v>
       </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="5">
         <f t="shared" si="6"/>
         <v>6.3052100894537144</v>
       </c>
-      <c r="R9" s="22">
+      <c r="R9" s="17">
         <f>K9/2.205</f>
         <v>103.40136054421768</v>
       </c>
-      <c r="S9" s="35">
+      <c r="S9" s="27">
         <f>(C9*L9*1000/9.81)/D9</f>
         <v>0.77591578828249408</v>
       </c>
-      <c r="T9" s="21">
+      <c r="T9" s="5">
         <f>(C9*L9*1000/9.81)/F9</f>
         <v>0.55340482969599181</v>
       </c>
-      <c r="U9" s="21">
+      <c r="U9" s="5">
         <f>(C9*M9*1000/9.81)/D9</f>
         <v>1.2604003568351623</v>
       </c>
-      <c r="V9" s="21">
+      <c r="V9" s="5">
         <f>(C9*M9*1000/9.81)/F9</f>
         <v>0.89895276698401383</v>
       </c>
-      <c r="W9" s="21">
+      <c r="W9" s="5">
         <f>E9/(P9*C9)</f>
         <v>2355.4630758327057</v>
       </c>
-      <c r="X9" s="21">
+      <c r="X9" s="5">
         <f>E9/(Q9*C9)</f>
         <v>507.51679239878416</v>
       </c>
-      <c r="Y9" s="21">
+      <c r="Y9" s="5">
         <f>W9*0.33</f>
         <v>777.30281502479295</v>
       </c>
-      <c r="Z9" s="22">
+      <c r="Z9" s="17">
         <f>Q9/P9</f>
         <v>4.641152984711268</v>
       </c>
@@ -9381,216 +9416,202 @@
       <c r="A10" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="2">
         <v>8573</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="2">
         <v>3200</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>12020</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="16">
         <v>17800</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="2">
         <v>29100</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="3">
         <v>0.72599999999999998</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="3">
         <v>2.06</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="9">
         <v>254</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="4">
         <f t="shared" si="4"/>
         <v>79.178324711199281</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="4">
         <f t="shared" si="4"/>
         <v>129.44321624134264</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="4">
         <f t="shared" si="5"/>
         <v>20.563949999999998</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10" s="4">
         <f t="shared" si="5"/>
         <v>58.349499999999999</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="5">
         <f t="shared" si="6"/>
         <v>1.6282191104448664</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="Q10" s="5">
         <f t="shared" si="6"/>
         <v>7.552946946074222</v>
       </c>
-      <c r="R10" s="22">
+      <c r="R10" s="17">
         <f>K10/2.205</f>
         <v>115.19274376417233</v>
       </c>
-      <c r="S10" s="35">
+      <c r="S10" s="27">
         <f>(C10*L10*1000/9.81)/D10</f>
         <v>0.94146564631413721</v>
       </c>
-      <c r="T10" s="21">
+      <c r="T10" s="5">
         <f>(C10*L10*1000/9.81)/F10</f>
         <v>0.67147961612737928</v>
       </c>
-      <c r="U10" s="21">
+      <c r="U10" s="5">
         <f>(C10*M10*1000/9.81)/D10</f>
         <v>1.5391376577382805</v>
       </c>
-      <c r="V10" s="21">
+      <c r="V10" s="5">
         <f>(C10*M10*1000/9.81)/F10</f>
         <v>1.0977560016464458</v>
       </c>
-      <c r="W10" s="21">
+      <c r="W10" s="5">
         <f>E10/(P10*C10)</f>
         <v>1965.3374533392421</v>
       </c>
-      <c r="X10" s="21">
+      <c r="X10" s="5">
         <f>E10/(Q10*C10)</f>
         <v>423.6756888201441</v>
       </c>
-      <c r="Y10" s="21">
+      <c r="Y10" s="5">
         <f>W10*0.33</f>
         <v>648.5613596019499</v>
       </c>
-      <c r="Z10" s="22">
+      <c r="Z10" s="17">
         <f>Q10/P10</f>
         <v>4.638777973813724</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="22"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="16"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="27"/>
+      <c r="Z11" s="17"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="2">
         <v>12701</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="2">
         <v>6103</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="9">
         <v>20185</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="16">
         <v>14670</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="2">
         <v>23830</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="18">
         <v>0.73499999999999999</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="3">
         <v>2.1</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="9">
         <v>228</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="4">
         <f t="shared" ref="L12:M15" si="8">G12/224.809</f>
         <v>65.255394579398512</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="4">
         <f t="shared" si="8"/>
         <v>106.00109426224039</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="4">
         <f t="shared" ref="N12:O15" si="9">I12*28.325</f>
         <v>20.818874999999998</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="4">
         <f t="shared" si="9"/>
         <v>59.482500000000002</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P12" s="5">
         <f t="shared" ref="P12:Q15" si="10">L12*N12/1000</f>
         <v>1.358543902824175</v>
       </c>
-      <c r="Q12" s="21">
+      <c r="Q12" s="5">
         <f t="shared" si="10"/>
         <v>6.3052100894537144</v>
       </c>
-      <c r="R12" s="22">
+      <c r="R12" s="17">
         <f>K12/2.205</f>
         <v>103.40136054421768</v>
       </c>
-      <c r="S12" s="35">
+      <c r="S12" s="27">
         <f>(C12*L12*1000/9.81)/D12</f>
         <v>1.0474649323589988</v>
       </c>
-      <c r="T12" s="21">
+      <c r="T12" s="5">
         <f>(C12*L12*1000/9.81)/F12</f>
         <v>0.65909596759433453</v>
       </c>
-      <c r="U12" s="21">
+      <c r="U12" s="5">
         <f>(C12*M12*1000/9.81)/D12</f>
         <v>1.701505749019423</v>
       </c>
-      <c r="V12" s="21">
+      <c r="V12" s="5">
         <f>(C12*M12*1000/9.81)/F12</f>
         <v>1.0706378260240621</v>
       </c>
-      <c r="W12" s="21">
+      <c r="W12" s="5">
         <f>E12/(P12*C12)</f>
         <v>2246.1548674698442</v>
       </c>
-      <c r="X12" s="21">
+      <c r="X12" s="5">
         <f>E12/(Q12*C12)</f>
         <v>483.96484125152807</v>
       </c>
-      <c r="Y12" s="21">
+      <c r="Y12" s="5">
         <f>W12*0.33</f>
         <v>741.23110626504865</v>
       </c>
-      <c r="Z12" s="22">
+      <c r="Z12" s="17">
         <f>Q12/P12</f>
         <v>4.641152984711268</v>
       </c>
@@ -9599,93 +9620,93 @@
       <c r="A13" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="2">
         <v>14379</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="2">
         <v>10591</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <v>23000</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="16">
         <v>14670</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="2">
         <v>23830</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="18">
         <v>0.73499999999999999</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="3">
         <v>2.1</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="9">
         <v>228</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="4">
         <f t="shared" si="8"/>
         <v>65.255394579398512</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="4">
         <f t="shared" si="8"/>
         <v>106.00109426224039</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13" s="4">
         <f t="shared" si="9"/>
         <v>20.818874999999998</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13" s="4">
         <f t="shared" si="9"/>
         <v>59.482500000000002</v>
       </c>
-      <c r="P13" s="21">
+      <c r="P13" s="5">
         <f t="shared" si="10"/>
         <v>1.358543902824175</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="Q13" s="5">
         <f t="shared" si="10"/>
         <v>6.3052100894537144</v>
       </c>
-      <c r="R13" s="22">
+      <c r="R13" s="17">
         <f>K13/2.205</f>
         <v>103.40136054421768</v>
       </c>
-      <c r="S13" s="35">
+      <c r="S13" s="27">
         <f>(C13*L13*1000/9.81)/D13</f>
         <v>0.92522790916556386</v>
       </c>
-      <c r="T13" s="21">
+      <c r="T13" s="5">
         <f>(C13*L13*1000/9.81)/F13</f>
         <v>0.5784283524300714</v>
       </c>
-      <c r="U13" s="21">
+      <c r="U13" s="5">
         <f>(C13*M13*1000/9.81)/D13</f>
         <v>1.5029434952566725</v>
       </c>
-      <c r="V13" s="21">
+      <c r="V13" s="5">
         <f>(C13*M13*1000/9.81)/F13</f>
         <v>0.9396010660128562</v>
       </c>
-      <c r="W13" s="21">
+      <c r="W13" s="5">
         <f>E13/(P13*C13)</f>
         <v>3897.9233493975294</v>
       </c>
-      <c r="X13" s="21">
+      <c r="X13" s="5">
         <f>E13/(Q13*C13)</f>
         <v>839.86099192117547</v>
       </c>
-      <c r="Y13" s="21">
+      <c r="Y13" s="5">
         <f>W13*0.33</f>
         <v>1286.3147053011849</v>
       </c>
-      <c r="Z13" s="22">
+      <c r="Z13" s="17">
         <f>Q13/P13</f>
         <v>4.641152984711268</v>
       </c>
@@ -9694,93 +9715,93 @@
       <c r="A14" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="2">
         <v>14379</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="2">
         <v>10591</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <v>23000</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="16">
         <v>17000</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="2">
         <v>29000</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="18">
         <v>0.745</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="3">
         <v>1.9</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="9">
         <v>270</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="4">
         <f t="shared" si="8"/>
         <v>75.619748319684717</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="4">
         <f t="shared" si="8"/>
         <v>128.99839419240334</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="4">
         <f t="shared" si="9"/>
         <v>21.102125000000001</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="4">
         <f t="shared" si="9"/>
         <v>53.817499999999995</v>
       </c>
-      <c r="P14" s="21">
+      <c r="P14" s="5">
         <f t="shared" si="10"/>
         <v>1.5957373815105271</v>
       </c>
-      <c r="Q14" s="21">
+      <c r="Q14" s="5">
         <f t="shared" si="10"/>
         <v>6.942371079449666</v>
       </c>
-      <c r="R14" s="22">
+      <c r="R14" s="17">
         <f>K14/2.205</f>
         <v>122.44897959183673</v>
       </c>
-      <c r="S14" s="35">
+      <c r="S14" s="27">
         <f>(C14*L14*1000/9.81)/D14</f>
         <v>1.0721795811734551</v>
       </c>
-      <c r="T14" s="21">
+      <c r="T14" s="5">
         <f>(C14*L14*1000/9.81)/F14</f>
         <v>0.67029870424752658</v>
       </c>
-      <c r="U14" s="21">
+      <c r="U14" s="5">
         <f>(C14*M14*1000/9.81)/D14</f>
         <v>1.8290122267076587</v>
       </c>
-      <c r="V14" s="21">
+      <c r="V14" s="5">
         <f>(C14*M14*1000/9.81)/F14</f>
         <v>1.1434507307751924</v>
       </c>
-      <c r="W14" s="21">
+      <c r="W14" s="5">
         <f>E14/(P14*C14)</f>
         <v>3318.5285131236774</v>
       </c>
-      <c r="X14" s="21">
+      <c r="X14" s="5">
         <f>E14/(Q14*C14)</f>
         <v>762.77973899657684</v>
       </c>
-      <c r="Y14" s="21">
+      <c r="Y14" s="5">
         <f>W14*0.33</f>
         <v>1095.1144093308135</v>
       </c>
-      <c r="Z14" s="22">
+      <c r="Z14" s="17">
         <f>Q14/P14</f>
         <v>4.3505724437425961</v>
       </c>
@@ -9789,216 +9810,202 @@
       <c r="A15" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="2">
         <v>14379</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="2">
         <v>10591</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <v>23000</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="16">
         <v>17800</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="2">
         <v>29100</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="3">
         <v>0.72599999999999998</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="3">
         <v>2.06</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="9">
         <v>254</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="4">
         <f t="shared" si="8"/>
         <v>79.178324711199281</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="4">
         <f t="shared" si="8"/>
         <v>129.44321624134264</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="4">
         <f t="shared" si="9"/>
         <v>20.563949999999998</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O15" s="4">
         <f t="shared" si="9"/>
         <v>58.349499999999999</v>
       </c>
-      <c r="P15" s="21">
+      <c r="P15" s="5">
         <f t="shared" si="10"/>
         <v>1.6282191104448664</v>
       </c>
-      <c r="Q15" s="21">
+      <c r="Q15" s="5">
         <f t="shared" si="10"/>
         <v>7.552946946074222</v>
       </c>
-      <c r="R15" s="22">
+      <c r="R15" s="17">
         <f>K15/2.205</f>
         <v>115.19274376417233</v>
       </c>
-      <c r="S15" s="35">
+      <c r="S15" s="27">
         <f>(C15*L15*1000/9.81)/D15</f>
         <v>1.1226350908757352</v>
       </c>
-      <c r="T15" s="21">
+      <c r="T15" s="5">
         <f>(C15*L15*1000/9.81)/F15</f>
         <v>0.70184217268270421</v>
       </c>
-      <c r="U15" s="21">
+      <c r="U15" s="5">
         <f>(C15*M15*1000/9.81)/D15</f>
         <v>1.8353191654204435</v>
       </c>
-      <c r="V15" s="21">
+      <c r="V15" s="5">
         <f>(C15*M15*1000/9.81)/F15</f>
         <v>1.1473936643295894</v>
       </c>
-      <c r="W15" s="21">
+      <c r="W15" s="5">
         <f>E15/(P15*C15)</f>
         <v>3252.3264012993614</v>
       </c>
-      <c r="X15" s="21">
+      <c r="X15" s="5">
         <f>E15/(Q15*C15)</f>
         <v>701.11706567096041</v>
       </c>
-      <c r="Y15" s="21">
+      <c r="Y15" s="5">
         <f>W15*0.33</f>
         <v>1073.2677124287893</v>
       </c>
-      <c r="Z15" s="22">
+      <c r="Z15" s="17">
         <f>Q15/P15</f>
         <v>4.638777973813724</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="22"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="16"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="27"/>
+      <c r="Z16" s="17"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="2">
         <v>19838</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="2">
         <v>7350</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="9">
         <v>27669</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="19">
         <v>13400</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="2">
         <v>20900</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="18">
         <v>0.66700000000000004</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="18">
         <v>2.5</v>
       </c>
-      <c r="K17" s="37">
+      <c r="K17" s="29">
         <v>260</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="4">
         <f>G17/224.809</f>
         <v>59.606154557869125</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17" s="4">
         <f>H17/224.809</f>
         <v>92.967808228318262</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17" s="4">
         <f>I17*28.325</f>
         <v>18.892775</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17" s="4">
         <f>J17*28.325</f>
         <v>70.8125</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="5">
         <f>L17*N17/1000</f>
         <v>1.1261256666770461</v>
       </c>
-      <c r="Q17" s="21">
+      <c r="Q17" s="5">
         <f>M17*O17/1000</f>
         <v>6.5832829201677869</v>
       </c>
-      <c r="R17" s="22">
+      <c r="R17" s="17">
         <f>K17/2.205</f>
         <v>117.91383219954648</v>
       </c>
-      <c r="S17" s="35">
+      <c r="S17" s="27">
         <f>(C17*L17*1000/9.81)/D17</f>
         <v>0.61256786040186595</v>
       </c>
-      <c r="T17" s="21">
+      <c r="T17" s="5">
         <f>(C17*L17*1000/9.81)/F17</f>
         <v>0.43919625626702141</v>
       </c>
-      <c r="U17" s="21">
+      <c r="U17" s="5">
         <f>(C17*M17*1000/9.81)/D17</f>
         <v>0.95542300614917886</v>
       </c>
-      <c r="V17" s="21">
+      <c r="V17" s="5">
         <f>(C17*M17*1000/9.81)/F17</f>
         <v>0.68501505641647376</v>
       </c>
-      <c r="W17" s="21">
+      <c r="W17" s="5">
         <f>E17/(P17*C17)</f>
         <v>3263.4013314376648</v>
       </c>
-      <c r="X17" s="21">
+      <c r="X17" s="5">
         <f>E17/(Q17*C17)</f>
         <v>558.23212287317824</v>
       </c>
-      <c r="Y17" s="21">
+      <c r="Y17" s="5">
         <f t="shared" ref="Y17:Y18" si="11">W17*0.33</f>
         <v>1076.9224393744294</v>
       </c>
-      <c r="Z17" s="22">
+      <c r="Z17" s="17">
         <f>Q17/P17</f>
         <v>5.845957618205821</v>
       </c>
@@ -10007,432 +10014,389 @@
       <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="2">
         <v>19838</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="2">
         <v>7350</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="9">
         <v>27669</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="16">
         <v>16800</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="2">
         <v>26080</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="18">
         <v>0.745</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="3">
         <v>2</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="9">
         <v>250</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18" s="4">
         <f>G18/224.809</f>
         <v>74.730104221806073</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="4">
         <f>H18/224.809</f>
         <v>116.00959036337514</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18" s="4">
         <f>I18*28.325</f>
         <v>21.102125000000001</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18" s="4">
         <f>J18*28.325</f>
         <v>56.65</v>
       </c>
-      <c r="P18" s="21">
+      <c r="P18" s="5">
         <f>L18*N18/1000</f>
         <v>1.5769640005515797</v>
       </c>
-      <c r="Q18" s="21">
+      <c r="Q18" s="5">
         <f>M18*O18/1000</f>
         <v>6.5719432940852007</v>
       </c>
-      <c r="R18" s="22">
+      <c r="R18" s="17">
         <f>K18/2.205</f>
         <v>113.37868480725623</v>
       </c>
-      <c r="S18" s="35">
+      <c r="S18" s="27">
         <f>(C18*L18*1000/9.81)/D18</f>
         <v>0.76799552647398128</v>
       </c>
-      <c r="T18" s="21">
+      <c r="T18" s="5">
         <f>(C18*L18*1000/9.81)/F18</f>
         <v>0.55063411233477322</v>
       </c>
-      <c r="U18" s="21">
+      <c r="U18" s="5">
         <f>(C18*M18*1000/9.81)/D18</f>
         <v>1.1922216268119898</v>
       </c>
-      <c r="V18" s="21">
+      <c r="V18" s="5">
         <f>(C18*M18*1000/9.81)/F18</f>
         <v>0.85479390771969554</v>
       </c>
-      <c r="W18" s="21">
+      <c r="W18" s="5">
         <f>E18/(P18*C18)</f>
         <v>2330.4273266317959</v>
       </c>
-      <c r="X18" s="21">
+      <c r="X18" s="5">
         <f>E18/(Q18*C18)</f>
         <v>559.19533014040587</v>
       </c>
-      <c r="Y18" s="21">
+      <c r="Y18" s="5">
         <f t="shared" si="11"/>
         <v>769.0410177884927</v>
       </c>
-      <c r="Z18" s="22">
+      <c r="Z18" s="17">
         <f>Q18/P18</f>
         <v>4.1674656439757101</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="22"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="16"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="27"/>
+      <c r="Z19" s="17"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="2">
         <v>11321</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="2">
         <v>4990</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="9">
         <v>13782</v>
       </c>
-      <c r="G20" s="18">
-        <v>9065</v>
-      </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="23">
+      <c r="G20" s="16">
+        <v>18130</v>
+      </c>
+      <c r="I20" s="18">
         <v>0.37</v>
       </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="11">
+      <c r="J20" s="3"/>
+      <c r="K20" s="9">
         <v>333</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="4">
         <f>G20/224.809</f>
-        <v>40.323118736349521</v>
-      </c>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20">
+        <v>80.646237472699042</v>
+      </c>
+      <c r="N20" s="4">
         <f>I20*28.325</f>
         <v>10.48025</v>
       </c>
-      <c r="O20" s="20"/>
-      <c r="P20" s="21">
+      <c r="O20" s="4"/>
+      <c r="P20" s="5">
         <f>L20*N20/1000</f>
-        <v>0.42259636513662707</v>
-      </c>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="22">
+        <v>0.84519273027325414</v>
+      </c>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="17">
         <f>K20/2.205</f>
         <v>151.0204081632653</v>
       </c>
-      <c r="S20" s="35">
+      <c r="S20" s="27">
         <f>(C20*L20*1000/9.81)/D20</f>
-        <v>0.7261566393640555</v>
-      </c>
-      <c r="T20" s="21">
+        <v>1.452313278728111</v>
+      </c>
+      <c r="T20" s="5">
         <f>(C20*L20*1000/9.81)/F20</f>
-        <v>0.59648957438981809</v>
-      </c>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21">
+        <v>1.1929791487796362</v>
+      </c>
+      <c r="W20" s="5">
         <f>E20/(P20*C20)</f>
-        <v>5903.9788456139622</v>
-      </c>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21">
+        <v>2951.9894228069811</v>
+      </c>
+      <c r="Y20" s="5">
         <f t="shared" ref="Y20" si="12">W20*0.33</f>
-        <v>1948.3130190526076</v>
-      </c>
-      <c r="Z20" s="22"/>
+        <v>974.15650952630381</v>
+      </c>
+      <c r="Z20" s="17"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="22"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="16"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="27"/>
+      <c r="Z21" s="17"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="10">
         <v>6340</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="10">
         <v>3400</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="11">
         <v>10410</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="16">
         <v>21450</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="19">
+      <c r="I22" s="3">
         <v>0.74</v>
       </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="37">
+      <c r="J22" s="3"/>
+      <c r="K22" s="29">
         <v>459</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L22" s="4">
         <f>G22/224.809</f>
         <v>95.41432949748453</v>
       </c>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20">
+      <c r="N22" s="4">
         <f>I22*28.325</f>
         <v>20.9605</v>
       </c>
-      <c r="O22" s="20"/>
-      <c r="P22" s="21">
+      <c r="O22" s="4"/>
+      <c r="P22" s="5">
         <f>L22*N22/1000</f>
         <v>1.9999320534320246</v>
       </c>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="22">
+      <c r="Q22" s="5"/>
+      <c r="R22" s="17">
         <f>K22/2.205</f>
         <v>208.16326530612244</v>
       </c>
-      <c r="S22" s="35">
+      <c r="S22" s="27">
         <f>(C22*L22*1000/9.81)/D22</f>
         <v>1.5341058904273392</v>
       </c>
-      <c r="T22" s="21">
+      <c r="T22" s="5">
         <f>(C22*L22*1000/9.81)/F22</f>
         <v>0.93431617149945534</v>
       </c>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21">
+      <c r="W22" s="5">
         <f>E22/(P22*C22)</f>
         <v>1700.0577565449585</v>
       </c>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21">
+      <c r="Y22" s="5">
         <f t="shared" ref="Y22:Y24" si="13">W22*0.33</f>
         <v>561.01905965983633</v>
       </c>
-      <c r="Z22" s="22"/>
+      <c r="Z22" s="17"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="10">
         <v>6340</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="10">
         <v>3400</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="11">
         <v>10410</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="16">
         <v>23800</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="19">
+      <c r="I23" s="3">
         <v>0.76</v>
       </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="11">
+      <c r="J23" s="3"/>
+      <c r="K23" s="9">
         <v>459</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="4">
         <f>G23/224.809</f>
         <v>105.8676476475586</v>
       </c>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20">
+      <c r="N23" s="4">
         <f>I23*28.325</f>
         <v>21.527000000000001</v>
       </c>
-      <c r="O23" s="20"/>
-      <c r="P23" s="21">
+      <c r="O23" s="4"/>
+      <c r="P23" s="5">
         <f>L23*N23/1000</f>
         <v>2.2790128509089942</v>
       </c>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="22">
+      <c r="Q23" s="5"/>
+      <c r="R23" s="17">
         <f>K23/2.205</f>
         <v>208.16326530612244</v>
       </c>
-      <c r="S23" s="35">
+      <c r="S23" s="27">
         <f>(C23*L23*1000/9.81)/D23</f>
         <v>1.7021780975370941</v>
       </c>
-      <c r="T23" s="21">
+      <c r="T23" s="5">
         <f>(C23*L23*1000/9.81)/F23</f>
         <v>1.0366771506614003</v>
       </c>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21">
+      <c r="W23" s="5">
         <f>E23/(P23*C23)</f>
         <v>1491.873992129485</v>
       </c>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21">
+      <c r="Y23" s="5">
         <f t="shared" si="13"/>
         <v>492.31841740273006</v>
       </c>
-      <c r="Z23" s="22"/>
+      <c r="Z23" s="17"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="13">
         <v>1</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="14">
         <v>6340</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="14">
         <v>3400</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="15">
         <v>10410</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="20">
         <v>23800</v>
       </c>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27">
+      <c r="H24" s="21"/>
+      <c r="I24" s="22">
         <v>0.6</v>
       </c>
-      <c r="J24" s="28"/>
-      <c r="K24" s="38">
+      <c r="J24" s="23"/>
+      <c r="K24" s="30">
         <v>450</v>
       </c>
-      <c r="L24" s="29">
+      <c r="L24" s="24">
         <f>G24/224.809</f>
         <v>105.8676476475586</v>
       </c>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29">
+      <c r="M24" s="24"/>
+      <c r="N24" s="24">
         <f>I24*28.325</f>
         <v>16.994999999999997</v>
       </c>
-      <c r="O24" s="29"/>
-      <c r="P24" s="30">
+      <c r="O24" s="24"/>
+      <c r="P24" s="25">
         <f>L24*N24/1000</f>
         <v>1.7992206717702581</v>
       </c>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="31">
+      <c r="Q24" s="25"/>
+      <c r="R24" s="26">
         <f>K24/2.205</f>
         <v>204.08163265306121</v>
       </c>
-      <c r="S24" s="36">
+      <c r="S24" s="28">
         <f>(C24*L24*1000/9.81)/D24</f>
         <v>1.7021780975370941</v>
       </c>
-      <c r="T24" s="30">
+      <c r="T24" s="25">
         <f>(C24*L24*1000/9.81)/F24</f>
         <v>1.0366771506614003</v>
       </c>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30">
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25">
         <f>E24/(P24*C24)</f>
         <v>1889.7070566973482</v>
       </c>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30">
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25">
         <f t="shared" si="13"/>
         <v>623.60332871012497</v>
       </c>
-      <c r="Z24" s="31"/>
+      <c r="Z24" s="26"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -10463,14 +10427,17 @@
     <hyperlink ref="G31" r:id="rId1" xr:uid="{48D92612-8370-4284-8298-A8CA906B3BF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9BA4F5-4601-45D4-A8D5-481C1BEBEC64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9BA4F5-4601-45D4-A8D5-481C1BEBEC64}">
   <dimension ref="A1:S117"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10550,7 +10517,7 @@
       </c>
       <c r="D2" s="1">
         <f>IRL!$T$20</f>
-        <v>0.59648957438981809</v>
+        <v>1.1929791487796362</v>
       </c>
       <c r="F2" t="s">
         <v>40</v>
@@ -10648,7 +10615,7 @@
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>IRL!$L$20*1000</f>
-        <v>40323.118736349519</v>
+        <v>80646.237472699038</v>
       </c>
       <c r="B4">
         <f>IRL!$R$20</f>
@@ -10656,10 +10623,10 @@
       </c>
       <c r="C4">
         <f>IRL!$P$20</f>
-        <v>0.42259636513662707</v>
+        <v>0.84519273027325414</v>
       </c>
       <c r="D4">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F4">
         <f>IRL!$L$22*1000</f>
@@ -10763,7 +10730,7 @@
       </c>
       <c r="B7">
         <f>D7/SQRT(B$2)/0.152</f>
-        <v>1.2173859264207616</v>
+        <v>2.4347718528415232</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:C27" si="0">(1+(A7/1225)^2)*MAX(1-A7/D$4, 0)</f>
@@ -10771,7 +10738,7 @@
       </c>
       <c r="D7">
         <f>D2*9.81</f>
-        <v>5.8515627247641158</v>
+        <v>11.703125449528232</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10826,15 +10793,15 @@
       </c>
       <c r="B8">
         <f t="shared" ref="B8:B27" si="8">D8/SQRT(B$2)/0.152</f>
-        <v>1.1303030306012005</v>
+        <v>2.2911547917591899</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0.92846730528946264</v>
+        <v>0.94101416076634725</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:D27" si="9">D$7*C8</f>
-        <v>5.432984674794004</v>
+        <v>11.012806773231089</v>
       </c>
       <c r="F8">
         <f t="shared" ref="F8:F27" si="10">F7+H$2</f>
@@ -10892,15 +10859,15 @@
       </c>
       <c r="B9">
         <f t="shared" si="8"/>
-        <v>1.05029324335039</v>
+        <v>2.1623684421919798</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0.86274468971261975</v>
+        <v>0.88811953352769679</v>
       </c>
       <c r="D9">
         <f t="shared" si="9"/>
-        <v>5.0484046673105487</v>
+        <v>10.393774315051131</v>
       </c>
       <c r="F9">
         <f t="shared" si="10"/>
@@ -10958,15 +10925,15 @@
       </c>
       <c r="B10">
         <f t="shared" si="8"/>
-        <v>0.97530308153546696</v>
+        <v>2.0449903322517855</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0.80114535610162441</v>
+        <v>0.83991045397750941</v>
       </c>
       <c r="D10">
         <f t="shared" si="9"/>
-        <v>4.687952302882139</v>
+        <v>9.8295774092690014</v>
       </c>
       <c r="F10">
         <f t="shared" si="10"/>
@@ -11024,15 +10991,15 @@
       </c>
       <c r="B11">
         <f t="shared" si="8"/>
-        <v>0.90327906202356789</v>
+        <v>1.9355979900505027</v>
       </c>
       <c r="C11">
         <f>(1+(A11/1225)^2)*MAX(1-A11/D$4, 0)</f>
-        <v>0.74198250728862969</v>
+        <v>0.79498125780924611</v>
       </c>
       <c r="D11">
         <f t="shared" si="9"/>
-        <v>4.3417571820771643</v>
+        <v>9.3037653901653528</v>
       </c>
       <c r="F11">
         <f t="shared" si="10"/>
@@ -11090,15 +11057,15 @@
       </c>
       <c r="B12">
         <f t="shared" si="8"/>
-        <v>0.83216770168183041</v>
+        <v>1.830768943700027</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0.68356934610578923</v>
+        <v>0.75192628071636824</v>
       </c>
       <c r="D12">
         <f t="shared" si="9"/>
-        <v>3.9999489054640169</v>
+        <v>8.7998875920208377</v>
       </c>
       <c r="F12">
         <f t="shared" si="10"/>
@@ -11156,15 +11123,15 @@
       </c>
       <c r="B13">
         <f t="shared" si="8"/>
-        <v>0.75991551737739138</v>
+        <v>1.7270807213122525</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>0.62421907538525623</v>
+        <v>0.7093398583923366</v>
       </c>
       <c r="D13">
         <f t="shared" si="9"/>
-        <v>3.652657073611087</v>
+        <v>8.3014933491161056</v>
       </c>
       <c r="F13">
         <f t="shared" si="10"/>
@@ -11222,15 +11189,15 @@
       </c>
       <c r="B14">
         <f t="shared" si="8"/>
-        <v>0.68446902597738735</v>
+        <v>1.6211108509990753</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>0.56224489795918364</v>
+        <v>0.66581632653061229</v>
       </c>
       <c r="D14">
         <f t="shared" si="9"/>
-        <v>3.290011287086763</v>
+        <v>7.7921319957318076</v>
       </c>
       <c r="F14">
         <f t="shared" si="10"/>
@@ -11288,15 +11255,15 @@
       </c>
       <c r="B15">
         <f t="shared" si="8"/>
-        <v>0.60377474434895584</v>
+        <v>1.5094368608723896</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>0.49596001665972517</v>
+        <v>0.61995002082465644</v>
       </c>
       <c r="D15">
         <f t="shared" si="9"/>
-        <v>2.9021411464594378</v>
+        <v>7.255352866148594</v>
       </c>
       <c r="F15">
         <f t="shared" si="10"/>
@@ -11354,15 +11321,15 @@
       </c>
       <c r="B16">
         <f t="shared" si="8"/>
-        <v>0.5157791893592335</v>
+        <v>1.3886362790440903</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>0.42367763431903371</v>
+        <v>0.57033527696793007</v>
       </c>
       <c r="D16">
         <f t="shared" si="9"/>
-        <v>2.4791762522974996</v>
+        <v>6.674705294647115</v>
       </c>
       <c r="F16">
         <f t="shared" si="10"/>
@@ -11420,15 +11387,15 @@
       </c>
       <c r="B17">
         <f t="shared" si="8"/>
-        <v>0.41842887787535749</v>
+        <v>1.2552866336260726</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0.34371095376926281</v>
+        <v>0.51556643065389418</v>
       </c>
       <c r="D17">
         <f t="shared" si="9"/>
-        <v>2.0112462051693405</v>
+        <v>6.033738615508021</v>
       </c>
       <c r="F17">
         <f t="shared" si="10"/>
@@ -11486,15 +11453,15 @@
       </c>
       <c r="B18">
         <f t="shared" si="8"/>
-        <v>0.30967032676446493</v>
+        <v>1.1059654527302316</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>0.25437317784256563</v>
+        <v>0.45423781757601001</v>
       </c>
       <c r="D18">
         <f t="shared" si="9"/>
-        <v>1.4884806056433504</v>
+        <v>5.3160021630119649</v>
       </c>
       <c r="F18">
         <f t="shared" si="10"/>
@@ -11552,15 +11519,15 @@
       </c>
       <c r="B19">
         <f t="shared" si="8"/>
-        <v>0.18745005289369238</v>
+        <v>0.93725026446846216</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>0.15397750937109533</v>
+        <v>0.38494377342773844</v>
       </c>
       <c r="D19">
         <f t="shared" si="9"/>
-        <v>0.90100905428791878</v>
+        <v>4.5050452714395952</v>
       </c>
       <c r="F19">
         <f t="shared" si="10"/>
@@ -11618,15 +11585,15 @@
       </c>
       <c r="B20">
         <f t="shared" si="8"/>
-        <v>4.9714573130177332E-2</v>
+        <v>0.74571859695265941</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>4.0837151187005455E-2</v>
+        <v>0.30627863390254062</v>
       </c>
       <c r="D20">
         <f t="shared" si="9"/>
-        <v>0.23896115167143778</v>
+        <v>3.5844172750715635</v>
       </c>
       <c r="F20">
         <f t="shared" si="10"/>
@@ -11684,15 +11651,15 @@
       </c>
       <c r="B21">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.52794797829471796</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.21683673469387754</v>
       </c>
       <c r="D21">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2.5376675081885196</v>
       </c>
       <c r="F21">
         <f t="shared" si="10"/>
@@ -11750,15 +11717,15 @@
       </c>
       <c r="B22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.28051593660653323</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.11521241149521033</v>
       </c>
       <c r="D22">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.3483453050711149</v>
       </c>
       <c r="F22">
         <f t="shared" si="10"/>
@@ -16698,6 +16665,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
